--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="458">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -814,6 +814,24 @@
     <t xml:space="preserve">oslo.log&gt;=4.2.1</t>
   </si>
   <si>
+    <t xml:space="preserve">i1.1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyJWT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024/Nov/28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PyJWT&gt;=2.4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keystonemiddleware&gt;=7.0.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenStack Hosted apps</t>
   </si>
   <si>
@@ -1192,9 +1210,6 @@
     <t xml:space="preserve">oslo.serialization!=2.19.1,&gt;=2.18.0</t>
   </si>
   <si>
-    <t xml:space="preserve">keystonemiddleware&gt;=7.0.0</t>
-  </si>
-  <si>
     <t xml:space="preserve">OpenStack Library Projects - non-oslo</t>
   </si>
   <si>
@@ -1229,9 +1244,6 @@
   </si>
   <si>
     <t xml:space="preserve">oslo.log&gt;=3.36.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PyJWT&gt;=2.4.0</t>
   </si>
   <si>
     <t xml:space="preserve">python-keystoneclient&gt;=3.20.0</t>
@@ -1852,8 +1864,8 @@
   </sheetPr>
   <dimension ref="A1:XFD733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A704" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A731" activeCellId="0" sqref="731:731"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A601" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A599" activeCellId="0" sqref="599:599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5513,40 +5525,36 @@
         <v>259</v>
       </c>
     </row>
-    <row r="199" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
+    <row r="199" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="E199" s="9" t="s">
+      <c r="E199" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F199" s="9" t="s">
+      <c r="F199" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G199" s="9" t="s">
+      <c r="G199" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="1" t="s">
+      <c r="H199" s="16"/>
+      <c r="I199" s="16"/>
+      <c r="J199" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="K199" s="1" t="s">
+      <c r="K199" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="N199" s="1"/>
-      <c r="O199" s="1"/>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="10"/>
@@ -5565,16 +5573,131 @@
       <c r="N200" s="10"/>
       <c r="O200" s="10"/>
     </row>
+    <row r="201" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D201" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F201" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G201" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H201" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I201" s="16"/>
+      <c r="J201" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K201" s="15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="203" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B204" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F204" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G204" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B205" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="10"/>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="11"/>
+      <c r="F206" s="11"/>
+      <c r="G206" s="11"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="10"/>
+      <c r="N206" s="10"/>
+      <c r="O206" s="10"/>
+    </row>
     <row r="221" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -5602,13 +5725,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E223" s="9" t="n">
         <v>45692</v>
@@ -5624,7 +5747,7 @@
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K223" s="7" t="s">
         <v>42</v>
@@ -5636,16 +5759,16 @@
         <v>20</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>212</v>
@@ -5656,7 +5779,7 @@
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
       <c r="J225" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5689,16 +5812,16 @@
     </row>
     <row r="229" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>40</v>
@@ -5709,7 +5832,7 @@
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
       <c r="J229" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K229" s="7" t="s">
         <v>42</v>
@@ -5717,16 +5840,16 @@
     </row>
     <row r="230" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>154</v>
@@ -5737,7 +5860,7 @@
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
       <c r="J230" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K230" s="7" t="s">
         <v>42</v>
@@ -5793,7 +5916,7 @@
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
       <c r="J232" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K232" s="7" t="s">
         <v>42</v>
@@ -5801,16 +5924,16 @@
     </row>
     <row r="233" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>40</v>
@@ -5821,7 +5944,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
       <c r="J233" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K233" s="7" t="s">
         <v>42</v>
@@ -5829,13 +5952,13 @@
     </row>
     <row r="234" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>90</v>
@@ -5849,7 +5972,7 @@
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
       <c r="J234" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K234" s="7" t="s">
         <v>42</v>
@@ -5918,13 +6041,13 @@
     </row>
     <row r="237" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>52</v>
@@ -5938,7 +6061,7 @@
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
       <c r="J237" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K237" s="7" t="s">
         <v>42</v>
@@ -6013,16 +6136,16 @@
         <v>5</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>154</v>
@@ -6035,7 +6158,7 @@
       </c>
       <c r="I241" s="9"/>
       <c r="J241" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K241" s="7" t="s">
         <v>42</v>
@@ -6088,7 +6211,7 @@
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -6107,7 +6230,7 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -6126,7 +6249,7 @@
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -6153,13 +6276,13 @@
     </row>
     <row r="248" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E248" s="9" t="n">
         <v>45692</v>
@@ -6173,7 +6296,7 @@
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
       <c r="J248" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K248" s="7" t="s">
         <v>42</v>
@@ -6251,7 +6374,7 @@
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
       <c r="J252" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K252" s="7" t="s">
         <v>42</v>
@@ -6279,16 +6402,16 @@
         <v>5</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>154</v>
@@ -6301,7 +6424,7 @@
       </c>
       <c r="I254" s="9"/>
       <c r="J254" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K254" s="7" t="s">
         <v>42</v>
@@ -6530,13 +6653,13 @@
     </row>
     <row r="265" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>52</v>
@@ -6550,7 +6673,7 @@
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
       <c r="J265" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K265" s="7" t="s">
         <v>42</v>
@@ -6662,14 +6785,14 @@
     </row>
     <row r="272" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="3" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -6697,16 +6820,16 @@
         <v>5</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>40</v>
@@ -6719,7 +6842,7 @@
       </c>
       <c r="I274" s="9"/>
       <c r="J274" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K274" s="7" t="s">
         <v>42</v>
@@ -6772,7 +6895,7 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -6791,7 +6914,7 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -6810,7 +6933,7 @@
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
@@ -6837,13 +6960,13 @@
     </row>
     <row r="281" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E281" s="9" t="n">
         <v>45692</v>
@@ -6857,7 +6980,7 @@
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
       <c r="J281" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="282" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,16 +7113,16 @@
     </row>
     <row r="288" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F288" s="9" t="s">
         <v>40</v>
@@ -7010,7 +7133,7 @@
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
       <c r="J288" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K288" s="7" t="s">
         <v>42</v>
@@ -7046,13 +7169,13 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>52</v>
@@ -7066,7 +7189,7 @@
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
       <c r="J290" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K290" s="7" t="s">
         <v>42</v>
@@ -7291,16 +7414,16 @@
     </row>
     <row r="300" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F300" s="9" t="s">
         <v>40</v>
@@ -7311,7 +7434,7 @@
       <c r="H300" s="9"/>
       <c r="I300" s="9"/>
       <c r="J300" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>42</v>
@@ -7319,16 +7442,16 @@
     </row>
     <row r="301" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>236</v>
@@ -7339,7 +7462,7 @@
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
       <c r="J301" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>65</v>
@@ -7391,16 +7514,16 @@
     </row>
     <row r="305" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>40</v>
@@ -7411,7 +7534,7 @@
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
       <c r="J305" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K305" s="7" t="s">
         <v>42</v>
@@ -7533,7 +7656,7 @@
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
       <c r="J311" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
@@ -7552,7 +7675,7 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -7571,7 +7694,7 @@
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
       <c r="J313" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
@@ -7607,7 +7730,7 @@
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="1" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -7643,7 +7766,7 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="1" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -7662,7 +7785,7 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -7681,7 +7804,7 @@
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="1" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -7700,7 +7823,7 @@
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="1" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -7719,7 +7842,7 @@
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="1" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -7738,7 +7861,7 @@
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="1" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -7765,13 +7888,13 @@
     </row>
     <row r="324" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E324" s="9" t="n">
         <v>45692</v>
@@ -7785,7 +7908,7 @@
       <c r="H324" s="9"/>
       <c r="I324" s="9"/>
       <c r="J324" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K324" s="7" t="s">
         <v>42</v>
@@ -7813,7 +7936,7 @@
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
       <c r="J325" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="K325" s="7" t="s">
         <v>65</v>
@@ -7821,16 +7944,16 @@
     </row>
     <row r="326" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>236</v>
@@ -7841,7 +7964,7 @@
       <c r="H326" s="9"/>
       <c r="I326" s="9"/>
       <c r="J326" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K326" s="7" t="s">
         <v>42</v>
@@ -7849,16 +7972,16 @@
     </row>
     <row r="327" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>40</v>
@@ -7869,7 +7992,7 @@
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
       <c r="J327" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K327" s="7" t="s">
         <v>42</v>
@@ -7877,16 +8000,16 @@
     </row>
     <row r="328" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>154</v>
@@ -7897,7 +8020,7 @@
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
       <c r="J328" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="K328" s="7" t="s">
         <v>42</v>
@@ -7983,16 +8106,16 @@
     </row>
     <row r="333" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>40</v>
@@ -8003,7 +8126,7 @@
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
       <c r="J333" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K333" s="7" t="s">
         <v>42</v>
@@ -8011,13 +8134,13 @@
     </row>
     <row r="334" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>52</v>
@@ -8031,7 +8154,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>42</v>
@@ -8137,14 +8260,14 @@
     </row>
     <row r="340" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="3" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E340" s="4"/>
       <c r="F340" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -8204,13 +8327,13 @@
         <v>5</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>90</v>
@@ -8226,7 +8349,7 @@
       </c>
       <c r="I359" s="9"/>
       <c r="J359" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K359" s="7" t="s">
         <v>42</v>
@@ -8279,7 +8402,7 @@
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
       <c r="J362" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -8298,7 +8421,7 @@
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -8317,7 +8440,7 @@
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -8344,13 +8467,13 @@
     </row>
     <row r="366" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E366" s="9" t="n">
         <v>45692</v>
@@ -8364,21 +8487,21 @@
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
       <c r="J366" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="367" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>212</v>
@@ -8388,10 +8511,10 @@
       </c>
       <c r="H367" s="9"/>
       <c r="I367" s="9" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J367" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="368" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8468,16 +8591,16 @@
     </row>
     <row r="372" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F372" s="9" t="s">
         <v>40</v>
@@ -8488,7 +8611,7 @@
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
       <c r="J372" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K372" s="7" t="s">
         <v>42</v>
@@ -8524,13 +8647,13 @@
     </row>
     <row r="374" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E374" s="9" t="s">
         <v>52</v>
@@ -8544,7 +8667,7 @@
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
       <c r="J374" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K374" s="7" t="s">
         <v>42</v>
@@ -8655,17 +8778,17 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J381" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J382" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J383" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8719,7 +8842,7 @@
       <c r="H386" s="9"/>
       <c r="I386" s="9"/>
       <c r="J386" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K386" s="7" t="s">
         <v>75</v>
@@ -8727,16 +8850,16 @@
     </row>
     <row r="387" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>40</v>
@@ -8747,7 +8870,7 @@
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
       <c r="J387" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K387" s="7" t="s">
         <v>42</v>
@@ -8755,13 +8878,13 @@
     </row>
     <row r="388" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E388" s="9" t="s">
         <v>90</v>
@@ -8775,7 +8898,7 @@
       <c r="H388" s="9"/>
       <c r="I388" s="9"/>
       <c r="J388" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K388" s="7" t="s">
         <v>42</v>
@@ -8811,16 +8934,16 @@
     </row>
     <row r="390" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F390" s="9" t="s">
         <v>236</v>
@@ -8831,7 +8954,7 @@
       <c r="H390" s="9"/>
       <c r="I390" s="9"/>
       <c r="J390" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="K390" s="7" t="s">
         <v>65</v>
@@ -8839,16 +8962,16 @@
     </row>
     <row r="391" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F391" s="9" t="s">
         <v>236</v>
@@ -8859,7 +8982,7 @@
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
       <c r="J391" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K391" s="7" t="s">
         <v>42</v>
@@ -8871,13 +8994,13 @@
         <v>13</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E393" s="9" t="s">
         <v>52</v>
@@ -8891,7 +9014,7 @@
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
       <c r="J393" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K393" s="7" t="s">
         <v>42</v>
@@ -8919,13 +9042,13 @@
         <v>5</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E395" s="16" t="s">
         <v>90</v>
@@ -8941,7 +9064,7 @@
       </c>
       <c r="I395" s="16"/>
       <c r="J395" s="15" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K395" s="15" t="s">
         <v>42</v>
@@ -8994,7 +9117,7 @@
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
@@ -9013,7 +9136,7 @@
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
@@ -9032,7 +9155,7 @@
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
       <c r="J400" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
@@ -9059,13 +9182,13 @@
     </row>
     <row r="402" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E402" s="9" t="n">
         <v>45692</v>
@@ -9079,7 +9202,7 @@
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
       <c r="J402" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K402" s="7" t="s">
         <v>42</v>
@@ -9275,7 +9398,7 @@
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
@@ -9294,7 +9417,7 @@
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
       <c r="J412" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
@@ -9313,7 +9436,7 @@
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
@@ -9340,13 +9463,13 @@
     </row>
     <row r="415" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E415" s="9" t="n">
         <v>45692</v>
@@ -9360,7 +9483,7 @@
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
       <c r="J415" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="K415" s="7" t="s">
         <v>42</v>
@@ -9396,13 +9519,13 @@
     </row>
     <row r="417" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E417" s="16" t="s">
         <v>90</v>
@@ -9416,7 +9539,7 @@
       <c r="H417" s="16"/>
       <c r="I417" s="16"/>
       <c r="J417" s="15" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="K417" s="15" t="s">
         <v>42</v>
@@ -9424,13 +9547,13 @@
     </row>
     <row r="418" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E418" s="9" t="s">
         <v>90</v>
@@ -9444,7 +9567,7 @@
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
       <c r="J418" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K418" s="7" t="s">
         <v>42</v>
@@ -9472,7 +9595,7 @@
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
       <c r="J419" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="K419" s="7" t="s">
         <v>42</v>
@@ -9500,7 +9623,7 @@
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
       <c r="J420" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K420" s="7" t="s">
         <v>42</v>
@@ -9556,7 +9679,7 @@
       <c r="H422" s="9"/>
       <c r="I422" s="9"/>
       <c r="J422" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K422" s="7" t="s">
         <v>42</v>
@@ -9579,40 +9702,36 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
     </row>
-    <row r="424" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1" t="s">
+    <row r="424" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B424" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D424" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E424" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F424" s="9" t="s">
+      <c r="B424" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C424" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D424" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E424" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F424" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G424" s="9" t="s">
+      <c r="G424" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H424" s="2"/>
-      <c r="I424" s="2"/>
-      <c r="J424" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K424" s="1" t="s">
+      <c r="H424" s="16"/>
+      <c r="I424" s="16"/>
+      <c r="J424" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="K424" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L424" s="1"/>
-      <c r="M424" s="1"/>
-      <c r="N424" s="1"/>
-      <c r="O424" s="1"/>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="10"/>
@@ -9711,7 +9830,7 @@
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
@@ -9730,7 +9849,7 @@
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
@@ -9749,7 +9868,7 @@
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
@@ -9785,7 +9904,7 @@
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
@@ -9804,7 +9923,7 @@
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
@@ -9823,7 +9942,7 @@
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
@@ -9842,7 +9961,7 @@
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
@@ -9897,13 +10016,13 @@
     </row>
     <row r="439" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E439" s="9" t="s">
         <v>90</v>
@@ -9917,7 +10036,7 @@
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
       <c r="J439" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K439" s="7" t="s">
         <v>42</v>
@@ -9981,13 +10100,13 @@
     </row>
     <row r="442" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="E442" s="9" t="s">
         <v>240</v>
@@ -10001,7 +10120,7 @@
       <c r="H442" s="9"/>
       <c r="I442" s="9"/>
       <c r="J442" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="K442" s="7" t="s">
         <v>65</v>
@@ -10009,16 +10128,16 @@
     </row>
     <row r="443" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D443" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>212</v>
@@ -10029,7 +10148,7 @@
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
       <c r="J443" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K443" s="7" t="s">
         <v>75</v>
@@ -10043,7 +10162,7 @@
         <v>158</v>
       </c>
       <c r="D444" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E444" s="9" t="s">
         <v>159</v>
@@ -10071,16 +10190,16 @@
     </row>
     <row r="445" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>236</v>
@@ -10091,7 +10210,7 @@
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
       <c r="J445" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K445" s="7" t="s">
         <v>65</v>
@@ -10099,16 +10218,16 @@
     </row>
     <row r="446" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E446" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F446" s="9" t="s">
         <v>236</v>
@@ -10119,21 +10238,21 @@
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
       <c r="J446" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K446" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="447" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E447" s="9" t="n">
         <v>45692</v>
@@ -10147,7 +10266,7 @@
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
       <c r="J447" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="K447" s="7" t="s">
         <v>42</v>
@@ -10177,16 +10296,16 @@
     </row>
     <row r="450" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B450" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E450" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F450" s="9" t="s">
         <v>40</v>
@@ -10197,7 +10316,7 @@
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
       <c r="J450" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K450" s="7" t="s">
         <v>42</v>
@@ -10233,13 +10352,13 @@
     </row>
     <row r="452" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B452" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E452" s="9" t="s">
         <v>52</v>
@@ -10253,7 +10372,7 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
       <c r="J452" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K452" s="7" t="s">
         <v>42</v>
@@ -10403,7 +10522,7 @@
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -10422,7 +10541,7 @@
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
@@ -10441,7 +10560,7 @@
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
@@ -10477,7 +10596,7 @@
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
@@ -10496,7 +10615,7 @@
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="1" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -10515,7 +10634,7 @@
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="1" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
@@ -10534,7 +10653,7 @@
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="1" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
@@ -10561,16 +10680,16 @@
     </row>
     <row r="468" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E468" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F468" s="9" t="s">
         <v>236</v>
@@ -10581,7 +10700,7 @@
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
       <c r="J468" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="K468" s="7" t="s">
         <v>42</v>
@@ -10624,7 +10743,7 @@
         <v>158</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="E470" s="9" t="s">
         <v>159</v>
@@ -10670,13 +10789,13 @@
         <v>13</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E472" s="9" t="s">
         <v>52</v>
@@ -10690,7 +10809,7 @@
       <c r="H472" s="9"/>
       <c r="I472" s="9"/>
       <c r="J472" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K472" s="7" t="s">
         <v>42</v>
@@ -10786,7 +10905,7 @@
         <v>2</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E478" s="4"/>
       <c r="F478" s="4" t="s">
@@ -10796,7 +10915,7 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10876,21 +10995,21 @@
       <c r="H483" s="9"/>
       <c r="I483" s="9"/>
       <c r="J483" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="484" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B484" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D484" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E484" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F484" s="9" t="s">
         <v>40</v>
@@ -10901,7 +11020,7 @@
       <c r="H484" s="9"/>
       <c r="I484" s="9"/>
       <c r="J484" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11094,14 +11213,14 @@
     </row>
     <row r="497" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E497" s="4"/>
       <c r="F497" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
@@ -11129,16 +11248,16 @@
         <v>5</v>
       </c>
       <c r="B499" s="15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D499" s="15" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E499" s="16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F499" s="16" t="s">
         <v>154</v>
@@ -11151,7 +11270,7 @@
       </c>
       <c r="I499" s="16"/>
       <c r="J499" s="15" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K499" s="15" t="s">
         <v>42</v>
@@ -11204,7 +11323,7 @@
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -11223,7 +11342,7 @@
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
       <c r="J503" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -11242,7 +11361,7 @@
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
       <c r="J504" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -11323,7 +11442,7 @@
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
       <c r="J507" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K507" s="1" t="s">
         <v>42</v>
@@ -11389,7 +11508,7 @@
         <v>10</v>
       </c>
       <c r="J510" s="1" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>42</v>
@@ -11604,14 +11723,14 @@
     </row>
     <row r="523" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="E523" s="4"/>
       <c r="F523" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
@@ -11901,16 +12020,16 @@
     </row>
     <row r="535" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D535" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F535" s="9" t="s">
         <v>154</v>
@@ -11921,7 +12040,7 @@
       <c r="H535" s="9"/>
       <c r="I535" s="9"/>
       <c r="J535" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="K535" s="7" t="s">
         <v>42</v>
@@ -11929,13 +12048,13 @@
     </row>
     <row r="536" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D536" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E536" s="9" t="n">
         <v>45692</v>
@@ -11949,7 +12068,7 @@
       <c r="H536" s="9"/>
       <c r="I536" s="9"/>
       <c r="J536" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K536" s="7" t="s">
         <v>42</v>
@@ -11991,16 +12110,16 @@
     </row>
     <row r="538" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="7" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D538" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="E538" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="F538" s="9" t="s">
         <v>236</v>
@@ -12011,7 +12130,7 @@
       <c r="H538" s="9"/>
       <c r="I538" s="9"/>
       <c r="J538" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="K538" s="7" t="s">
         <v>75</v>
@@ -12019,16 +12138,16 @@
     </row>
     <row r="539" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="D539" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E539" s="9" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="F539" s="9" t="s">
         <v>236</v>
@@ -12039,7 +12158,7 @@
       <c r="H539" s="9"/>
       <c r="I539" s="9"/>
       <c r="J539" s="7" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="K539" s="7" t="s">
         <v>65</v>
@@ -12047,16 +12166,16 @@
     </row>
     <row r="540" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E540" s="9" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F540" s="9" t="s">
         <v>154</v>
@@ -12067,7 +12186,7 @@
       <c r="H540" s="9"/>
       <c r="I540" s="9"/>
       <c r="J540" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K540" s="7" t="s">
         <v>42</v>
@@ -12095,7 +12214,7 @@
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
       <c r="J541" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K541" s="7" t="s">
         <v>128</v>
@@ -12147,16 +12266,16 @@
     </row>
     <row r="545" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B545" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D545" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E545" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F545" s="9" t="s">
         <v>40</v>
@@ -12167,7 +12286,7 @@
       <c r="H545" s="9"/>
       <c r="I545" s="9"/>
       <c r="J545" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K545" s="7" t="s">
         <v>42</v>
@@ -12214,16 +12333,16 @@
         <v>5</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D548" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E548" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F548" s="9" t="s">
         <v>40</v>
@@ -12236,7 +12355,7 @@
       </c>
       <c r="I548" s="9"/>
       <c r="J548" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K548" s="7" t="s">
         <v>42</v>
@@ -12289,7 +12408,7 @@
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
       <c r="J551" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
@@ -12308,7 +12427,7 @@
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
       <c r="J552" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
@@ -12327,7 +12446,7 @@
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
       <c r="J553" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
@@ -12354,13 +12473,13 @@
     </row>
     <row r="555" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D555" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E555" s="9" t="n">
         <v>45692</v>
@@ -12374,7 +12493,7 @@
       <c r="H555" s="9"/>
       <c r="I555" s="9"/>
       <c r="J555" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K555" s="7" t="s">
         <v>42</v>
@@ -12419,7 +12538,7 @@
       <c r="H557" s="9"/>
       <c r="I557" s="9"/>
       <c r="J557" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="K557" s="7" t="s">
         <v>42</v>
@@ -12447,7 +12566,7 @@
       <c r="H558" s="9"/>
       <c r="I558" s="9"/>
       <c r="J558" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K558" s="7" t="s">
         <v>42</v>
@@ -12475,7 +12594,7 @@
       <c r="H559" s="9"/>
       <c r="I559" s="9"/>
       <c r="J559" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="K559" s="7" t="s">
         <v>42</v>
@@ -12483,13 +12602,13 @@
     </row>
     <row r="560" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D560" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E560" s="9" t="s">
         <v>90</v>
@@ -12503,7 +12622,7 @@
       <c r="H560" s="9"/>
       <c r="I560" s="9"/>
       <c r="J560" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K560" s="7" t="s">
         <v>42</v>
@@ -12539,16 +12658,16 @@
     </row>
     <row r="562" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D562" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E562" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F562" s="9" t="s">
         <v>236</v>
@@ -12559,7 +12678,7 @@
       <c r="H562" s="9"/>
       <c r="I562" s="9"/>
       <c r="J562" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K562" s="7" t="s">
         <v>42</v>
@@ -12567,16 +12686,16 @@
     </row>
     <row r="563" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D563" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E563" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F563" s="9" t="s">
         <v>40</v>
@@ -12587,7 +12706,7 @@
       <c r="H563" s="9"/>
       <c r="I563" s="9"/>
       <c r="J563" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K563" s="7" t="s">
         <v>42</v>
@@ -12639,13 +12758,13 @@
     </row>
     <row r="567" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B567" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D567" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E567" s="9" t="s">
         <v>52</v>
@@ -12659,7 +12778,7 @@
       <c r="H567" s="9"/>
       <c r="I567" s="9"/>
       <c r="J567" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K567" s="7" t="s">
         <v>42</v>
@@ -12774,16 +12893,16 @@
         <v>5</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C574" s="15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D574" s="15" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E574" s="16" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F574" s="16" t="s">
         <v>40</v>
@@ -12796,7 +12915,7 @@
       </c>
       <c r="I574" s="16"/>
       <c r="J574" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K574" s="15" t="s">
         <v>42</v>
@@ -12849,7 +12968,7 @@
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
       <c r="J577" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
@@ -12868,7 +12987,7 @@
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
       <c r="J578" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
@@ -12887,7 +13006,7 @@
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
       <c r="J579" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
@@ -12934,7 +13053,7 @@
       <c r="H581" s="9"/>
       <c r="I581" s="9"/>
       <c r="J581" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="K581" s="7" t="s">
         <v>75</v>
@@ -12962,7 +13081,7 @@
       <c r="H582" s="9"/>
       <c r="I582" s="9"/>
       <c r="J582" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K582" s="7" t="s">
         <v>42</v>
@@ -12970,13 +13089,13 @@
     </row>
     <row r="583" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D583" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E583" s="9" t="s">
         <v>90</v>
@@ -12990,7 +13109,7 @@
       <c r="H583" s="9"/>
       <c r="I583" s="9"/>
       <c r="J583" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K583" s="7" t="s">
         <v>42</v>
@@ -13046,7 +13165,7 @@
       <c r="H585" s="9"/>
       <c r="I585" s="9"/>
       <c r="J585" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K585" s="7" t="s">
         <v>42</v>
@@ -13074,7 +13193,7 @@
       <c r="H586" s="9"/>
       <c r="I586" s="9"/>
       <c r="J586" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K586" s="7" t="s">
         <v>42</v>
@@ -13097,32 +13216,34 @@
       <c r="N587" s="1"/>
       <c r="O587" s="1"/>
     </row>
-    <row r="588" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A588" s="1" t="s">
+    <row r="588" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A588" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B588" s="1" t="s">
+      <c r="B588" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C588" s="1" t="s">
+      <c r="C588" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D588" s="1" t="s">
+      <c r="D588" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E588" s="2" t="s">
+      <c r="E588" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F588" s="9" t="s">
+      <c r="F588" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G588" s="9" t="s">
+      <c r="G588" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J588" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K588" s="1" t="s">
+      <c r="H588" s="16"/>
+      <c r="I588" s="16"/>
+      <c r="J588" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K588" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13296,32 +13417,36 @@
       <c r="N598" s="10"/>
       <c r="O598" s="10"/>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A599" s="1" t="s">
+    <row r="599" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A599" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B599" s="1" t="s">
+      <c r="B599" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C599" s="1" t="s">
+      <c r="C599" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D599" s="1" t="s">
+      <c r="D599" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E599" s="2" t="s">
+      <c r="E599" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F599" s="9" t="s">
+      <c r="F599" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G599" s="9" t="s">
+      <c r="G599" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J599" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="K599" s="1" t="s">
+      <c r="H599" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I599" s="16"/>
+      <c r="J599" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="K599" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -13372,7 +13497,7 @@
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
       <c r="J602" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
@@ -13391,7 +13516,7 @@
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
       <c r="J603" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
@@ -13410,7 +13535,7 @@
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
       <c r="J604" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
@@ -13457,7 +13582,7 @@
       <c r="H606" s="9"/>
       <c r="I606" s="9"/>
       <c r="J606" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K606" s="7" t="s">
         <v>42</v>
@@ -13465,16 +13590,16 @@
     </row>
     <row r="607" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="15" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C607" s="15" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="E607" s="16" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="F607" s="16" t="s">
         <v>40</v>
@@ -13485,7 +13610,7 @@
       <c r="H607" s="16"/>
       <c r="I607" s="16"/>
       <c r="J607" s="15" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K607" s="15" t="s">
         <v>42</v>
@@ -13521,13 +13646,13 @@
     </row>
     <row r="609" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="15" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="C609" s="15" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="E609" s="16" t="s">
         <v>90</v>
@@ -13541,7 +13666,7 @@
       <c r="H609" s="16"/>
       <c r="I609" s="16"/>
       <c r="J609" s="15" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K609" s="15" t="s">
         <v>42</v>
@@ -13549,13 +13674,13 @@
     </row>
     <row r="610" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D610" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E610" s="9" t="s">
         <v>90</v>
@@ -13569,7 +13694,7 @@
       <c r="H610" s="9"/>
       <c r="I610" s="9"/>
       <c r="J610" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K610" s="7" t="s">
         <v>42</v>
@@ -13597,7 +13722,7 @@
       <c r="H611" s="16"/>
       <c r="I611" s="16"/>
       <c r="J611" s="15" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K611" s="15" t="s">
         <v>42</v>
@@ -13661,13 +13786,13 @@
     </row>
     <row r="614" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D614" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E614" s="9" t="n">
         <v>45692</v>
@@ -13681,7 +13806,7 @@
       <c r="H614" s="9"/>
       <c r="I614" s="9"/>
       <c r="J614" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K614" s="7" t="s">
         <v>42</v>
@@ -13689,16 +13814,16 @@
     </row>
     <row r="615" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C615" s="15" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E615" s="16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F615" s="16" t="s">
         <v>154</v>
@@ -13709,42 +13834,49 @@
       <c r="H615" s="16"/>
       <c r="I615" s="16"/>
       <c r="J615" s="15" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="K615" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="616" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="1"/>
-      <c r="B616" s="1"/>
-      <c r="C616" s="1"/>
-      <c r="D616" s="1"/>
-      <c r="E616" s="2"/>
-      <c r="F616" s="2"/>
-      <c r="G616" s="2"/>
-      <c r="H616" s="2"/>
-      <c r="I616" s="2"/>
-      <c r="J616" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="K616" s="1" t="s">
+    <row r="616" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B616" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C616" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D616" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E616" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F616" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G616" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H616" s="16"/>
+      <c r="I616" s="16"/>
+      <c r="J616" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="K616" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="L616" s="1"/>
-      <c r="M616" s="1"/>
-      <c r="N616" s="1"/>
-      <c r="O616" s="1"/>
     </row>
     <row r="617" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D617" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E617" s="9" t="s">
         <v>52</v>
@@ -13758,7 +13890,7 @@
       <c r="H617" s="9"/>
       <c r="I617" s="9"/>
       <c r="J617" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K617" s="7" t="s">
         <v>42</v>
@@ -13766,16 +13898,16 @@
     </row>
     <row r="618" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D618" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E618" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F618" s="9" t="s">
         <v>236</v>
@@ -13786,7 +13918,7 @@
       <c r="H618" s="9"/>
       <c r="I618" s="9"/>
       <c r="J618" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K618" s="7" t="s">
         <v>42</v>
@@ -14025,7 +14157,7 @@
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
       <c r="J630" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
@@ -14044,7 +14176,7 @@
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
       <c r="J631" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
@@ -14063,7 +14195,7 @@
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
       <c r="J632" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
@@ -14090,13 +14222,13 @@
     </row>
     <row r="634" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D634" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E634" s="9" t="n">
         <v>45692</v>
@@ -14110,7 +14242,7 @@
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
       <c r="J634" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K634" s="7" t="s">
         <v>42</v>
@@ -14166,7 +14298,7 @@
       <c r="H636" s="9"/>
       <c r="I636" s="9"/>
       <c r="J636" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K636" s="7" t="s">
         <v>42</v>
@@ -14174,13 +14306,13 @@
     </row>
     <row r="637" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D637" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E637" s="9" t="s">
         <v>90</v>
@@ -14194,7 +14326,7 @@
       <c r="H637" s="9"/>
       <c r="I637" s="9"/>
       <c r="J637" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K637" s="7" t="s">
         <v>42</v>
@@ -14222,7 +14354,7 @@
       <c r="H638" s="9"/>
       <c r="I638" s="9"/>
       <c r="J638" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K638" s="7" t="s">
         <v>42</v>
@@ -14230,16 +14362,16 @@
     </row>
     <row r="639" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D639" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E639" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F639" s="9" t="s">
         <v>236</v>
@@ -14250,7 +14382,7 @@
       <c r="H639" s="9"/>
       <c r="I639" s="9"/>
       <c r="J639" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K639" s="7" t="s">
         <v>42</v>
@@ -14258,16 +14390,16 @@
     </row>
     <row r="640" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D640" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E640" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F640" s="9" t="s">
         <v>40</v>
@@ -14278,7 +14410,7 @@
       <c r="H640" s="9"/>
       <c r="I640" s="9"/>
       <c r="J640" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K640" s="7" t="s">
         <v>42</v>
@@ -14348,13 +14480,13 @@
         <v>5</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D644" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E644" s="9" t="s">
         <v>52</v>
@@ -14370,7 +14502,7 @@
       </c>
       <c r="I644" s="9"/>
       <c r="J644" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K644" s="7" t="s">
         <v>42</v>
@@ -14423,7 +14555,7 @@
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
       <c r="J647" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
@@ -14431,25 +14563,25 @@
       <c r="N647" s="1"/>
       <c r="O647" s="1"/>
       <c r="R647" s="13" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="S647" s="13" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="T647" s="13" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="U647" s="13" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="V647" s="13" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="W647" s="13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="X647" s="13" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
     </row>
     <row r="648" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14463,7 +14595,7 @@
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
       <c r="J648" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
@@ -14471,31 +14603,31 @@
       <c r="N648" s="1"/>
       <c r="O648" s="1"/>
       <c r="R648" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="S648" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T648" s="13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="U648" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="V648" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="W648" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="V648" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="W648" s="13" t="s">
-        <v>415</v>
-      </c>
       <c r="X648" s="13" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="Y648" s="13" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="Z648" s="13" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="649" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14509,7 +14641,7 @@
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
       <c r="J649" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
@@ -14517,33 +14649,33 @@
       <c r="N649" s="1"/>
       <c r="O649" s="1"/>
       <c r="R649" s="13" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="S649" s="13" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="T649" s="13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="U649" s="13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="V649" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="W649" s="13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="650" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D650" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E650" s="9" t="n">
         <v>45692</v>
@@ -14557,7 +14689,7 @@
       <c r="H650" s="9"/>
       <c r="I650" s="9"/>
       <c r="J650" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K650" s="7" t="s">
         <v>42</v>
@@ -14630,7 +14762,7 @@
       <c r="H653" s="9"/>
       <c r="I653" s="9"/>
       <c r="J653" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="K653" s="7" t="s">
         <v>42</v>
@@ -14666,13 +14798,13 @@
     </row>
     <row r="655" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D655" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E655" s="9" t="s">
         <v>90</v>
@@ -14686,7 +14818,7 @@
       <c r="H655" s="9"/>
       <c r="I655" s="9"/>
       <c r="J655" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K655" s="7" t="s">
         <v>42</v>
@@ -14750,16 +14882,16 @@
     </row>
     <row r="658" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D658" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E658" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F658" s="9" t="s">
         <v>236</v>
@@ -14770,7 +14902,7 @@
       <c r="H658" s="9"/>
       <c r="I658" s="9"/>
       <c r="J658" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K658" s="7" t="s">
         <v>42</v>
@@ -14778,16 +14910,16 @@
     </row>
     <row r="659" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D659" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E659" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F659" s="9" t="s">
         <v>40</v>
@@ -14798,7 +14930,7 @@
       <c r="H659" s="9"/>
       <c r="I659" s="9"/>
       <c r="J659" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K659" s="7" t="s">
         <v>42</v>
@@ -14806,16 +14938,16 @@
     </row>
     <row r="660" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D660" s="18" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="E660" s="9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="F660" s="9" t="s">
         <v>212</v>
@@ -14826,7 +14958,7 @@
       <c r="H660" s="9"/>
       <c r="I660" s="9"/>
       <c r="J660" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="K660" s="7" t="s">
         <v>75</v>
@@ -14944,11 +15076,11 @@
     </row>
     <row r="667" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E667" s="4"/>
       <c r="F667" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
@@ -15005,28 +15137,28 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J672" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J673" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J674" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="676" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B676" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D676" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E676" s="9" t="n">
         <v>45692</v>
@@ -15040,7 +15172,7 @@
       <c r="H676" s="9"/>
       <c r="I676" s="9"/>
       <c r="J676" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K676" s="7" t="s">
         <v>42</v>
@@ -15166,16 +15298,16 @@
     </row>
     <row r="682" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B682" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D682" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E682" s="9" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F682" s="9" t="s">
         <v>40</v>
@@ -15186,7 +15318,7 @@
       <c r="H682" s="9"/>
       <c r="I682" s="9"/>
       <c r="J682" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K682" s="7" t="s">
         <v>42</v>
@@ -15194,13 +15326,13 @@
     </row>
     <row r="683" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B683" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D683" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E683" s="9" t="s">
         <v>90</v>
@@ -15214,7 +15346,7 @@
       <c r="H683" s="9"/>
       <c r="I683" s="9"/>
       <c r="J683" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K683" s="7" t="s">
         <v>42</v>
@@ -15222,13 +15354,13 @@
     </row>
     <row r="684" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B684" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D684" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E684" s="9" t="s">
         <v>52</v>
@@ -15242,7 +15374,7 @@
       <c r="H684" s="9"/>
       <c r="I684" s="9"/>
       <c r="J684" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="K684" s="7" t="s">
         <v>42</v>
@@ -15278,16 +15410,16 @@
     </row>
     <row r="686" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B686" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D686" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="E686" s="9" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F686" s="9" t="s">
         <v>236</v>
@@ -15298,7 +15430,7 @@
       <c r="H686" s="9"/>
       <c r="I686" s="9"/>
       <c r="J686" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="K686" s="7" t="s">
         <v>42</v>
@@ -15306,16 +15438,16 @@
     </row>
     <row r="687" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B687" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D687" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E687" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F687" s="9" t="s">
         <v>40</v>
@@ -15326,7 +15458,7 @@
       <c r="H687" s="9"/>
       <c r="I687" s="9"/>
       <c r="J687" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K687" s="7" t="s">
         <v>42</v>
@@ -31709,11 +31841,11 @@
     </row>
     <row r="690" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="E690" s="4"/>
       <c r="F690" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -31766,43 +31898,43 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J695" s="1" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J696" s="1" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J697" s="1" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J699" s="1" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J700" s="1" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J701" s="1" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="703" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B703" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D703" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E703" s="9" t="n">
         <v>45692</v>
@@ -31816,7 +31948,7 @@
       <c r="H703" s="9"/>
       <c r="I703" s="9"/>
       <c r="J703" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K703" s="7" t="s">
         <v>42</v>
@@ -31964,16 +32096,16 @@
     </row>
     <row r="709" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B709" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D709" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="E709" s="9" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F709" s="9" t="s">
         <v>40</v>
@@ -31984,7 +32116,7 @@
       <c r="H709" s="9"/>
       <c r="I709" s="9"/>
       <c r="J709" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="K709" s="7" t="s">
         <v>42</v>
@@ -31992,13 +32124,13 @@
     </row>
     <row r="710" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B710" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D710" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E710" s="9" t="s">
         <v>52</v>
@@ -32012,7 +32144,7 @@
       <c r="H710" s="9"/>
       <c r="I710" s="9"/>
       <c r="J710" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K710" s="7" t="s">
         <v>42</v>
@@ -32038,7 +32170,7 @@
         <v>10</v>
       </c>
       <c r="J711" s="1" t="s">
-        <v>390</v>
+        <v>269</v>
       </c>
       <c r="K711" s="1" t="s">
         <v>42</v>
@@ -32046,7 +32178,7 @@
     </row>
     <row r="712" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J712" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K712" s="1" t="s">
         <v>42</v>
@@ -32054,17 +32186,37 @@
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J713" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K713" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J714" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K714" s="1" t="s">
+    <row r="714" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B714" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C714" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D714" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="E714" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F714" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G714" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H714" s="16"/>
+      <c r="I714" s="16"/>
+      <c r="J714" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="K714" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -32090,23 +32242,43 @@
       <c r="H715" s="9"/>
       <c r="I715" s="9"/>
       <c r="J715" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="K715" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J716" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="K716" s="1" t="s">
+    <row r="716" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B716" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C716" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D716" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="E716" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F716" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G716" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H716" s="16"/>
+      <c r="I716" s="16"/>
+      <c r="J716" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="K716" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J717" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="K717" s="1" t="s">
         <v>42</v>
@@ -32114,7 +32286,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J718" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="K718" s="1" t="s">
         <v>42</v>
@@ -32122,13 +32294,13 @@
     </row>
     <row r="719" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E719" s="9" t="s">
         <v>90</v>
@@ -32142,23 +32314,43 @@
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
       <c r="J719" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="K719" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J720" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K720" s="1" t="s">
+    <row r="720" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B720" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C720" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="D720" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E720" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F720" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G720" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H720" s="16"/>
+      <c r="I720" s="16"/>
+      <c r="J720" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="K720" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J721" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="K721" s="1" t="s">
         <v>42</v>
@@ -32166,7 +32358,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J722" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K722" s="1" t="s">
         <v>42</v>
@@ -32194,7 +32386,7 @@
       <c r="H723" s="9"/>
       <c r="I723" s="9"/>
       <c r="J723" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="K723" s="7" t="s">
         <v>42</v>
@@ -32202,7 +32394,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J724" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K724" s="1" t="s">
         <v>42</v>
@@ -32238,7 +32430,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J726" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K726" s="1" t="s">
         <v>75</v>
@@ -32246,14 +32438,34 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J727" s="1" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J728" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="K728" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="728" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B728" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C728" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D728" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E728" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="F728" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G728" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H728" s="16"/>
+      <c r="I728" s="16"/>
+      <c r="J728" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="K728" s="15" t="s">
         <v>65</v>
       </c>
     </row>
@@ -32279,7 +32491,7 @@
       <c r="H729" s="9"/>
       <c r="I729" s="9"/>
       <c r="J729" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K729" s="7" t="s">
         <v>75</v>
@@ -32287,7 +32499,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J730" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K730" s="1" t="s">
         <v>65</v>
@@ -32295,16 +32507,16 @@
     </row>
     <row r="731" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B731" s="15" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C731" s="15" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D731" s="15" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E731" s="16" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F731" s="16" t="s">
         <v>154</v>
@@ -32315,7 +32527,7 @@
       <c r="H731" s="16"/>
       <c r="I731" s="16"/>
       <c r="J731" s="15" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K731" s="15" t="s">
         <v>42</v>
@@ -32323,16 +32535,16 @@
     </row>
     <row r="732" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B732" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="D732" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="E732" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="F732" s="9" t="s">
         <v>236</v>
@@ -32343,7 +32555,7 @@
       <c r="H732" s="9"/>
       <c r="I732" s="9"/>
       <c r="J732" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K732" s="7" t="s">
         <v>42</v>
@@ -32351,7 +32563,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J733" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K733" s="1" t="s">
         <v>42</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -1864,8 +1864,8 @@
   </sheetPr>
   <dimension ref="A1:XFD733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A601" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A599" activeCellId="0" sqref="599:599"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A691" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A711" activeCellId="0" sqref="711:711"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32150,29 +32150,31 @@
         <v>42</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B711" s="1" t="s">
+    <row r="711" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B711" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="C711" s="1" t="s">
+      <c r="C711" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D711" s="1" t="s">
+      <c r="D711" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="E711" s="2" t="s">
+      <c r="E711" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="F711" s="9" t="s">
+      <c r="F711" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="G711" s="9" t="s">
+      <c r="G711" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J711" s="1" t="s">
+      <c r="H711" s="16"/>
+      <c r="I711" s="16"/>
+      <c r="J711" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="K711" s="1" t="s">
+      <c r="K711" s="15" t="s">
         <v>42</v>
       </c>
     </row>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2792" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="461">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -832,6 +832,21 @@
     <t xml:space="preserve">keystonemiddleware&gt;=7.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">i1.1.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcrypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/Oct/09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcrypt&gt;=3.1.3</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenStack Hosted apps</t>
   </si>
   <si>
@@ -1198,9 +1213,6 @@
     <t xml:space="preserve">pycadf</t>
   </si>
   <si>
-    <t xml:space="preserve">4.0.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">2025/Jan/29</t>
   </si>
   <si>
@@ -1340,9 +1352,6 @@
   </si>
   <si>
     <t xml:space="preserve">python-keystoneclient&gt;=3.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bcrypt&gt;=3.1.3</t>
   </si>
   <si>
     <t xml:space="preserve">scrypt&gt;=0.8.0</t>
@@ -1864,8 +1873,8 @@
   </sheetPr>
   <dimension ref="A1:XFD733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A691" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A711" activeCellId="0" sqref="711:711"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A210" activeCellId="0" sqref="210:210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5688,16 +5697,89 @@
       <c r="N206" s="10"/>
       <c r="O206" s="10"/>
     </row>
+    <row r="207" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C207" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D207" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F207" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G207" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H207" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I207" s="16"/>
+      <c r="J207" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K207" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="11"/>
+      <c r="F210" s="11"/>
+      <c r="G210" s="11"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="10"/>
+    </row>
     <row r="221" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -5725,13 +5807,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E223" s="9" t="n">
         <v>45692</v>
@@ -5747,7 +5829,7 @@
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K223" s="7" t="s">
         <v>42</v>
@@ -5759,16 +5841,16 @@
         <v>20</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>212</v>
@@ -5779,7 +5861,7 @@
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
       <c r="J225" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5812,16 +5894,16 @@
     </row>
     <row r="229" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>40</v>
@@ -5832,7 +5914,7 @@
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
       <c r="J229" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K229" s="7" t="s">
         <v>42</v>
@@ -5840,16 +5922,16 @@
     </row>
     <row r="230" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>154</v>
@@ -5860,7 +5942,7 @@
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
       <c r="J230" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K230" s="7" t="s">
         <v>42</v>
@@ -5916,7 +5998,7 @@
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
       <c r="J232" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K232" s="7" t="s">
         <v>42</v>
@@ -5924,16 +6006,16 @@
     </row>
     <row r="233" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>40</v>
@@ -5944,7 +6026,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
       <c r="J233" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K233" s="7" t="s">
         <v>42</v>
@@ -5952,13 +6034,13 @@
     </row>
     <row r="234" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>90</v>
@@ -5972,7 +6054,7 @@
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
       <c r="J234" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K234" s="7" t="s">
         <v>42</v>
@@ -6041,13 +6123,13 @@
     </row>
     <row r="237" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>52</v>
@@ -6061,7 +6143,7 @@
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
       <c r="J237" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K237" s="7" t="s">
         <v>42</v>
@@ -6136,16 +6218,16 @@
         <v>5</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>154</v>
@@ -6158,7 +6240,7 @@
       </c>
       <c r="I241" s="9"/>
       <c r="J241" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K241" s="7" t="s">
         <v>42</v>
@@ -6211,7 +6293,7 @@
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -6230,7 +6312,7 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -6249,7 +6331,7 @@
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -6276,13 +6358,13 @@
     </row>
     <row r="248" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E248" s="9" t="n">
         <v>45692</v>
@@ -6296,7 +6378,7 @@
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
       <c r="J248" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K248" s="7" t="s">
         <v>42</v>
@@ -6374,7 +6456,7 @@
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
       <c r="J252" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K252" s="7" t="s">
         <v>42</v>
@@ -6402,16 +6484,16 @@
         <v>5</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>154</v>
@@ -6424,7 +6506,7 @@
       </c>
       <c r="I254" s="9"/>
       <c r="J254" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K254" s="7" t="s">
         <v>42</v>
@@ -6653,13 +6735,13 @@
     </row>
     <row r="265" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>52</v>
@@ -6673,7 +6755,7 @@
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
       <c r="J265" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K265" s="7" t="s">
         <v>42</v>
@@ -6785,14 +6867,14 @@
     </row>
     <row r="272" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="3" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -6820,16 +6902,16 @@
         <v>5</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>40</v>
@@ -6842,7 +6924,7 @@
       </c>
       <c r="I274" s="9"/>
       <c r="J274" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K274" s="7" t="s">
         <v>42</v>
@@ -6895,7 +6977,7 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -6914,7 +6996,7 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -6933,7 +7015,7 @@
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
@@ -6960,13 +7042,13 @@
     </row>
     <row r="281" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E281" s="9" t="n">
         <v>45692</v>
@@ -6980,7 +7062,7 @@
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
       <c r="J281" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="282" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7113,16 +7195,16 @@
     </row>
     <row r="288" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F288" s="9" t="s">
         <v>40</v>
@@ -7133,7 +7215,7 @@
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
       <c r="J288" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K288" s="7" t="s">
         <v>42</v>
@@ -7169,13 +7251,13 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>52</v>
@@ -7189,7 +7271,7 @@
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
       <c r="J290" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K290" s="7" t="s">
         <v>42</v>
@@ -7414,16 +7496,16 @@
     </row>
     <row r="300" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F300" s="9" t="s">
         <v>40</v>
@@ -7434,7 +7516,7 @@
       <c r="H300" s="9"/>
       <c r="I300" s="9"/>
       <c r="J300" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>42</v>
@@ -7442,16 +7524,16 @@
     </row>
     <row r="301" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>236</v>
@@ -7462,7 +7544,7 @@
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
       <c r="J301" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>65</v>
@@ -7514,16 +7596,16 @@
     </row>
     <row r="305" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>40</v>
@@ -7534,7 +7616,7 @@
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
       <c r="J305" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K305" s="7" t="s">
         <v>42</v>
@@ -7656,7 +7738,7 @@
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
       <c r="J311" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
@@ -7675,7 +7757,7 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -7694,7 +7776,7 @@
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
       <c r="J313" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
@@ -7730,7 +7812,7 @@
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="1" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -7766,7 +7848,7 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="1" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -7785,7 +7867,7 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="1" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -7804,7 +7886,7 @@
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="1" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -7823,7 +7905,7 @@
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="1" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -7842,7 +7924,7 @@
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -7861,7 +7943,7 @@
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -7888,13 +7970,13 @@
     </row>
     <row r="324" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E324" s="9" t="n">
         <v>45692</v>
@@ -7908,7 +7990,7 @@
       <c r="H324" s="9"/>
       <c r="I324" s="9"/>
       <c r="J324" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K324" s="7" t="s">
         <v>42</v>
@@ -7936,7 +8018,7 @@
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
       <c r="J325" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K325" s="7" t="s">
         <v>65</v>
@@ -7944,16 +8026,16 @@
     </row>
     <row r="326" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>236</v>
@@ -7964,7 +8046,7 @@
       <c r="H326" s="9"/>
       <c r="I326" s="9"/>
       <c r="J326" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K326" s="7" t="s">
         <v>42</v>
@@ -7972,16 +8054,16 @@
     </row>
     <row r="327" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>40</v>
@@ -7992,7 +8074,7 @@
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
       <c r="J327" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K327" s="7" t="s">
         <v>42</v>
@@ -8000,16 +8082,16 @@
     </row>
     <row r="328" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>154</v>
@@ -8020,7 +8102,7 @@
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
       <c r="J328" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K328" s="7" t="s">
         <v>42</v>
@@ -8106,16 +8188,16 @@
     </row>
     <row r="333" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>40</v>
@@ -8126,7 +8208,7 @@
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
       <c r="J333" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K333" s="7" t="s">
         <v>42</v>
@@ -8134,13 +8216,13 @@
     </row>
     <row r="334" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>52</v>
@@ -8154,7 +8236,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>42</v>
@@ -8260,14 +8342,14 @@
     </row>
     <row r="340" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="3" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E340" s="4"/>
       <c r="F340" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -8327,13 +8409,13 @@
         <v>5</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>90</v>
@@ -8349,7 +8431,7 @@
       </c>
       <c r="I359" s="9"/>
       <c r="J359" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K359" s="7" t="s">
         <v>42</v>
@@ -8402,7 +8484,7 @@
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
       <c r="J362" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -8421,7 +8503,7 @@
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -8440,7 +8522,7 @@
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -8467,13 +8549,13 @@
     </row>
     <row r="366" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E366" s="9" t="n">
         <v>45692</v>
@@ -8487,21 +8569,21 @@
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
       <c r="J366" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="367" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>212</v>
@@ -8511,10 +8593,10 @@
       </c>
       <c r="H367" s="9"/>
       <c r="I367" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="J367" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="368" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8591,16 +8673,16 @@
     </row>
     <row r="372" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F372" s="9" t="s">
         <v>40</v>
@@ -8611,7 +8693,7 @@
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
       <c r="J372" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K372" s="7" t="s">
         <v>42</v>
@@ -8647,13 +8729,13 @@
     </row>
     <row r="374" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E374" s="9" t="s">
         <v>52</v>
@@ -8667,7 +8749,7 @@
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
       <c r="J374" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K374" s="7" t="s">
         <v>42</v>
@@ -8778,17 +8860,17 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J381" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J382" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J383" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8842,7 +8924,7 @@
       <c r="H386" s="9"/>
       <c r="I386" s="9"/>
       <c r="J386" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K386" s="7" t="s">
         <v>75</v>
@@ -8850,16 +8932,16 @@
     </row>
     <row r="387" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>40</v>
@@ -8870,7 +8952,7 @@
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
       <c r="J387" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K387" s="7" t="s">
         <v>42</v>
@@ -8878,13 +8960,13 @@
     </row>
     <row r="388" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E388" s="9" t="s">
         <v>90</v>
@@ -8898,7 +8980,7 @@
       <c r="H388" s="9"/>
       <c r="I388" s="9"/>
       <c r="J388" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K388" s="7" t="s">
         <v>42</v>
@@ -8934,16 +9016,16 @@
     </row>
     <row r="390" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F390" s="9" t="s">
         <v>236</v>
@@ -8954,7 +9036,7 @@
       <c r="H390" s="9"/>
       <c r="I390" s="9"/>
       <c r="J390" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K390" s="7" t="s">
         <v>65</v>
@@ -8962,16 +9044,16 @@
     </row>
     <row r="391" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F391" s="9" t="s">
         <v>236</v>
@@ -8982,7 +9064,7 @@
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
       <c r="J391" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K391" s="7" t="s">
         <v>42</v>
@@ -8994,13 +9076,13 @@
         <v>13</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E393" s="9" t="s">
         <v>52</v>
@@ -9014,7 +9096,7 @@
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
       <c r="J393" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K393" s="7" t="s">
         <v>42</v>
@@ -9042,13 +9124,13 @@
         <v>5</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E395" s="16" t="s">
         <v>90</v>
@@ -9064,7 +9146,7 @@
       </c>
       <c r="I395" s="16"/>
       <c r="J395" s="15" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K395" s="15" t="s">
         <v>42</v>
@@ -9117,7 +9199,7 @@
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
@@ -9136,7 +9218,7 @@
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
@@ -9155,7 +9237,7 @@
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
       <c r="J400" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
@@ -9182,13 +9264,13 @@
     </row>
     <row r="402" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E402" s="9" t="n">
         <v>45692</v>
@@ -9202,7 +9284,7 @@
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
       <c r="J402" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K402" s="7" t="s">
         <v>42</v>
@@ -9398,7 +9480,7 @@
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
@@ -9417,7 +9499,7 @@
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
       <c r="J412" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
@@ -9436,7 +9518,7 @@
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
@@ -9463,13 +9545,13 @@
     </row>
     <row r="415" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E415" s="9" t="n">
         <v>45692</v>
@@ -9483,7 +9565,7 @@
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
       <c r="J415" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K415" s="7" t="s">
         <v>42</v>
@@ -9519,13 +9601,13 @@
     </row>
     <row r="417" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="15" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E417" s="16" t="s">
         <v>90</v>
@@ -9539,7 +9621,7 @@
       <c r="H417" s="16"/>
       <c r="I417" s="16"/>
       <c r="J417" s="15" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K417" s="15" t="s">
         <v>42</v>
@@ -9547,13 +9629,13 @@
     </row>
     <row r="418" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E418" s="9" t="s">
         <v>90</v>
@@ -9567,7 +9649,7 @@
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
       <c r="J418" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K418" s="7" t="s">
         <v>42</v>
@@ -9595,7 +9677,7 @@
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
       <c r="J419" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K419" s="7" t="s">
         <v>42</v>
@@ -9623,7 +9705,7 @@
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
       <c r="J420" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K420" s="7" t="s">
         <v>42</v>
@@ -9679,7 +9761,7 @@
       <c r="H422" s="9"/>
       <c r="I422" s="9"/>
       <c r="J422" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K422" s="7" t="s">
         <v>42</v>
@@ -9707,16 +9789,16 @@
         <v>13</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F424" s="16" t="s">
         <v>40</v>
@@ -9727,7 +9809,7 @@
       <c r="H424" s="16"/>
       <c r="I424" s="16"/>
       <c r="J424" s="15" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K424" s="15" t="s">
         <v>42</v>
@@ -9830,7 +9912,7 @@
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
@@ -9849,7 +9931,7 @@
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
@@ -9868,7 +9950,7 @@
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
@@ -9904,7 +9986,7 @@
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="1" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
@@ -9923,7 +10005,7 @@
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
@@ -9942,7 +10024,7 @@
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="1" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
@@ -9961,7 +10043,7 @@
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
@@ -10016,13 +10098,13 @@
     </row>
     <row r="439" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E439" s="9" t="s">
         <v>90</v>
@@ -10036,7 +10118,7 @@
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
       <c r="J439" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K439" s="7" t="s">
         <v>42</v>
@@ -10100,13 +10182,13 @@
     </row>
     <row r="442" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E442" s="9" t="s">
         <v>240</v>
@@ -10120,7 +10202,7 @@
       <c r="H442" s="9"/>
       <c r="I442" s="9"/>
       <c r="J442" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K442" s="7" t="s">
         <v>65</v>
@@ -10128,16 +10210,16 @@
     </row>
     <row r="443" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D443" s="18" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>212</v>
@@ -10148,7 +10230,7 @@
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
       <c r="J443" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K443" s="7" t="s">
         <v>75</v>
@@ -10162,7 +10244,7 @@
         <v>158</v>
       </c>
       <c r="D444" s="18" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E444" s="9" t="s">
         <v>159</v>
@@ -10190,16 +10272,16 @@
     </row>
     <row r="445" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>236</v>
@@ -10210,7 +10292,7 @@
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
       <c r="J445" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K445" s="7" t="s">
         <v>65</v>
@@ -10218,16 +10300,16 @@
     </row>
     <row r="446" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E446" s="9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F446" s="9" t="s">
         <v>236</v>
@@ -10238,21 +10320,21 @@
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
       <c r="J446" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K446" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="447" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E447" s="9" t="n">
         <v>45692</v>
@@ -10266,7 +10348,7 @@
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
       <c r="J447" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="K447" s="7" t="s">
         <v>42</v>
@@ -10296,16 +10378,16 @@
     </row>
     <row r="450" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B450" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E450" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F450" s="9" t="s">
         <v>40</v>
@@ -10316,7 +10398,7 @@
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
       <c r="J450" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K450" s="7" t="s">
         <v>42</v>
@@ -10352,13 +10434,13 @@
     </row>
     <row r="452" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B452" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E452" s="9" t="s">
         <v>52</v>
@@ -10372,7 +10454,7 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
       <c r="J452" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K452" s="7" t="s">
         <v>42</v>
@@ -10522,7 +10604,7 @@
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -10541,7 +10623,7 @@
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
@@ -10560,7 +10642,7 @@
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
@@ -10596,7 +10678,7 @@
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="1" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
@@ -10615,7 +10697,7 @@
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="1" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -10634,7 +10716,7 @@
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="1" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
@@ -10653,7 +10735,7 @@
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="1" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
@@ -10680,16 +10762,16 @@
     </row>
     <row r="468" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E468" s="9" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F468" s="9" t="s">
         <v>236</v>
@@ -10700,7 +10782,7 @@
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
       <c r="J468" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K468" s="7" t="s">
         <v>42</v>
@@ -10743,7 +10825,7 @@
         <v>158</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E470" s="9" t="s">
         <v>159</v>
@@ -10789,13 +10871,13 @@
         <v>13</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E472" s="9" t="s">
         <v>52</v>
@@ -10809,7 +10891,7 @@
       <c r="H472" s="9"/>
       <c r="I472" s="9"/>
       <c r="J472" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K472" s="7" t="s">
         <v>42</v>
@@ -10905,7 +10987,7 @@
         <v>2</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E478" s="4"/>
       <c r="F478" s="4" t="s">
@@ -10915,7 +10997,7 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="3" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10995,21 +11077,21 @@
       <c r="H483" s="9"/>
       <c r="I483" s="9"/>
       <c r="J483" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="484" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B484" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D484" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E484" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F484" s="9" t="s">
         <v>40</v>
@@ -11020,7 +11102,7 @@
       <c r="H484" s="9"/>
       <c r="I484" s="9"/>
       <c r="J484" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11213,14 +11295,14 @@
     </row>
     <row r="497" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E497" s="4"/>
       <c r="F497" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
@@ -11248,16 +11330,16 @@
         <v>5</v>
       </c>
       <c r="B499" s="15" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D499" s="15" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="E499" s="16" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F499" s="16" t="s">
         <v>154</v>
@@ -11270,7 +11352,7 @@
       </c>
       <c r="I499" s="16"/>
       <c r="J499" s="15" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K499" s="15" t="s">
         <v>42</v>
@@ -11323,7 +11405,7 @@
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -11342,7 +11424,7 @@
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
       <c r="J503" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -11361,7 +11443,7 @@
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
       <c r="J504" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -11442,7 +11524,7 @@
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
       <c r="J507" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K507" s="1" t="s">
         <v>42</v>
@@ -11723,14 +11805,14 @@
     </row>
     <row r="523" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="3" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="E523" s="4"/>
       <c r="F523" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
@@ -12020,16 +12102,16 @@
     </row>
     <row r="535" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D535" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F535" s="9" t="s">
         <v>154</v>
@@ -12040,7 +12122,7 @@
       <c r="H535" s="9"/>
       <c r="I535" s="9"/>
       <c r="J535" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="K535" s="7" t="s">
         <v>42</v>
@@ -12048,13 +12130,13 @@
     </row>
     <row r="536" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D536" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E536" s="9" t="n">
         <v>45692</v>
@@ -12068,7 +12150,7 @@
       <c r="H536" s="9"/>
       <c r="I536" s="9"/>
       <c r="J536" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K536" s="7" t="s">
         <v>42</v>
@@ -12110,16 +12192,16 @@
     </row>
     <row r="538" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D538" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="E538" s="9" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F538" s="9" t="s">
         <v>236</v>
@@ -12130,7 +12212,7 @@
       <c r="H538" s="9"/>
       <c r="I538" s="9"/>
       <c r="J538" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K538" s="7" t="s">
         <v>75</v>
@@ -12138,16 +12220,16 @@
     </row>
     <row r="539" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D539" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E539" s="9" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F539" s="9" t="s">
         <v>236</v>
@@ -12158,7 +12240,7 @@
       <c r="H539" s="9"/>
       <c r="I539" s="9"/>
       <c r="J539" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="K539" s="7" t="s">
         <v>65</v>
@@ -12166,16 +12248,16 @@
     </row>
     <row r="540" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E540" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F540" s="9" t="s">
         <v>154</v>
@@ -12186,7 +12268,7 @@
       <c r="H540" s="9"/>
       <c r="I540" s="9"/>
       <c r="J540" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K540" s="7" t="s">
         <v>42</v>
@@ -12214,7 +12296,7 @@
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
       <c r="J541" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K541" s="7" t="s">
         <v>128</v>
@@ -12266,16 +12348,16 @@
     </row>
     <row r="545" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B545" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D545" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E545" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F545" s="9" t="s">
         <v>40</v>
@@ -12286,7 +12368,7 @@
       <c r="H545" s="9"/>
       <c r="I545" s="9"/>
       <c r="J545" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K545" s="7" t="s">
         <v>42</v>
@@ -12333,16 +12415,16 @@
         <v>5</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D548" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E548" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F548" s="9" t="s">
         <v>40</v>
@@ -12355,7 +12437,7 @@
       </c>
       <c r="I548" s="9"/>
       <c r="J548" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K548" s="7" t="s">
         <v>42</v>
@@ -12408,7 +12490,7 @@
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
       <c r="J551" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
@@ -12427,7 +12509,7 @@
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
       <c r="J552" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
@@ -12446,7 +12528,7 @@
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
       <c r="J553" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
@@ -12473,13 +12555,13 @@
     </row>
     <row r="555" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D555" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E555" s="9" t="n">
         <v>45692</v>
@@ -12493,7 +12575,7 @@
       <c r="H555" s="9"/>
       <c r="I555" s="9"/>
       <c r="J555" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K555" s="7" t="s">
         <v>42</v>
@@ -12538,7 +12620,7 @@
       <c r="H557" s="9"/>
       <c r="I557" s="9"/>
       <c r="J557" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K557" s="7" t="s">
         <v>42</v>
@@ -12566,7 +12648,7 @@
       <c r="H558" s="9"/>
       <c r="I558" s="9"/>
       <c r="J558" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="K558" s="7" t="s">
         <v>42</v>
@@ -12594,7 +12676,7 @@
       <c r="H559" s="9"/>
       <c r="I559" s="9"/>
       <c r="J559" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K559" s="7" t="s">
         <v>42</v>
@@ -12602,13 +12684,13 @@
     </row>
     <row r="560" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D560" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E560" s="9" t="s">
         <v>90</v>
@@ -12622,7 +12704,7 @@
       <c r="H560" s="9"/>
       <c r="I560" s="9"/>
       <c r="J560" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K560" s="7" t="s">
         <v>42</v>
@@ -12658,16 +12740,16 @@
     </row>
     <row r="562" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D562" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E562" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F562" s="9" t="s">
         <v>236</v>
@@ -12678,7 +12760,7 @@
       <c r="H562" s="9"/>
       <c r="I562" s="9"/>
       <c r="J562" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K562" s="7" t="s">
         <v>42</v>
@@ -12686,16 +12768,16 @@
     </row>
     <row r="563" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D563" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E563" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F563" s="9" t="s">
         <v>40</v>
@@ -12706,7 +12788,7 @@
       <c r="H563" s="9"/>
       <c r="I563" s="9"/>
       <c r="J563" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K563" s="7" t="s">
         <v>42</v>
@@ -12758,13 +12840,13 @@
     </row>
     <row r="567" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B567" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D567" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E567" s="9" t="s">
         <v>52</v>
@@ -12778,7 +12860,7 @@
       <c r="H567" s="9"/>
       <c r="I567" s="9"/>
       <c r="J567" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K567" s="7" t="s">
         <v>42</v>
@@ -12893,16 +12975,16 @@
         <v>5</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C574" s="15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D574" s="15" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E574" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F574" s="16" t="s">
         <v>40</v>
@@ -12915,7 +12997,7 @@
       </c>
       <c r="I574" s="16"/>
       <c r="J574" s="15" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K574" s="15" t="s">
         <v>42</v>
@@ -12968,7 +13050,7 @@
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
       <c r="J577" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
@@ -12987,7 +13069,7 @@
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
       <c r="J578" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
@@ -13006,7 +13088,7 @@
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
       <c r="J579" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
@@ -13053,7 +13135,7 @@
       <c r="H581" s="9"/>
       <c r="I581" s="9"/>
       <c r="J581" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="K581" s="7" t="s">
         <v>75</v>
@@ -13081,7 +13163,7 @@
       <c r="H582" s="9"/>
       <c r="I582" s="9"/>
       <c r="J582" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K582" s="7" t="s">
         <v>42</v>
@@ -13089,13 +13171,13 @@
     </row>
     <row r="583" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D583" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E583" s="9" t="s">
         <v>90</v>
@@ -13109,7 +13191,7 @@
       <c r="H583" s="9"/>
       <c r="I583" s="9"/>
       <c r="J583" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K583" s="7" t="s">
         <v>42</v>
@@ -13165,7 +13247,7 @@
       <c r="H585" s="9"/>
       <c r="I585" s="9"/>
       <c r="J585" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K585" s="7" t="s">
         <v>42</v>
@@ -13193,7 +13275,7 @@
       <c r="H586" s="9"/>
       <c r="I586" s="9"/>
       <c r="J586" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K586" s="7" t="s">
         <v>42</v>
@@ -13497,7 +13579,7 @@
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
       <c r="J602" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
@@ -13516,7 +13598,7 @@
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
       <c r="J603" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
@@ -13535,7 +13617,7 @@
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
       <c r="J604" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
@@ -13582,7 +13664,7 @@
       <c r="H606" s="9"/>
       <c r="I606" s="9"/>
       <c r="J606" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K606" s="7" t="s">
         <v>42</v>
@@ -13590,16 +13672,16 @@
     </row>
     <row r="607" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="15" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C607" s="15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E607" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F607" s="16" t="s">
         <v>40</v>
@@ -13610,7 +13692,7 @@
       <c r="H607" s="16"/>
       <c r="I607" s="16"/>
       <c r="J607" s="15" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K607" s="15" t="s">
         <v>42</v>
@@ -13646,13 +13728,13 @@
     </row>
     <row r="609" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="15" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C609" s="15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E609" s="16" t="s">
         <v>90</v>
@@ -13666,7 +13748,7 @@
       <c r="H609" s="16"/>
       <c r="I609" s="16"/>
       <c r="J609" s="15" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="K609" s="15" t="s">
         <v>42</v>
@@ -13674,13 +13756,13 @@
     </row>
     <row r="610" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D610" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E610" s="9" t="s">
         <v>90</v>
@@ -13694,7 +13776,7 @@
       <c r="H610" s="9"/>
       <c r="I610" s="9"/>
       <c r="J610" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K610" s="7" t="s">
         <v>42</v>
@@ -13722,7 +13804,7 @@
       <c r="H611" s="16"/>
       <c r="I611" s="16"/>
       <c r="J611" s="15" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="K611" s="15" t="s">
         <v>42</v>
@@ -13786,13 +13868,13 @@
     </row>
     <row r="614" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D614" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E614" s="9" t="n">
         <v>45692</v>
@@ -13806,7 +13888,7 @@
       <c r="H614" s="9"/>
       <c r="I614" s="9"/>
       <c r="J614" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K614" s="7" t="s">
         <v>42</v>
@@ -13814,16 +13896,16 @@
     </row>
     <row r="615" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="15" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C615" s="15" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D615" s="15" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="E615" s="16" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F615" s="16" t="s">
         <v>154</v>
@@ -13834,7 +13916,7 @@
       <c r="H615" s="16"/>
       <c r="I615" s="16"/>
       <c r="J615" s="15" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K615" s="15" t="s">
         <v>42</v>
@@ -13870,13 +13952,13 @@
     </row>
     <row r="617" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D617" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E617" s="9" t="s">
         <v>52</v>
@@ -13890,7 +13972,7 @@
       <c r="H617" s="9"/>
       <c r="I617" s="9"/>
       <c r="J617" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K617" s="7" t="s">
         <v>42</v>
@@ -13898,16 +13980,16 @@
     </row>
     <row r="618" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D618" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E618" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F618" s="9" t="s">
         <v>236</v>
@@ -13918,7 +14000,7 @@
       <c r="H618" s="9"/>
       <c r="I618" s="9"/>
       <c r="J618" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K618" s="7" t="s">
         <v>42</v>
@@ -14157,7 +14239,7 @@
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
       <c r="J630" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
@@ -14176,7 +14258,7 @@
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
       <c r="J631" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
@@ -14195,7 +14277,7 @@
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
       <c r="J632" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
@@ -14222,13 +14304,13 @@
     </row>
     <row r="634" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D634" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E634" s="9" t="n">
         <v>45692</v>
@@ -14242,7 +14324,7 @@
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
       <c r="J634" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="K634" s="7" t="s">
         <v>42</v>
@@ -14298,7 +14380,7 @@
       <c r="H636" s="9"/>
       <c r="I636" s="9"/>
       <c r="J636" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="K636" s="7" t="s">
         <v>42</v>
@@ -14306,13 +14388,13 @@
     </row>
     <row r="637" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D637" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E637" s="9" t="s">
         <v>90</v>
@@ -14326,7 +14408,7 @@
       <c r="H637" s="9"/>
       <c r="I637" s="9"/>
       <c r="J637" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K637" s="7" t="s">
         <v>42</v>
@@ -14354,7 +14436,7 @@
       <c r="H638" s="9"/>
       <c r="I638" s="9"/>
       <c r="J638" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K638" s="7" t="s">
         <v>42</v>
@@ -14362,16 +14444,16 @@
     </row>
     <row r="639" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D639" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E639" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F639" s="9" t="s">
         <v>236</v>
@@ -14382,7 +14464,7 @@
       <c r="H639" s="9"/>
       <c r="I639" s="9"/>
       <c r="J639" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="K639" s="7" t="s">
         <v>42</v>
@@ -14390,16 +14472,16 @@
     </row>
     <row r="640" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D640" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E640" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F640" s="9" t="s">
         <v>40</v>
@@ -14410,7 +14492,7 @@
       <c r="H640" s="9"/>
       <c r="I640" s="9"/>
       <c r="J640" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="K640" s="7" t="s">
         <v>42</v>
@@ -14480,13 +14562,13 @@
         <v>5</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D644" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E644" s="9" t="s">
         <v>52</v>
@@ -14502,7 +14584,7 @@
       </c>
       <c r="I644" s="9"/>
       <c r="J644" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K644" s="7" t="s">
         <v>42</v>
@@ -14555,7 +14637,7 @@
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
       <c r="J647" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
@@ -14563,25 +14645,25 @@
       <c r="N647" s="1"/>
       <c r="O647" s="1"/>
       <c r="R647" s="13" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="S647" s="13" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="T647" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="U647" s="13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="V647" s="13" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="W647" s="13" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="X647" s="13" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="648" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14595,7 +14677,7 @@
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
       <c r="J648" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
@@ -14603,31 +14685,31 @@
       <c r="N648" s="1"/>
       <c r="O648" s="1"/>
       <c r="R648" s="13" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="S648" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T648" s="13" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="U648" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="V648" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="W648" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="V648" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="W648" s="13" t="s">
-        <v>419</v>
-      </c>
       <c r="X648" s="13" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="Y648" s="13" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Z648" s="13" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="649" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14641,7 +14723,7 @@
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
       <c r="J649" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
@@ -14649,33 +14731,33 @@
       <c r="N649" s="1"/>
       <c r="O649" s="1"/>
       <c r="R649" s="13" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="S649" s="13" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="T649" s="13" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="U649" s="13" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="V649" s="13" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="W649" s="13" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="650" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D650" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E650" s="9" t="n">
         <v>45692</v>
@@ -14689,7 +14771,7 @@
       <c r="H650" s="9"/>
       <c r="I650" s="9"/>
       <c r="J650" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K650" s="7" t="s">
         <v>42</v>
@@ -14762,7 +14844,7 @@
       <c r="H653" s="9"/>
       <c r="I653" s="9"/>
       <c r="J653" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="K653" s="7" t="s">
         <v>42</v>
@@ -14798,13 +14880,13 @@
     </row>
     <row r="655" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D655" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E655" s="9" t="s">
         <v>90</v>
@@ -14818,7 +14900,7 @@
       <c r="H655" s="9"/>
       <c r="I655" s="9"/>
       <c r="J655" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K655" s="7" t="s">
         <v>42</v>
@@ -14882,16 +14964,16 @@
     </row>
     <row r="658" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D658" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E658" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F658" s="9" t="s">
         <v>236</v>
@@ -14902,7 +14984,7 @@
       <c r="H658" s="9"/>
       <c r="I658" s="9"/>
       <c r="J658" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K658" s="7" t="s">
         <v>42</v>
@@ -14910,16 +14992,16 @@
     </row>
     <row r="659" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D659" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E659" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F659" s="9" t="s">
         <v>40</v>
@@ -14930,7 +15012,7 @@
       <c r="H659" s="9"/>
       <c r="I659" s="9"/>
       <c r="J659" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K659" s="7" t="s">
         <v>42</v>
@@ -14938,16 +15020,16 @@
     </row>
     <row r="660" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D660" s="18" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E660" s="9" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F660" s="9" t="s">
         <v>212</v>
@@ -14958,7 +15040,7 @@
       <c r="H660" s="9"/>
       <c r="I660" s="9"/>
       <c r="J660" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K660" s="7" t="s">
         <v>75</v>
@@ -15076,11 +15158,11 @@
     </row>
     <row r="667" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="3" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E667" s="4"/>
       <c r="F667" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
@@ -15137,28 +15219,28 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J672" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J673" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J674" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="676" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B676" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D676" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E676" s="9" t="n">
         <v>45692</v>
@@ -15172,7 +15254,7 @@
       <c r="H676" s="9"/>
       <c r="I676" s="9"/>
       <c r="J676" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K676" s="7" t="s">
         <v>42</v>
@@ -15298,16 +15380,16 @@
     </row>
     <row r="682" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B682" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="D682" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="E682" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F682" s="9" t="s">
         <v>40</v>
@@ -15318,7 +15400,7 @@
       <c r="H682" s="9"/>
       <c r="I682" s="9"/>
       <c r="J682" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K682" s="7" t="s">
         <v>42</v>
@@ -15326,13 +15408,13 @@
     </row>
     <row r="683" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B683" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D683" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E683" s="9" t="s">
         <v>90</v>
@@ -15346,7 +15428,7 @@
       <c r="H683" s="9"/>
       <c r="I683" s="9"/>
       <c r="J683" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K683" s="7" t="s">
         <v>42</v>
@@ -15354,13 +15436,13 @@
     </row>
     <row r="684" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B684" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D684" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E684" s="9" t="s">
         <v>52</v>
@@ -15374,7 +15456,7 @@
       <c r="H684" s="9"/>
       <c r="I684" s="9"/>
       <c r="J684" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="K684" s="7" t="s">
         <v>42</v>
@@ -15410,16 +15492,16 @@
     </row>
     <row r="686" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B686" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="D686" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E686" s="9" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="F686" s="9" t="s">
         <v>236</v>
@@ -15430,7 +15512,7 @@
       <c r="H686" s="9"/>
       <c r="I686" s="9"/>
       <c r="J686" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="K686" s="7" t="s">
         <v>42</v>
@@ -15438,16 +15520,16 @@
     </row>
     <row r="687" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B687" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D687" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E687" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F687" s="9" t="s">
         <v>40</v>
@@ -15458,7 +15540,7 @@
       <c r="H687" s="9"/>
       <c r="I687" s="9"/>
       <c r="J687" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="K687" s="7" t="s">
         <v>42</v>
@@ -31841,11 +31923,11 @@
     </row>
     <row r="690" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="3" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E690" s="4"/>
       <c r="F690" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -31898,43 +31980,43 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J695" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J696" s="1" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J697" s="1" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J699" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J700" s="1" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J701" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="703" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B703" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D703" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="E703" s="9" t="n">
         <v>45692</v>
@@ -31948,7 +32030,7 @@
       <c r="H703" s="9"/>
       <c r="I703" s="9"/>
       <c r="J703" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K703" s="7" t="s">
         <v>42</v>
@@ -32096,16 +32178,16 @@
     </row>
     <row r="709" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B709" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D709" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E709" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F709" s="9" t="s">
         <v>40</v>
@@ -32116,7 +32198,7 @@
       <c r="H709" s="9"/>
       <c r="I709" s="9"/>
       <c r="J709" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K709" s="7" t="s">
         <v>42</v>
@@ -32124,13 +32206,13 @@
     </row>
     <row r="710" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B710" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D710" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="E710" s="9" t="s">
         <v>52</v>
@@ -32144,7 +32226,7 @@
       <c r="H710" s="9"/>
       <c r="I710" s="9"/>
       <c r="J710" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="K710" s="7" t="s">
         <v>42</v>
@@ -32178,17 +32260,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J712" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="K712" s="1" t="s">
+    <row r="712" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B712" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C712" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D712" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E712" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="F712" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G712" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H712" s="16"/>
+      <c r="I712" s="16"/>
+      <c r="J712" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="K712" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J713" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K713" s="1" t="s">
         <v>75</v>
@@ -32196,16 +32298,16 @@
     </row>
     <row r="714" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B714" s="15" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C714" s="15" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D714" s="15" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="E714" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="F714" s="16" t="s">
         <v>40</v>
@@ -32216,7 +32318,7 @@
       <c r="H714" s="16"/>
       <c r="I714" s="16"/>
       <c r="J714" s="15" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K714" s="15" t="s">
         <v>42</v>
@@ -32244,7 +32346,7 @@
       <c r="H715" s="9"/>
       <c r="I715" s="9"/>
       <c r="J715" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K715" s="7" t="s">
         <v>42</v>
@@ -32252,13 +32354,13 @@
     </row>
     <row r="716" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B716" s="15" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="C716" s="15" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="D716" s="15" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="E716" s="16" t="s">
         <v>90</v>
@@ -32272,7 +32374,7 @@
       <c r="H716" s="16"/>
       <c r="I716" s="16"/>
       <c r="J716" s="15" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="K716" s="15" t="s">
         <v>42</v>
@@ -32280,7 +32382,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J717" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K717" s="1" t="s">
         <v>42</v>
@@ -32288,7 +32390,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J718" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="K718" s="1" t="s">
         <v>42</v>
@@ -32296,13 +32398,13 @@
     </row>
     <row r="719" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E719" s="9" t="s">
         <v>90</v>
@@ -32316,7 +32418,7 @@
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
       <c r="J719" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K719" s="7" t="s">
         <v>42</v>
@@ -32344,7 +32446,7 @@
       <c r="H720" s="16"/>
       <c r="I720" s="16"/>
       <c r="J720" s="15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="K720" s="15" t="s">
         <v>42</v>
@@ -32352,7 +32454,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J721" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="K721" s="1" t="s">
         <v>42</v>
@@ -32360,7 +32462,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J722" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="K722" s="1" t="s">
         <v>42</v>
@@ -32388,7 +32490,7 @@
       <c r="H723" s="9"/>
       <c r="I723" s="9"/>
       <c r="J723" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="K723" s="7" t="s">
         <v>42</v>
@@ -32396,7 +32498,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J724" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K724" s="1" t="s">
         <v>42</v>
@@ -32432,7 +32534,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J726" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="K726" s="1" t="s">
         <v>75</v>
@@ -32440,7 +32542,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J727" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row r="728" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32465,7 +32567,7 @@
       <c r="H728" s="16"/>
       <c r="I728" s="16"/>
       <c r="J728" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K728" s="15" t="s">
         <v>65</v>
@@ -32493,7 +32595,7 @@
       <c r="H729" s="9"/>
       <c r="I729" s="9"/>
       <c r="J729" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K729" s="7" t="s">
         <v>75</v>
@@ -32501,7 +32603,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J730" s="1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="K730" s="1" t="s">
         <v>65</v>
@@ -32509,16 +32611,16 @@
     </row>
     <row r="731" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B731" s="15" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="C731" s="15" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D731" s="15" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="E731" s="16" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F731" s="16" t="s">
         <v>154</v>
@@ -32529,7 +32631,7 @@
       <c r="H731" s="16"/>
       <c r="I731" s="16"/>
       <c r="J731" s="15" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K731" s="15" t="s">
         <v>42</v>
@@ -32537,16 +32639,16 @@
     </row>
     <row r="732" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B732" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="D732" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="E732" s="9" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F732" s="9" t="s">
         <v>236</v>
@@ -32557,7 +32659,7 @@
       <c r="H732" s="9"/>
       <c r="I732" s="9"/>
       <c r="J732" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K732" s="7" t="s">
         <v>42</v>
@@ -32565,7 +32667,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J733" s="1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K733" s="1" t="s">
         <v>42</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2815" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2838" uniqueCount="465">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -847,6 +847,21 @@
     <t xml:space="preserve">bcrypt&gt;=3.1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">i1.1.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/Aug/02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrypt&gt;=0.8.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenStack Hosted apps</t>
   </si>
   <si>
@@ -1352,9 +1367,6 @@
   </si>
   <si>
     <t xml:space="preserve">python-keystoneclient&gt;=3.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrypt&gt;=0.8.0</t>
   </si>
   <si>
     <t xml:space="preserve">oslo.config&gt;=6.8.0</t>
@@ -1873,8 +1885,8 @@
   </sheetPr>
   <dimension ref="A1:XFD733"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A210" activeCellId="0" sqref="210:210"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A698" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A713" activeCellId="0" sqref="713:713"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5770,16 +5782,89 @@
       <c r="N210" s="10"/>
       <c r="O210" s="10"/>
     </row>
+    <row r="211" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D211" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F211" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G211" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H211" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="I211" s="16"/>
+      <c r="J211" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K211" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A213" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="10"/>
+      <c r="B214" s="10"/>
+      <c r="C214" s="10"/>
+      <c r="D214" s="10"/>
+      <c r="E214" s="11"/>
+      <c r="F214" s="11"/>
+      <c r="G214" s="11"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+      <c r="J214" s="10"/>
+      <c r="K214" s="10"/>
+      <c r="L214" s="10"/>
+      <c r="M214" s="10"/>
+      <c r="N214" s="10"/>
+      <c r="O214" s="10"/>
+    </row>
     <row r="221" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E221" s="4"/>
       <c r="F221" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4"/>
@@ -5807,13 +5892,13 @@
         <v>5</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D223" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E223" s="9" t="n">
         <v>45692</v>
@@ -5829,7 +5914,7 @@
       </c>
       <c r="I223" s="9"/>
       <c r="J223" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K223" s="7" t="s">
         <v>42</v>
@@ -5841,16 +5926,16 @@
         <v>20</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E225" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F225" s="9" t="s">
         <v>212</v>
@@ -5861,7 +5946,7 @@
       <c r="H225" s="9"/>
       <c r="I225" s="9"/>
       <c r="J225" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -5894,16 +5979,16 @@
     </row>
     <row r="229" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E229" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F229" s="9" t="s">
         <v>40</v>
@@ -5914,7 +5999,7 @@
       <c r="H229" s="9"/>
       <c r="I229" s="9"/>
       <c r="J229" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K229" s="7" t="s">
         <v>42</v>
@@ -5922,16 +6007,16 @@
     </row>
     <row r="230" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E230" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F230" s="9" t="s">
         <v>154</v>
@@ -5942,7 +6027,7 @@
       <c r="H230" s="9"/>
       <c r="I230" s="9"/>
       <c r="J230" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K230" s="7" t="s">
         <v>42</v>
@@ -5998,7 +6083,7 @@
       <c r="H232" s="9"/>
       <c r="I232" s="9"/>
       <c r="J232" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K232" s="7" t="s">
         <v>42</v>
@@ -6006,16 +6091,16 @@
     </row>
     <row r="233" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B233" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E233" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F233" s="9" t="s">
         <v>40</v>
@@ -6026,7 +6111,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
       <c r="J233" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K233" s="7" t="s">
         <v>42</v>
@@ -6034,13 +6119,13 @@
     </row>
     <row r="234" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E234" s="9" t="s">
         <v>90</v>
@@ -6054,7 +6139,7 @@
       <c r="H234" s="9"/>
       <c r="I234" s="9"/>
       <c r="J234" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K234" s="7" t="s">
         <v>42</v>
@@ -6123,13 +6208,13 @@
     </row>
     <row r="237" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B237" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D237" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E237" s="9" t="s">
         <v>52</v>
@@ -6143,7 +6228,7 @@
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
       <c r="J237" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K237" s="7" t="s">
         <v>42</v>
@@ -6218,16 +6303,16 @@
         <v>5</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D241" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E241" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F241" s="9" t="s">
         <v>154</v>
@@ -6240,7 +6325,7 @@
       </c>
       <c r="I241" s="9"/>
       <c r="J241" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K241" s="7" t="s">
         <v>42</v>
@@ -6293,7 +6378,7 @@
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -6312,7 +6397,7 @@
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -6331,7 +6416,7 @@
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -6358,13 +6443,13 @@
     </row>
     <row r="248" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E248" s="9" t="n">
         <v>45692</v>
@@ -6378,7 +6463,7 @@
       <c r="H248" s="9"/>
       <c r="I248" s="9"/>
       <c r="J248" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K248" s="7" t="s">
         <v>42</v>
@@ -6456,7 +6541,7 @@
       <c r="H252" s="9"/>
       <c r="I252" s="9"/>
       <c r="J252" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K252" s="7" t="s">
         <v>42</v>
@@ -6484,16 +6569,16 @@
         <v>5</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D254" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E254" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F254" s="9" t="s">
         <v>154</v>
@@ -6506,7 +6591,7 @@
       </c>
       <c r="I254" s="9"/>
       <c r="J254" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K254" s="7" t="s">
         <v>42</v>
@@ -6735,13 +6820,13 @@
     </row>
     <row r="265" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>52</v>
@@ -6755,7 +6840,7 @@
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
       <c r="J265" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K265" s="7" t="s">
         <v>42</v>
@@ -6867,14 +6952,14 @@
     </row>
     <row r="272" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="3" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E272" s="4"/>
       <c r="F272" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4"/>
@@ -6902,16 +6987,16 @@
         <v>5</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D274" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E274" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F274" s="9" t="s">
         <v>40</v>
@@ -6924,7 +7009,7 @@
       </c>
       <c r="I274" s="9"/>
       <c r="J274" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K274" s="7" t="s">
         <v>42</v>
@@ -6977,7 +7062,7 @@
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K277" s="1"/>
       <c r="L277" s="1"/>
@@ -6996,7 +7081,7 @@
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K278" s="1"/>
       <c r="L278" s="1"/>
@@ -7015,7 +7100,7 @@
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K279" s="1"/>
       <c r="L279" s="1"/>
@@ -7042,13 +7127,13 @@
     </row>
     <row r="281" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B281" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D281" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E281" s="9" t="n">
         <v>45692</v>
@@ -7062,7 +7147,7 @@
       <c r="H281" s="9"/>
       <c r="I281" s="9"/>
       <c r="J281" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="282" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7195,16 +7280,16 @@
     </row>
     <row r="288" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B288" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D288" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F288" s="9" t="s">
         <v>40</v>
@@ -7215,7 +7300,7 @@
       <c r="H288" s="9"/>
       <c r="I288" s="9"/>
       <c r="J288" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K288" s="7" t="s">
         <v>42</v>
@@ -7251,13 +7336,13 @@
     </row>
     <row r="290" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B290" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D290" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E290" s="9" t="s">
         <v>52</v>
@@ -7271,7 +7356,7 @@
       <c r="H290" s="9"/>
       <c r="I290" s="9"/>
       <c r="J290" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K290" s="7" t="s">
         <v>42</v>
@@ -7496,16 +7581,16 @@
     </row>
     <row r="300" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B300" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D300" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E300" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F300" s="9" t="s">
         <v>40</v>
@@ -7516,7 +7601,7 @@
       <c r="H300" s="9"/>
       <c r="I300" s="9"/>
       <c r="J300" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K300" s="7" t="s">
         <v>42</v>
@@ -7524,16 +7609,16 @@
     </row>
     <row r="301" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B301" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D301" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E301" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F301" s="9" t="s">
         <v>236</v>
@@ -7544,7 +7629,7 @@
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
       <c r="J301" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K301" s="7" t="s">
         <v>65</v>
@@ -7596,16 +7681,16 @@
     </row>
     <row r="305" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B305" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D305" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E305" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F305" s="9" t="s">
         <v>40</v>
@@ -7616,7 +7701,7 @@
       <c r="H305" s="9"/>
       <c r="I305" s="9"/>
       <c r="J305" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K305" s="7" t="s">
         <v>42</v>
@@ -7738,7 +7823,7 @@
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
       <c r="J311" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K311" s="1"/>
       <c r="L311" s="1"/>
@@ -7757,7 +7842,7 @@
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
       <c r="J312" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K312" s="1"/>
       <c r="L312" s="1"/>
@@ -7776,7 +7861,7 @@
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
       <c r="J313" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K313" s="1"/>
       <c r="L313" s="1"/>
@@ -7812,7 +7897,7 @@
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
       <c r="J315" s="1" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K315" s="1"/>
       <c r="L315" s="1"/>
@@ -7848,7 +7933,7 @@
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
       <c r="J317" s="1" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="K317" s="1"/>
       <c r="L317" s="1"/>
@@ -7867,7 +7952,7 @@
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
       <c r="J318" s="1" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="K318" s="1"/>
       <c r="L318" s="1"/>
@@ -7886,7 +7971,7 @@
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
       <c r="J319" s="1" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="K319" s="1"/>
       <c r="L319" s="1"/>
@@ -7905,7 +7990,7 @@
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
       <c r="J320" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K320" s="1"/>
       <c r="L320" s="1"/>
@@ -7924,7 +8009,7 @@
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
       <c r="J321" s="1" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K321" s="1"/>
       <c r="L321" s="1"/>
@@ -7943,7 +8028,7 @@
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
       <c r="J322" s="1" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="K322" s="1"/>
       <c r="L322" s="1"/>
@@ -7970,13 +8055,13 @@
     </row>
     <row r="324" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B324" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E324" s="9" t="n">
         <v>45692</v>
@@ -7990,7 +8075,7 @@
       <c r="H324" s="9"/>
       <c r="I324" s="9"/>
       <c r="J324" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K324" s="7" t="s">
         <v>42</v>
@@ -8018,7 +8103,7 @@
       <c r="H325" s="9"/>
       <c r="I325" s="9"/>
       <c r="J325" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="K325" s="7" t="s">
         <v>65</v>
@@ -8026,16 +8111,16 @@
     </row>
     <row r="326" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B326" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D326" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E326" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F326" s="9" t="s">
         <v>236</v>
@@ -8046,7 +8131,7 @@
       <c r="H326" s="9"/>
       <c r="I326" s="9"/>
       <c r="J326" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K326" s="7" t="s">
         <v>42</v>
@@ -8054,16 +8139,16 @@
     </row>
     <row r="327" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E327" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F327" s="9" t="s">
         <v>40</v>
@@ -8074,7 +8159,7 @@
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
       <c r="J327" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K327" s="7" t="s">
         <v>42</v>
@@ -8082,16 +8167,16 @@
     </row>
     <row r="328" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B328" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C328" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D328" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E328" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F328" s="9" t="s">
         <v>154</v>
@@ -8102,7 +8187,7 @@
       <c r="H328" s="9"/>
       <c r="I328" s="9"/>
       <c r="J328" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="K328" s="7" t="s">
         <v>42</v>
@@ -8188,16 +8273,16 @@
     </row>
     <row r="333" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B333" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D333" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E333" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F333" s="9" t="s">
         <v>40</v>
@@ -8208,7 +8293,7 @@
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
       <c r="J333" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K333" s="7" t="s">
         <v>42</v>
@@ -8216,13 +8301,13 @@
     </row>
     <row r="334" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E334" s="9" t="s">
         <v>52</v>
@@ -8236,7 +8321,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>42</v>
@@ -8342,14 +8427,14 @@
     </row>
     <row r="340" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B340" s="3" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E340" s="4"/>
       <c r="F340" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -8409,13 +8494,13 @@
         <v>5</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C359" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D359" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E359" s="9" t="s">
         <v>90</v>
@@ -8431,7 +8516,7 @@
       </c>
       <c r="I359" s="9"/>
       <c r="J359" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K359" s="7" t="s">
         <v>42</v>
@@ -8484,7 +8569,7 @@
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
       <c r="J362" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K362" s="1"/>
       <c r="L362" s="1"/>
@@ -8503,7 +8588,7 @@
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -8522,7 +8607,7 @@
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -8549,13 +8634,13 @@
     </row>
     <row r="366" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B366" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E366" s="9" t="n">
         <v>45692</v>
@@ -8569,21 +8654,21 @@
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
       <c r="J366" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="367" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B367" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C367" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D367" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E367" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F367" s="9" t="s">
         <v>212</v>
@@ -8593,10 +8678,10 @@
       </c>
       <c r="H367" s="9"/>
       <c r="I367" s="9" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="J367" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="368" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8673,16 +8758,16 @@
     </row>
     <row r="372" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B372" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F372" s="9" t="s">
         <v>40</v>
@@ -8693,7 +8778,7 @@
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
       <c r="J372" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K372" s="7" t="s">
         <v>42</v>
@@ -8729,13 +8814,13 @@
     </row>
     <row r="374" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B374" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E374" s="9" t="s">
         <v>52</v>
@@ -8749,7 +8834,7 @@
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
       <c r="J374" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K374" s="7" t="s">
         <v>42</v>
@@ -8860,17 +8945,17 @@
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J381" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J382" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J383" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -8924,7 +9009,7 @@
       <c r="H386" s="9"/>
       <c r="I386" s="9"/>
       <c r="J386" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="K386" s="7" t="s">
         <v>75</v>
@@ -8932,16 +9017,16 @@
     </row>
     <row r="387" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B387" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C387" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D387" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E387" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F387" s="9" t="s">
         <v>40</v>
@@ -8952,7 +9037,7 @@
       <c r="H387" s="9"/>
       <c r="I387" s="9"/>
       <c r="J387" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K387" s="7" t="s">
         <v>42</v>
@@ -8960,13 +9045,13 @@
     </row>
     <row r="388" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B388" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C388" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D388" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E388" s="9" t="s">
         <v>90</v>
@@ -8980,7 +9065,7 @@
       <c r="H388" s="9"/>
       <c r="I388" s="9"/>
       <c r="J388" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K388" s="7" t="s">
         <v>42</v>
@@ -9016,16 +9101,16 @@
     </row>
     <row r="390" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B390" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C390" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D390" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E390" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F390" s="9" t="s">
         <v>236</v>
@@ -9036,7 +9121,7 @@
       <c r="H390" s="9"/>
       <c r="I390" s="9"/>
       <c r="J390" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K390" s="7" t="s">
         <v>65</v>
@@ -9044,16 +9129,16 @@
     </row>
     <row r="391" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C391" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D391" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E391" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F391" s="9" t="s">
         <v>236</v>
@@ -9064,7 +9149,7 @@
       <c r="H391" s="9"/>
       <c r="I391" s="9"/>
       <c r="J391" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="K391" s="7" t="s">
         <v>42</v>
@@ -9076,13 +9161,13 @@
         <v>13</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E393" s="9" t="s">
         <v>52</v>
@@ -9096,7 +9181,7 @@
       <c r="H393" s="9"/>
       <c r="I393" s="9"/>
       <c r="J393" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K393" s="7" t="s">
         <v>42</v>
@@ -9124,13 +9209,13 @@
         <v>5</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D395" s="15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E395" s="16" t="s">
         <v>90</v>
@@ -9146,7 +9231,7 @@
       </c>
       <c r="I395" s="16"/>
       <c r="J395" s="15" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K395" s="15" t="s">
         <v>42</v>
@@ -9199,7 +9284,7 @@
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
@@ -9218,7 +9303,7 @@
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
       <c r="J399" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K399" s="1"/>
       <c r="L399" s="1"/>
@@ -9237,7 +9322,7 @@
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
       <c r="J400" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K400" s="1"/>
       <c r="L400" s="1"/>
@@ -9264,13 +9349,13 @@
     </row>
     <row r="402" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B402" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D402" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E402" s="9" t="n">
         <v>45692</v>
@@ -9284,7 +9369,7 @@
       <c r="H402" s="9"/>
       <c r="I402" s="9"/>
       <c r="J402" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K402" s="7" t="s">
         <v>42</v>
@@ -9480,7 +9565,7 @@
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
       <c r="J411" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K411" s="1"/>
       <c r="L411" s="1"/>
@@ -9499,7 +9584,7 @@
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
       <c r="J412" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K412" s="1"/>
       <c r="L412" s="1"/>
@@ -9518,7 +9603,7 @@
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
       <c r="J413" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K413" s="1"/>
       <c r="L413" s="1"/>
@@ -9545,13 +9630,13 @@
     </row>
     <row r="415" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B415" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C415" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D415" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E415" s="9" t="n">
         <v>45692</v>
@@ -9565,7 +9650,7 @@
       <c r="H415" s="9"/>
       <c r="I415" s="9"/>
       <c r="J415" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="K415" s="7" t="s">
         <v>42</v>
@@ -9601,13 +9686,13 @@
     </row>
     <row r="417" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B417" s="15" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D417" s="15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E417" s="16" t="s">
         <v>90</v>
@@ -9621,7 +9706,7 @@
       <c r="H417" s="16"/>
       <c r="I417" s="16"/>
       <c r="J417" s="15" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="K417" s="15" t="s">
         <v>42</v>
@@ -9629,13 +9714,13 @@
     </row>
     <row r="418" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B418" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E418" s="9" t="s">
         <v>90</v>
@@ -9649,7 +9734,7 @@
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
       <c r="J418" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K418" s="7" t="s">
         <v>42</v>
@@ -9677,7 +9762,7 @@
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
       <c r="J419" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="K419" s="7" t="s">
         <v>42</v>
@@ -9705,7 +9790,7 @@
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
       <c r="J420" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K420" s="7" t="s">
         <v>42</v>
@@ -9761,7 +9846,7 @@
       <c r="H422" s="9"/>
       <c r="I422" s="9"/>
       <c r="J422" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K422" s="7" t="s">
         <v>42</v>
@@ -9789,16 +9874,16 @@
         <v>13</v>
       </c>
       <c r="B424" s="15" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C424" s="15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D424" s="15" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E424" s="16" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F424" s="16" t="s">
         <v>40</v>
@@ -9809,7 +9894,7 @@
       <c r="H424" s="16"/>
       <c r="I424" s="16"/>
       <c r="J424" s="15" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K424" s="15" t="s">
         <v>42</v>
@@ -9912,7 +9997,7 @@
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
       <c r="J429" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K429" s="1"/>
       <c r="L429" s="1"/>
@@ -9931,7 +10016,7 @@
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
@@ -9950,7 +10035,7 @@
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
@@ -9986,7 +10071,7 @@
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
       <c r="J433" s="1" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="K433" s="1"/>
       <c r="L433" s="1"/>
@@ -10005,7 +10090,7 @@
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
@@ -10024,7 +10109,7 @@
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
       <c r="J435" s="1" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K435" s="1"/>
       <c r="L435" s="1"/>
@@ -10043,7 +10128,7 @@
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
@@ -10098,13 +10183,13 @@
     </row>
     <row r="439" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B439" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E439" s="9" t="s">
         <v>90</v>
@@ -10118,7 +10203,7 @@
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
       <c r="J439" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K439" s="7" t="s">
         <v>42</v>
@@ -10182,13 +10267,13 @@
     </row>
     <row r="442" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B442" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C442" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D442" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E442" s="9" t="s">
         <v>240</v>
@@ -10202,7 +10287,7 @@
       <c r="H442" s="9"/>
       <c r="I442" s="9"/>
       <c r="J442" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K442" s="7" t="s">
         <v>65</v>
@@ -10210,16 +10295,16 @@
     </row>
     <row r="443" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D443" s="18" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E443" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F443" s="9" t="s">
         <v>212</v>
@@ -10230,7 +10315,7 @@
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
       <c r="J443" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K443" s="7" t="s">
         <v>75</v>
@@ -10244,7 +10329,7 @@
         <v>158</v>
       </c>
       <c r="D444" s="18" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E444" s="9" t="s">
         <v>159</v>
@@ -10272,16 +10357,16 @@
     </row>
     <row r="445" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>236</v>
@@ -10292,7 +10377,7 @@
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
       <c r="J445" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K445" s="7" t="s">
         <v>65</v>
@@ -10300,16 +10385,16 @@
     </row>
     <row r="446" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E446" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F446" s="9" t="s">
         <v>236</v>
@@ -10320,21 +10405,21 @@
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
       <c r="J446" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K446" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="447" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E447" s="9" t="n">
         <v>45692</v>
@@ -10348,7 +10433,7 @@
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
       <c r="J447" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="K447" s="7" t="s">
         <v>42</v>
@@ -10378,16 +10463,16 @@
     </row>
     <row r="450" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B450" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C450" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D450" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E450" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F450" s="9" t="s">
         <v>40</v>
@@ -10398,7 +10483,7 @@
       <c r="H450" s="9"/>
       <c r="I450" s="9"/>
       <c r="J450" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K450" s="7" t="s">
         <v>42</v>
@@ -10434,13 +10519,13 @@
     </row>
     <row r="452" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B452" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E452" s="9" t="s">
         <v>52</v>
@@ -10454,7 +10539,7 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
       <c r="J452" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K452" s="7" t="s">
         <v>42</v>
@@ -10604,7 +10689,7 @@
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -10623,7 +10708,7 @@
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
       <c r="J460" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K460" s="1"/>
       <c r="L460" s="1"/>
@@ -10642,7 +10727,7 @@
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
       <c r="J461" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K461" s="1"/>
       <c r="L461" s="1"/>
@@ -10678,7 +10763,7 @@
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
       <c r="J463" s="1" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="K463" s="1"/>
       <c r="L463" s="1"/>
@@ -10697,7 +10782,7 @@
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="1" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -10716,7 +10801,7 @@
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="1" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
@@ -10735,7 +10820,7 @@
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
@@ -10762,16 +10847,16 @@
     </row>
     <row r="468" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E468" s="9" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F468" s="9" t="s">
         <v>236</v>
@@ -10782,7 +10867,7 @@
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
       <c r="J468" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="K468" s="7" t="s">
         <v>42</v>
@@ -10825,7 +10910,7 @@
         <v>158</v>
       </c>
       <c r="D470" s="18" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="E470" s="9" t="s">
         <v>159</v>
@@ -10871,13 +10956,13 @@
         <v>13</v>
       </c>
       <c r="B472" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C472" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D472" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E472" s="9" t="s">
         <v>52</v>
@@ -10891,7 +10976,7 @@
       <c r="H472" s="9"/>
       <c r="I472" s="9"/>
       <c r="J472" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K472" s="7" t="s">
         <v>42</v>
@@ -10987,7 +11072,7 @@
         <v>2</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E478" s="4"/>
       <c r="F478" s="4" t="s">
@@ -10997,7 +11082,7 @@
       <c r="H478" s="4"/>
       <c r="I478" s="4"/>
       <c r="J478" s="3" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,21 +11162,21 @@
       <c r="H483" s="9"/>
       <c r="I483" s="9"/>
       <c r="J483" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="484" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B484" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C484" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D484" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E484" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F484" s="9" t="s">
         <v>40</v>
@@ -11102,7 +11187,7 @@
       <c r="H484" s="9"/>
       <c r="I484" s="9"/>
       <c r="J484" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11295,14 +11380,14 @@
     </row>
     <row r="497" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B497" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D497" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E497" s="4"/>
       <c r="F497" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G497" s="4"/>
       <c r="H497" s="4"/>
@@ -11330,16 +11415,16 @@
         <v>5</v>
       </c>
       <c r="B499" s="15" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D499" s="15" t="s">
         <v>272</v>
       </c>
       <c r="E499" s="16" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F499" s="16" t="s">
         <v>154</v>
@@ -11352,7 +11437,7 @@
       </c>
       <c r="I499" s="16"/>
       <c r="J499" s="15" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K499" s="15" t="s">
         <v>42</v>
@@ -11405,7 +11490,7 @@
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -11424,7 +11509,7 @@
       <c r="H503" s="2"/>
       <c r="I503" s="2"/>
       <c r="J503" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -11443,7 +11528,7 @@
       <c r="H504" s="2"/>
       <c r="I504" s="2"/>
       <c r="J504" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -11524,7 +11609,7 @@
       <c r="H507" s="2"/>
       <c r="I507" s="2"/>
       <c r="J507" s="1" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K507" s="1" t="s">
         <v>42</v>
@@ -11805,14 +11890,14 @@
     </row>
     <row r="523" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B523" s="3" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="E523" s="4"/>
       <c r="F523" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G523" s="4"/>
       <c r="H523" s="4"/>
@@ -12102,16 +12187,16 @@
     </row>
     <row r="535" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D535" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F535" s="9" t="s">
         <v>154</v>
@@ -12122,7 +12207,7 @@
       <c r="H535" s="9"/>
       <c r="I535" s="9"/>
       <c r="J535" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="K535" s="7" t="s">
         <v>42</v>
@@ -12130,13 +12215,13 @@
     </row>
     <row r="536" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D536" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E536" s="9" t="n">
         <v>45692</v>
@@ -12150,7 +12235,7 @@
       <c r="H536" s="9"/>
       <c r="I536" s="9"/>
       <c r="J536" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K536" s="7" t="s">
         <v>42</v>
@@ -12192,16 +12277,16 @@
     </row>
     <row r="538" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B538" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C538" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D538" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E538" s="9" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="F538" s="9" t="s">
         <v>236</v>
@@ -12212,7 +12297,7 @@
       <c r="H538" s="9"/>
       <c r="I538" s="9"/>
       <c r="J538" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="K538" s="7" t="s">
         <v>75</v>
@@ -12220,16 +12305,16 @@
     </row>
     <row r="539" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B539" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D539" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="E539" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F539" s="9" t="s">
         <v>236</v>
@@ -12240,7 +12325,7 @@
       <c r="H539" s="9"/>
       <c r="I539" s="9"/>
       <c r="J539" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K539" s="7" t="s">
         <v>65</v>
@@ -12248,16 +12333,16 @@
     </row>
     <row r="540" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B540" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C540" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D540" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="E540" s="9" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F540" s="9" t="s">
         <v>154</v>
@@ -12268,7 +12353,7 @@
       <c r="H540" s="9"/>
       <c r="I540" s="9"/>
       <c r="J540" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="K540" s="7" t="s">
         <v>42</v>
@@ -12296,7 +12381,7 @@
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
       <c r="J541" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K541" s="7" t="s">
         <v>128</v>
@@ -12348,16 +12433,16 @@
     </row>
     <row r="545" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B545" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D545" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E545" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F545" s="9" t="s">
         <v>40</v>
@@ -12368,7 +12453,7 @@
       <c r="H545" s="9"/>
       <c r="I545" s="9"/>
       <c r="J545" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K545" s="7" t="s">
         <v>42</v>
@@ -12415,16 +12500,16 @@
         <v>5</v>
       </c>
       <c r="B548" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D548" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E548" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F548" s="9" t="s">
         <v>40</v>
@@ -12437,7 +12522,7 @@
       </c>
       <c r="I548" s="9"/>
       <c r="J548" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K548" s="7" t="s">
         <v>42</v>
@@ -12490,7 +12575,7 @@
       <c r="H551" s="2"/>
       <c r="I551" s="2"/>
       <c r="J551" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="K551" s="1"/>
       <c r="L551" s="1"/>
@@ -12509,7 +12594,7 @@
       <c r="H552" s="2"/>
       <c r="I552" s="2"/>
       <c r="J552" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K552" s="1"/>
       <c r="L552" s="1"/>
@@ -12528,7 +12613,7 @@
       <c r="H553" s="2"/>
       <c r="I553" s="2"/>
       <c r="J553" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="K553" s="1"/>
       <c r="L553" s="1"/>
@@ -12555,13 +12640,13 @@
     </row>
     <row r="555" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B555" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C555" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D555" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E555" s="9" t="n">
         <v>45692</v>
@@ -12575,7 +12660,7 @@
       <c r="H555" s="9"/>
       <c r="I555" s="9"/>
       <c r="J555" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K555" s="7" t="s">
         <v>42</v>
@@ -12620,7 +12705,7 @@
       <c r="H557" s="9"/>
       <c r="I557" s="9"/>
       <c r="J557" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="K557" s="7" t="s">
         <v>42</v>
@@ -12648,7 +12733,7 @@
       <c r="H558" s="9"/>
       <c r="I558" s="9"/>
       <c r="J558" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K558" s="7" t="s">
         <v>42</v>
@@ -12676,7 +12761,7 @@
       <c r="H559" s="9"/>
       <c r="I559" s="9"/>
       <c r="J559" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K559" s="7" t="s">
         <v>42</v>
@@ -12684,13 +12769,13 @@
     </row>
     <row r="560" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B560" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C560" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D560" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E560" s="9" t="s">
         <v>90</v>
@@ -12704,7 +12789,7 @@
       <c r="H560" s="9"/>
       <c r="I560" s="9"/>
       <c r="J560" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K560" s="7" t="s">
         <v>42</v>
@@ -12740,16 +12825,16 @@
     </row>
     <row r="562" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B562" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C562" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D562" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E562" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F562" s="9" t="s">
         <v>236</v>
@@ -12760,7 +12845,7 @@
       <c r="H562" s="9"/>
       <c r="I562" s="9"/>
       <c r="J562" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K562" s="7" t="s">
         <v>42</v>
@@ -12768,16 +12853,16 @@
     </row>
     <row r="563" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B563" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C563" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D563" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E563" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F563" s="9" t="s">
         <v>40</v>
@@ -12788,7 +12873,7 @@
       <c r="H563" s="9"/>
       <c r="I563" s="9"/>
       <c r="J563" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K563" s="7" t="s">
         <v>42</v>
@@ -12840,13 +12925,13 @@
     </row>
     <row r="567" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B567" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D567" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E567" s="9" t="s">
         <v>52</v>
@@ -12860,7 +12945,7 @@
       <c r="H567" s="9"/>
       <c r="I567" s="9"/>
       <c r="J567" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K567" s="7" t="s">
         <v>42</v>
@@ -12975,16 +13060,16 @@
         <v>5</v>
       </c>
       <c r="B574" s="15" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C574" s="15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D574" s="15" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E574" s="16" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F574" s="16" t="s">
         <v>40</v>
@@ -12997,7 +13082,7 @@
       </c>
       <c r="I574" s="16"/>
       <c r="J574" s="15" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K574" s="15" t="s">
         <v>42</v>
@@ -13050,7 +13135,7 @@
       <c r="H577" s="2"/>
       <c r="I577" s="2"/>
       <c r="J577" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K577" s="1"/>
       <c r="L577" s="1"/>
@@ -13069,7 +13154,7 @@
       <c r="H578" s="2"/>
       <c r="I578" s="2"/>
       <c r="J578" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K578" s="1"/>
       <c r="L578" s="1"/>
@@ -13088,7 +13173,7 @@
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
       <c r="J579" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
@@ -13135,7 +13220,7 @@
       <c r="H581" s="9"/>
       <c r="I581" s="9"/>
       <c r="J581" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K581" s="7" t="s">
         <v>75</v>
@@ -13163,7 +13248,7 @@
       <c r="H582" s="9"/>
       <c r="I582" s="9"/>
       <c r="J582" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K582" s="7" t="s">
         <v>42</v>
@@ -13171,13 +13256,13 @@
     </row>
     <row r="583" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B583" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D583" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E583" s="9" t="s">
         <v>90</v>
@@ -13191,7 +13276,7 @@
       <c r="H583" s="9"/>
       <c r="I583" s="9"/>
       <c r="J583" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="K583" s="7" t="s">
         <v>42</v>
@@ -13247,7 +13332,7 @@
       <c r="H585" s="9"/>
       <c r="I585" s="9"/>
       <c r="J585" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="K585" s="7" t="s">
         <v>42</v>
@@ -13275,7 +13360,7 @@
       <c r="H586" s="9"/>
       <c r="I586" s="9"/>
       <c r="J586" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K586" s="7" t="s">
         <v>42</v>
@@ -13579,7 +13664,7 @@
       <c r="H602" s="2"/>
       <c r="I602" s="2"/>
       <c r="J602" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K602" s="1"/>
       <c r="L602" s="1"/>
@@ -13598,7 +13683,7 @@
       <c r="H603" s="2"/>
       <c r="I603" s="2"/>
       <c r="J603" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K603" s="1"/>
       <c r="L603" s="1"/>
@@ -13617,7 +13702,7 @@
       <c r="H604" s="2"/>
       <c r="I604" s="2"/>
       <c r="J604" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K604" s="1"/>
       <c r="L604" s="1"/>
@@ -13664,7 +13749,7 @@
       <c r="H606" s="9"/>
       <c r="I606" s="9"/>
       <c r="J606" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K606" s="7" t="s">
         <v>42</v>
@@ -13672,16 +13757,16 @@
     </row>
     <row r="607" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B607" s="15" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C607" s="15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D607" s="15" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E607" s="16" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F607" s="16" t="s">
         <v>40</v>
@@ -13692,7 +13777,7 @@
       <c r="H607" s="16"/>
       <c r="I607" s="16"/>
       <c r="J607" s="15" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K607" s="15" t="s">
         <v>42</v>
@@ -13728,13 +13813,13 @@
     </row>
     <row r="609" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B609" s="15" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C609" s="15" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D609" s="15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E609" s="16" t="s">
         <v>90</v>
@@ -13748,7 +13833,7 @@
       <c r="H609" s="16"/>
       <c r="I609" s="16"/>
       <c r="J609" s="15" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K609" s="15" t="s">
         <v>42</v>
@@ -13756,13 +13841,13 @@
     </row>
     <row r="610" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B610" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C610" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D610" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E610" s="9" t="s">
         <v>90</v>
@@ -13776,7 +13861,7 @@
       <c r="H610" s="9"/>
       <c r="I610" s="9"/>
       <c r="J610" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K610" s="7" t="s">
         <v>42</v>
@@ -13804,7 +13889,7 @@
       <c r="H611" s="16"/>
       <c r="I611" s="16"/>
       <c r="J611" s="15" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K611" s="15" t="s">
         <v>42</v>
@@ -13868,13 +13953,13 @@
     </row>
     <row r="614" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B614" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C614" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D614" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E614" s="9" t="n">
         <v>45692</v>
@@ -13888,7 +13973,7 @@
       <c r="H614" s="9"/>
       <c r="I614" s="9"/>
       <c r="J614" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K614" s="7" t="s">
         <v>42</v>
@@ -13896,16 +13981,16 @@
     </row>
     <row r="615" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B615" s="15" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C615" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D615" s="15" t="s">
         <v>272</v>
       </c>
       <c r="E615" s="16" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F615" s="16" t="s">
         <v>154</v>
@@ -13916,7 +14001,7 @@
       <c r="H615" s="16"/>
       <c r="I615" s="16"/>
       <c r="J615" s="15" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="K615" s="15" t="s">
         <v>42</v>
@@ -13952,13 +14037,13 @@
     </row>
     <row r="617" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B617" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C617" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D617" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E617" s="9" t="s">
         <v>52</v>
@@ -13972,7 +14057,7 @@
       <c r="H617" s="9"/>
       <c r="I617" s="9"/>
       <c r="J617" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="K617" s="7" t="s">
         <v>42</v>
@@ -13980,16 +14065,16 @@
     </row>
     <row r="618" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C618" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D618" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E618" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F618" s="9" t="s">
         <v>236</v>
@@ -14000,7 +14085,7 @@
       <c r="H618" s="9"/>
       <c r="I618" s="9"/>
       <c r="J618" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K618" s="7" t="s">
         <v>42</v>
@@ -14239,7 +14324,7 @@
       <c r="H630" s="2"/>
       <c r="I630" s="2"/>
       <c r="J630" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K630" s="1"/>
       <c r="L630" s="1"/>
@@ -14258,7 +14343,7 @@
       <c r="H631" s="2"/>
       <c r="I631" s="2"/>
       <c r="J631" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K631" s="1"/>
       <c r="L631" s="1"/>
@@ -14277,7 +14362,7 @@
       <c r="H632" s="2"/>
       <c r="I632" s="2"/>
       <c r="J632" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K632" s="1"/>
       <c r="L632" s="1"/>
@@ -14304,13 +14389,13 @@
     </row>
     <row r="634" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D634" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E634" s="9" t="n">
         <v>45692</v>
@@ -14324,7 +14409,7 @@
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
       <c r="J634" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K634" s="7" t="s">
         <v>42</v>
@@ -14380,7 +14465,7 @@
       <c r="H636" s="9"/>
       <c r="I636" s="9"/>
       <c r="J636" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="K636" s="7" t="s">
         <v>42</v>
@@ -14388,13 +14473,13 @@
     </row>
     <row r="637" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B637" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C637" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D637" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E637" s="9" t="s">
         <v>90</v>
@@ -14408,7 +14493,7 @@
       <c r="H637" s="9"/>
       <c r="I637" s="9"/>
       <c r="J637" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K637" s="7" t="s">
         <v>42</v>
@@ -14436,7 +14521,7 @@
       <c r="H638" s="9"/>
       <c r="I638" s="9"/>
       <c r="J638" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K638" s="7" t="s">
         <v>42</v>
@@ -14444,16 +14529,16 @@
     </row>
     <row r="639" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B639" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C639" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D639" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E639" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F639" s="9" t="s">
         <v>236</v>
@@ -14464,7 +14549,7 @@
       <c r="H639" s="9"/>
       <c r="I639" s="9"/>
       <c r="J639" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K639" s="7" t="s">
         <v>42</v>
@@ -14472,16 +14557,16 @@
     </row>
     <row r="640" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B640" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C640" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D640" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E640" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F640" s="9" t="s">
         <v>40</v>
@@ -14492,7 +14577,7 @@
       <c r="H640" s="9"/>
       <c r="I640" s="9"/>
       <c r="J640" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="K640" s="7" t="s">
         <v>42</v>
@@ -14562,13 +14647,13 @@
         <v>5</v>
       </c>
       <c r="B644" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C644" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D644" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E644" s="9" t="s">
         <v>52</v>
@@ -14584,7 +14669,7 @@
       </c>
       <c r="I644" s="9"/>
       <c r="J644" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K644" s="7" t="s">
         <v>42</v>
@@ -14637,7 +14722,7 @@
       <c r="H647" s="2"/>
       <c r="I647" s="2"/>
       <c r="J647" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="K647" s="1"/>
       <c r="L647" s="1"/>
@@ -14645,25 +14730,25 @@
       <c r="N647" s="1"/>
       <c r="O647" s="1"/>
       <c r="R647" s="13" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="S647" s="13" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="T647" s="13" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="U647" s="13" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="V647" s="13" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="W647" s="13" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="X647" s="13" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="648" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14677,7 +14762,7 @@
       <c r="H648" s="2"/>
       <c r="I648" s="2"/>
       <c r="J648" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K648" s="1"/>
       <c r="L648" s="1"/>
@@ -14685,31 +14770,31 @@
       <c r="N648" s="1"/>
       <c r="O648" s="1"/>
       <c r="R648" s="13" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="S648" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T648" s="13" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="U648" s="13" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="V648" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="W648" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="W648" s="13" t="s">
-        <v>423</v>
-      </c>
       <c r="X648" s="13" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="Y648" s="13" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="Z648" s="13" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="649" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14723,7 +14808,7 @@
       <c r="H649" s="2"/>
       <c r="I649" s="2"/>
       <c r="J649" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K649" s="1"/>
       <c r="L649" s="1"/>
@@ -14731,33 +14816,33 @@
       <c r="N649" s="1"/>
       <c r="O649" s="1"/>
       <c r="R649" s="13" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="S649" s="13" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="T649" s="13" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="U649" s="13" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="V649" s="13" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="W649" s="13" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="650" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B650" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C650" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D650" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E650" s="9" t="n">
         <v>45692</v>
@@ -14771,7 +14856,7 @@
       <c r="H650" s="9"/>
       <c r="I650" s="9"/>
       <c r="J650" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="K650" s="7" t="s">
         <v>42</v>
@@ -14844,7 +14929,7 @@
       <c r="H653" s="9"/>
       <c r="I653" s="9"/>
       <c r="J653" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="K653" s="7" t="s">
         <v>42</v>
@@ -14880,13 +14965,13 @@
     </row>
     <row r="655" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B655" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C655" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="D655" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E655" s="9" t="s">
         <v>90</v>
@@ -14900,7 +14985,7 @@
       <c r="H655" s="9"/>
       <c r="I655" s="9"/>
       <c r="J655" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K655" s="7" t="s">
         <v>42</v>
@@ -14964,16 +15049,16 @@
     </row>
     <row r="658" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B658" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C658" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D658" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E658" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F658" s="9" t="s">
         <v>236</v>
@@ -14984,7 +15069,7 @@
       <c r="H658" s="9"/>
       <c r="I658" s="9"/>
       <c r="J658" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K658" s="7" t="s">
         <v>42</v>
@@ -14992,16 +15077,16 @@
     </row>
     <row r="659" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B659" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C659" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D659" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E659" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F659" s="9" t="s">
         <v>40</v>
@@ -15012,7 +15097,7 @@
       <c r="H659" s="9"/>
       <c r="I659" s="9"/>
       <c r="J659" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K659" s="7" t="s">
         <v>42</v>
@@ -15020,16 +15105,16 @@
     </row>
     <row r="660" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B660" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="C660" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D660" s="18" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="E660" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F660" s="9" t="s">
         <v>212</v>
@@ -15040,7 +15125,7 @@
       <c r="H660" s="9"/>
       <c r="I660" s="9"/>
       <c r="J660" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K660" s="7" t="s">
         <v>75</v>
@@ -15158,11 +15243,11 @@
     </row>
     <row r="667" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="3" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E667" s="4"/>
       <c r="F667" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G667" s="4"/>
       <c r="H667" s="4"/>
@@ -15219,28 +15304,28 @@
     </row>
     <row r="672" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J672" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J673" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J674" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="676" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B676" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C676" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D676" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E676" s="9" t="n">
         <v>45692</v>
@@ -15254,7 +15339,7 @@
       <c r="H676" s="9"/>
       <c r="I676" s="9"/>
       <c r="J676" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K676" s="7" t="s">
         <v>42</v>
@@ -15380,16 +15465,16 @@
     </row>
     <row r="682" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B682" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C682" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D682" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E682" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F682" s="9" t="s">
         <v>40</v>
@@ -15400,7 +15485,7 @@
       <c r="H682" s="9"/>
       <c r="I682" s="9"/>
       <c r="J682" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K682" s="7" t="s">
         <v>42</v>
@@ -15408,13 +15493,13 @@
     </row>
     <row r="683" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B683" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C683" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D683" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E683" s="9" t="s">
         <v>90</v>
@@ -15428,7 +15513,7 @@
       <c r="H683" s="9"/>
       <c r="I683" s="9"/>
       <c r="J683" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K683" s="7" t="s">
         <v>42</v>
@@ -15436,13 +15521,13 @@
     </row>
     <row r="684" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B684" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C684" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D684" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E684" s="9" t="s">
         <v>52</v>
@@ -15456,7 +15541,7 @@
       <c r="H684" s="9"/>
       <c r="I684" s="9"/>
       <c r="J684" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K684" s="7" t="s">
         <v>42</v>
@@ -15492,16 +15577,16 @@
     </row>
     <row r="686" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B686" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="C686" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="D686" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E686" s="9" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="F686" s="9" t="s">
         <v>236</v>
@@ -15512,7 +15597,7 @@
       <c r="H686" s="9"/>
       <c r="I686" s="9"/>
       <c r="J686" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K686" s="7" t="s">
         <v>42</v>
@@ -15520,16 +15605,16 @@
     </row>
     <row r="687" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B687" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C687" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D687" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E687" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F687" s="9" t="s">
         <v>40</v>
@@ -15540,7 +15625,7 @@
       <c r="H687" s="9"/>
       <c r="I687" s="9"/>
       <c r="J687" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="K687" s="7" t="s">
         <v>42</v>
@@ -31923,11 +32008,11 @@
     </row>
     <row r="690" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B690" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="E690" s="4"/>
       <c r="F690" s="4" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G690" s="4"/>
       <c r="H690" s="4"/>
@@ -31980,43 +32065,43 @@
     </row>
     <row r="695" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J695" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J696" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J697" s="1" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J699" s="1" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J700" s="1" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J701" s="1" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="703" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B703" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C703" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D703" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E703" s="9" t="n">
         <v>45692</v>
@@ -32030,7 +32115,7 @@
       <c r="H703" s="9"/>
       <c r="I703" s="9"/>
       <c r="J703" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="K703" s="7" t="s">
         <v>42</v>
@@ -32178,16 +32263,16 @@
     </row>
     <row r="709" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B709" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C709" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D709" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E709" s="9" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="F709" s="9" t="s">
         <v>40</v>
@@ -32198,7 +32283,7 @@
       <c r="H709" s="9"/>
       <c r="I709" s="9"/>
       <c r="J709" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K709" s="7" t="s">
         <v>42</v>
@@ -32206,13 +32291,13 @@
     </row>
     <row r="710" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B710" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D710" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E710" s="9" t="s">
         <v>52</v>
@@ -32226,7 +32311,7 @@
       <c r="H710" s="9"/>
       <c r="I710" s="9"/>
       <c r="J710" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K710" s="7" t="s">
         <v>42</v>
@@ -32288,26 +32373,46 @@
         <v>42</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J713" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="K713" s="1" t="s">
+    <row r="713" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B713" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C713" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="D713" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E713" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="F713" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G713" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H713" s="16"/>
+      <c r="I713" s="16"/>
+      <c r="J713" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="K713" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="714" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B714" s="15" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C714" s="15" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="D714" s="15" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="E714" s="16" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="F714" s="16" t="s">
         <v>40</v>
@@ -32318,7 +32423,7 @@
       <c r="H714" s="16"/>
       <c r="I714" s="16"/>
       <c r="J714" s="15" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K714" s="15" t="s">
         <v>42</v>
@@ -32346,7 +32451,7 @@
       <c r="H715" s="9"/>
       <c r="I715" s="9"/>
       <c r="J715" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="K715" s="7" t="s">
         <v>42</v>
@@ -32354,13 +32459,13 @@
     </row>
     <row r="716" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B716" s="15" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C716" s="15" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D716" s="15" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E716" s="16" t="s">
         <v>90</v>
@@ -32374,7 +32479,7 @@
       <c r="H716" s="16"/>
       <c r="I716" s="16"/>
       <c r="J716" s="15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K716" s="15" t="s">
         <v>42</v>
@@ -32382,7 +32487,7 @@
     </row>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J717" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="K717" s="1" t="s">
         <v>42</v>
@@ -32390,7 +32495,7 @@
     </row>
     <row r="718" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J718" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="K718" s="1" t="s">
         <v>42</v>
@@ -32398,13 +32503,13 @@
     </row>
     <row r="719" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B719" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E719" s="9" t="s">
         <v>90</v>
@@ -32418,7 +32523,7 @@
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
       <c r="J719" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="K719" s="7" t="s">
         <v>42</v>
@@ -32446,7 +32551,7 @@
       <c r="H720" s="16"/>
       <c r="I720" s="16"/>
       <c r="J720" s="15" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="K720" s="15" t="s">
         <v>42</v>
@@ -32454,7 +32559,7 @@
     </row>
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J721" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K721" s="1" t="s">
         <v>42</v>
@@ -32462,7 +32567,7 @@
     </row>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J722" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="K722" s="1" t="s">
         <v>42</v>
@@ -32490,7 +32595,7 @@
       <c r="H723" s="9"/>
       <c r="I723" s="9"/>
       <c r="J723" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="K723" s="7" t="s">
         <v>42</v>
@@ -32498,7 +32603,7 @@
     </row>
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J724" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="K724" s="1" t="s">
         <v>42</v>
@@ -32534,7 +32639,7 @@
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J726" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="K726" s="1" t="s">
         <v>75</v>
@@ -32542,7 +32647,7 @@
     </row>
     <row r="727" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J727" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="728" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -32567,7 +32672,7 @@
       <c r="H728" s="16"/>
       <c r="I728" s="16"/>
       <c r="J728" s="15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K728" s="15" t="s">
         <v>65</v>
@@ -32595,7 +32700,7 @@
       <c r="H729" s="9"/>
       <c r="I729" s="9"/>
       <c r="J729" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K729" s="7" t="s">
         <v>75</v>
@@ -32603,7 +32708,7 @@
     </row>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J730" s="1" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K730" s="1" t="s">
         <v>65</v>
@@ -32611,16 +32716,16 @@
     </row>
     <row r="731" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B731" s="15" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C731" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="D731" s="15" t="s">
         <v>272</v>
       </c>
       <c r="E731" s="16" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="F731" s="16" t="s">
         <v>154</v>
@@ -32631,7 +32736,7 @@
       <c r="H731" s="16"/>
       <c r="I731" s="16"/>
       <c r="J731" s="15" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="K731" s="15" t="s">
         <v>42</v>
@@ -32639,16 +32744,16 @@
     </row>
     <row r="732" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B732" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C732" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D732" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E732" s="9" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="F732" s="9" t="s">
         <v>236</v>
@@ -32659,7 +32764,7 @@
       <c r="H732" s="9"/>
       <c r="I732" s="9"/>
       <c r="J732" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K732" s="7" t="s">
         <v>42</v>
@@ -32667,7 +32772,7 @@
     </row>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J733" s="1" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K733" s="1" t="s">
         <v>42</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3243" uniqueCount="514">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -907,6 +907,27 @@
     <t xml:space="preserve">oslo.service&gt;=1.24.0</t>
   </si>
   <si>
+    <t xml:space="preserve">i1.1.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasteners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023/Sep/20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fasteners&gt;=0.7.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i4.1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.concurrency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.concurrency&gt;=3.25.0</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenStack Hosted apps</t>
   </si>
   <si>
@@ -1256,18 +1277,6 @@
   </si>
   <si>
     <t xml:space="preserve">pbr&gt;=6.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i4.1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.concurrency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.concurrency&gt;=3.25.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fasteners&gt;=0.7.0</t>
   </si>
   <si>
     <t xml:space="preserve"># NOTE(harlowja): Because oslo.serialization is used by the client libraries,</t>
@@ -1683,7 +1692,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1750,6 +1759,10 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -2023,8 +2036,8 @@
   </sheetPr>
   <dimension ref="A1:XFD913"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A568" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A595" activeCellId="0" sqref="595:595"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A539" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A556" activeCellId="0" sqref="556:556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6137,26 +6150,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B224" s="1" t="s">
+    <row r="224" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B224" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C224" s="1" t="s">
+      <c r="C224" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="D224" s="1" t="s">
+      <c r="D224" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="F224" s="2" t="s">
+      <c r="F224" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J224" s="1" t="s">
+      <c r="G224" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H224" s="16"/>
+      <c r="I224" s="16"/>
+      <c r="J224" s="15" t="s">
         <v>288</v>
       </c>
     </row>
@@ -6229,16 +6244,80 @@
       <c r="N228" s="10"/>
       <c r="O228" s="10"/>
     </row>
+    <row r="229" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C229" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D229" s="17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G229" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H229" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="I229" s="16"/>
+      <c r="J229" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="K229" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F232" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G232" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="249" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D249" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E249" s="4"/>
       <c r="F249" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4"/>
@@ -6266,13 +6345,13 @@
         <v>5</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D251" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E251" s="9" t="n">
         <v>45692</v>
@@ -6288,7 +6367,7 @@
       </c>
       <c r="I251" s="9"/>
       <c r="J251" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K251" s="7" t="s">
         <v>42</v>
@@ -6300,16 +6379,16 @@
         <v>20</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D253" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E253" s="9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F253" s="9" t="s">
         <v>212</v>
@@ -6320,7 +6399,7 @@
       <c r="H253" s="9"/>
       <c r="I253" s="9"/>
       <c r="J253" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -6353,16 +6432,16 @@
     </row>
     <row r="257" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D257" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E257" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F257" s="9" t="s">
         <v>40</v>
@@ -6373,7 +6452,7 @@
       <c r="H257" s="9"/>
       <c r="I257" s="9"/>
       <c r="J257" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K257" s="7" t="s">
         <v>42</v>
@@ -6381,16 +6460,16 @@
     </row>
     <row r="258" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D258" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E258" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F258" s="9" t="s">
         <v>154</v>
@@ -6401,7 +6480,7 @@
       <c r="H258" s="9"/>
       <c r="I258" s="9"/>
       <c r="J258" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K258" s="7" t="s">
         <v>42</v>
@@ -6457,7 +6536,7 @@
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
       <c r="J260" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K260" s="7" t="s">
         <v>42</v>
@@ -6465,16 +6544,16 @@
     </row>
     <row r="261" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B261" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D261" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E261" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F261" s="9" t="s">
         <v>40</v>
@@ -6485,7 +6564,7 @@
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
       <c r="J261" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K261" s="7" t="s">
         <v>42</v>
@@ -6493,13 +6572,13 @@
     </row>
     <row r="262" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D262" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E262" s="9" t="s">
         <v>90</v>
@@ -6513,13 +6592,13 @@
       <c r="H262" s="9"/>
       <c r="I262" s="9"/>
       <c r="J262" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K262" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="263" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" s="18" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7"/>
       <c r="B263" s="7" t="s">
         <v>92</v>
@@ -6582,13 +6661,13 @@
     </row>
     <row r="265" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B265" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D265" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E265" s="9" t="s">
         <v>52</v>
@@ -6602,7 +6681,7 @@
       <c r="H265" s="9"/>
       <c r="I265" s="9"/>
       <c r="J265" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K265" s="7" t="s">
         <v>42</v>
@@ -6677,16 +6756,16 @@
         <v>5</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D269" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E269" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F269" s="9" t="s">
         <v>154</v>
@@ -6699,7 +6778,7 @@
       </c>
       <c r="I269" s="9"/>
       <c r="J269" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K269" s="7" t="s">
         <v>42</v>
@@ -6752,7 +6831,7 @@
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
       <c r="J272" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K272" s="1"/>
       <c r="L272" s="1"/>
@@ -6771,7 +6850,7 @@
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
       <c r="J273" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K273" s="1"/>
       <c r="L273" s="1"/>
@@ -6790,7 +6869,7 @@
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
       <c r="J274" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K274" s="1"/>
       <c r="L274" s="1"/>
@@ -6817,13 +6896,13 @@
     </row>
     <row r="276" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B276" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D276" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E276" s="9" t="n">
         <v>45692</v>
@@ -6837,7 +6916,7 @@
       <c r="H276" s="9"/>
       <c r="I276" s="9"/>
       <c r="J276" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K276" s="7" t="s">
         <v>42</v>
@@ -6915,7 +6994,7 @@
       <c r="H280" s="9"/>
       <c r="I280" s="9"/>
       <c r="J280" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K280" s="7" t="s">
         <v>42</v>
@@ -6943,16 +7022,16 @@
         <v>5</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D282" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E282" s="9" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F282" s="9" t="s">
         <v>154</v>
@@ -6965,7 +7044,7 @@
       </c>
       <c r="I282" s="9"/>
       <c r="J282" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K282" s="7" t="s">
         <v>42</v>
@@ -7194,13 +7273,13 @@
     </row>
     <row r="293" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B293" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D293" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E293" s="9" t="s">
         <v>52</v>
@@ -7214,7 +7293,7 @@
       <c r="H293" s="9"/>
       <c r="I293" s="9"/>
       <c r="J293" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K293" s="7" t="s">
         <v>42</v>
@@ -7261,16 +7340,16 @@
         <v>5</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C296" s="15" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D296" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E296" s="16" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F296" s="16" t="s">
         <v>154</v>
@@ -7283,7 +7362,7 @@
       </c>
       <c r="I296" s="16"/>
       <c r="J296" s="15" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K296" s="15" t="s">
         <v>42</v>
@@ -7311,13 +7390,13 @@
         <v>13</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E298" s="16" t="s">
         <v>90</v>
@@ -7329,7 +7408,7 @@
         <v>10</v>
       </c>
       <c r="J298" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K298" s="1" t="s">
         <v>42</v>
@@ -7660,14 +7739,14 @@
     </row>
     <row r="318" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B318" s="3" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E318" s="4"/>
       <c r="F318" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G318" s="4"/>
       <c r="H318" s="4"/>
@@ -7695,16 +7774,16 @@
         <v>5</v>
       </c>
       <c r="B320" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C320" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D320" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E320" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F320" s="9" t="s">
         <v>40</v>
@@ -7717,7 +7796,7 @@
       </c>
       <c r="I320" s="9"/>
       <c r="J320" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K320" s="7" t="s">
         <v>42</v>
@@ -7770,7 +7849,7 @@
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
       <c r="J323" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K323" s="1"/>
       <c r="L323" s="1"/>
@@ -7789,7 +7868,7 @@
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
       <c r="J324" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K324" s="1"/>
       <c r="L324" s="1"/>
@@ -7808,7 +7887,7 @@
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
       <c r="J325" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K325" s="1"/>
       <c r="L325" s="1"/>
@@ -7835,13 +7914,13 @@
     </row>
     <row r="327" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B327" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E327" s="9" t="n">
         <v>45692</v>
@@ -7855,7 +7934,7 @@
       <c r="H327" s="9"/>
       <c r="I327" s="9"/>
       <c r="J327" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="328" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7988,16 +8067,16 @@
     </row>
     <row r="334" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F334" s="9" t="s">
         <v>40</v>
@@ -8008,7 +8087,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>42</v>
@@ -8044,13 +8123,13 @@
     </row>
     <row r="336" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B336" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D336" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E336" s="9" t="s">
         <v>52</v>
@@ -8064,7 +8143,7 @@
       <c r="H336" s="9"/>
       <c r="I336" s="9"/>
       <c r="J336" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K336" s="7" t="s">
         <v>42</v>
@@ -8289,16 +8368,16 @@
     </row>
     <row r="346" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B346" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C346" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D346" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E346" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F346" s="9" t="s">
         <v>40</v>
@@ -8309,7 +8388,7 @@
       <c r="H346" s="9"/>
       <c r="I346" s="9"/>
       <c r="J346" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K346" s="7" t="s">
         <v>42</v>
@@ -8317,16 +8396,16 @@
     </row>
     <row r="347" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B347" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C347" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D347" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E347" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F347" s="9" t="s">
         <v>236</v>
@@ -8337,7 +8416,7 @@
       <c r="H347" s="9"/>
       <c r="I347" s="9"/>
       <c r="J347" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="K347" s="7" t="s">
         <v>65</v>
@@ -8389,16 +8468,16 @@
     </row>
     <row r="351" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B351" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C351" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D351" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E351" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F351" s="9" t="s">
         <v>40</v>
@@ -8409,7 +8488,7 @@
       <c r="H351" s="9"/>
       <c r="I351" s="9"/>
       <c r="J351" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K351" s="7" t="s">
         <v>42</v>
@@ -8531,7 +8610,7 @@
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
       <c r="J357" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K357" s="1"/>
       <c r="L357" s="1"/>
@@ -8550,7 +8629,7 @@
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
       <c r="J358" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K358" s="1"/>
       <c r="L358" s="1"/>
@@ -8569,7 +8648,7 @@
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
       <c r="J359" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K359" s="1"/>
       <c r="L359" s="1"/>
@@ -8605,7 +8684,7 @@
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
       <c r="J361" s="1" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="K361" s="1"/>
       <c r="L361" s="1"/>
@@ -8641,7 +8720,7 @@
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
       <c r="J363" s="1" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="K363" s="1"/>
       <c r="L363" s="1"/>
@@ -8660,7 +8739,7 @@
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
       <c r="J364" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="K364" s="1"/>
       <c r="L364" s="1"/>
@@ -8679,7 +8758,7 @@
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
       <c r="J365" s="1" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="K365" s="1"/>
       <c r="L365" s="1"/>
@@ -8698,7 +8777,7 @@
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
       <c r="J366" s="1" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="K366" s="1"/>
       <c r="L366" s="1"/>
@@ -8717,7 +8796,7 @@
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
       <c r="J367" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="K367" s="1"/>
       <c r="L367" s="1"/>
@@ -8736,7 +8815,7 @@
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
       <c r="J368" s="1" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="K368" s="1"/>
       <c r="L368" s="1"/>
@@ -8763,13 +8842,13 @@
     </row>
     <row r="370" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B370" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D370" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E370" s="9" t="n">
         <v>45692</v>
@@ -8783,7 +8862,7 @@
       <c r="H370" s="9"/>
       <c r="I370" s="9"/>
       <c r="J370" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K370" s="7" t="s">
         <v>42</v>
@@ -8811,7 +8890,7 @@
       <c r="H371" s="9"/>
       <c r="I371" s="9"/>
       <c r="J371" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="K371" s="7" t="s">
         <v>65</v>
@@ -8819,16 +8898,16 @@
     </row>
     <row r="372" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B372" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D372" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E372" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F372" s="9" t="s">
         <v>236</v>
@@ -8839,7 +8918,7 @@
       <c r="H372" s="9"/>
       <c r="I372" s="9"/>
       <c r="J372" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K372" s="7" t="s">
         <v>42</v>
@@ -8847,16 +8926,16 @@
     </row>
     <row r="373" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B373" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C373" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D373" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E373" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F373" s="9" t="s">
         <v>40</v>
@@ -8867,7 +8946,7 @@
       <c r="H373" s="9"/>
       <c r="I373" s="9"/>
       <c r="J373" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K373" s="7" t="s">
         <v>42</v>
@@ -8875,16 +8954,16 @@
     </row>
     <row r="374" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B374" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C374" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D374" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E374" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F374" s="9" t="s">
         <v>154</v>
@@ -8895,7 +8974,7 @@
       <c r="H374" s="9"/>
       <c r="I374" s="9"/>
       <c r="J374" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="K374" s="7" t="s">
         <v>42</v>
@@ -8981,16 +9060,16 @@
     </row>
     <row r="379" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B379" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D379" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E379" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F379" s="9" t="s">
         <v>40</v>
@@ -9001,7 +9080,7 @@
       <c r="H379" s="9"/>
       <c r="I379" s="9"/>
       <c r="J379" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K379" s="7" t="s">
         <v>42</v>
@@ -9009,13 +9088,13 @@
     </row>
     <row r="380" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B380" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D380" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E380" s="9" t="s">
         <v>52</v>
@@ -9029,7 +9108,7 @@
       <c r="H380" s="9"/>
       <c r="I380" s="9"/>
       <c r="J380" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K380" s="7" t="s">
         <v>42</v>
@@ -9135,14 +9214,14 @@
     </row>
     <row r="386" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B386" s="3" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="D386" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E386" s="4"/>
       <c r="F386" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G386" s="4"/>
       <c r="H386" s="4"/>
@@ -9202,13 +9281,13 @@
         <v>5</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C405" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D405" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E405" s="9" t="s">
         <v>90</v>
@@ -9224,7 +9303,7 @@
       </c>
       <c r="I405" s="9"/>
       <c r="J405" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K405" s="7" t="s">
         <v>42</v>
@@ -9277,7 +9356,7 @@
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
       <c r="J408" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K408" s="1"/>
       <c r="L408" s="1"/>
@@ -9296,7 +9375,7 @@
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
       <c r="J409" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K409" s="1"/>
       <c r="L409" s="1"/>
@@ -9315,7 +9394,7 @@
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
       <c r="J410" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K410" s="1"/>
       <c r="L410" s="1"/>
@@ -9342,13 +9421,13 @@
     </row>
     <row r="412" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B412" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D412" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E412" s="9" t="n">
         <v>45692</v>
@@ -9362,21 +9441,21 @@
       <c r="H412" s="9"/>
       <c r="I412" s="9"/>
       <c r="J412" s="7" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="413" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B413" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="C413" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D413" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E413" s="9" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="F413" s="9" t="s">
         <v>212</v>
@@ -9386,10 +9465,10 @@
       </c>
       <c r="H413" s="9"/>
       <c r="I413" s="9" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="J413" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
     </row>
     <row r="414" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9466,16 +9545,16 @@
     </row>
     <row r="418" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B418" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C418" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D418" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E418" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F418" s="9" t="s">
         <v>40</v>
@@ -9486,7 +9565,7 @@
       <c r="H418" s="9"/>
       <c r="I418" s="9"/>
       <c r="J418" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K418" s="7" t="s">
         <v>42</v>
@@ -9522,13 +9601,13 @@
     </row>
     <row r="420" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B420" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E420" s="9" t="s">
         <v>52</v>
@@ -9542,7 +9621,7 @@
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
       <c r="J420" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K420" s="7" t="s">
         <v>42</v>
@@ -9653,17 +9732,17 @@
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J427" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J428" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J429" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -9717,7 +9796,7 @@
       <c r="H432" s="9"/>
       <c r="I432" s="9"/>
       <c r="J432" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="K432" s="7" t="s">
         <v>75</v>
@@ -9725,16 +9804,16 @@
     </row>
     <row r="433" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B433" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C433" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D433" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E433" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F433" s="9" t="s">
         <v>40</v>
@@ -9745,7 +9824,7 @@
       <c r="H433" s="9"/>
       <c r="I433" s="9"/>
       <c r="J433" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K433" s="7" t="s">
         <v>42</v>
@@ -9753,13 +9832,13 @@
     </row>
     <row r="434" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B434" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C434" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D434" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E434" s="9" t="s">
         <v>90</v>
@@ -9773,7 +9852,7 @@
       <c r="H434" s="9"/>
       <c r="I434" s="9"/>
       <c r="J434" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K434" s="7" t="s">
         <v>42</v>
@@ -9809,16 +9888,16 @@
     </row>
     <row r="436" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B436" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C436" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D436" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E436" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F436" s="9" t="s">
         <v>236</v>
@@ -9829,7 +9908,7 @@
       <c r="H436" s="9"/>
       <c r="I436" s="9"/>
       <c r="J436" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="K436" s="7" t="s">
         <v>65</v>
@@ -9837,16 +9916,16 @@
     </row>
     <row r="437" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B437" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C437" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D437" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E437" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F437" s="9" t="s">
         <v>236</v>
@@ -9857,7 +9936,7 @@
       <c r="H437" s="9"/>
       <c r="I437" s="9"/>
       <c r="J437" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K437" s="7" t="s">
         <v>42</v>
@@ -9869,13 +9948,13 @@
         <v>13</v>
       </c>
       <c r="B439" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C439" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D439" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E439" s="9" t="s">
         <v>52</v>
@@ -9889,7 +9968,7 @@
       <c r="H439" s="9"/>
       <c r="I439" s="9"/>
       <c r="J439" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K439" s="7" t="s">
         <v>42</v>
@@ -9917,13 +9996,13 @@
         <v>5</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C441" s="15" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D441" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E441" s="16" t="s">
         <v>90</v>
@@ -9939,7 +10018,7 @@
       </c>
       <c r="I441" s="16"/>
       <c r="J441" s="15" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K441" s="15" t="s">
         <v>42</v>
@@ -9992,7 +10071,7 @@
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
       <c r="J444" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K444" s="1"/>
       <c r="L444" s="1"/>
@@ -10011,7 +10090,7 @@
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
       <c r="J445" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K445" s="1"/>
       <c r="L445" s="1"/>
@@ -10030,7 +10109,7 @@
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
       <c r="J446" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K446" s="1"/>
       <c r="L446" s="1"/>
@@ -10057,13 +10136,13 @@
     </row>
     <row r="448" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B448" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C448" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D448" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E448" s="9" t="n">
         <v>45692</v>
@@ -10077,7 +10156,7 @@
       <c r="H448" s="9"/>
       <c r="I448" s="9"/>
       <c r="J448" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K448" s="7" t="s">
         <v>42</v>
@@ -10273,7 +10352,7 @@
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
       <c r="J457" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K457" s="1"/>
       <c r="L457" s="1"/>
@@ -10292,7 +10371,7 @@
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
       <c r="J458" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K458" s="1"/>
       <c r="L458" s="1"/>
@@ -10311,7 +10390,7 @@
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
       <c r="J459" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K459" s="1"/>
       <c r="L459" s="1"/>
@@ -10338,13 +10417,13 @@
     </row>
     <row r="461" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B461" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E461" s="9" t="n">
         <v>45692</v>
@@ -10358,7 +10437,7 @@
       <c r="H461" s="9"/>
       <c r="I461" s="9"/>
       <c r="J461" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="K461" s="7" t="s">
         <v>42</v>
@@ -10394,13 +10473,13 @@
     </row>
     <row r="463" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B463" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C463" s="15" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D463" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E463" s="16" t="s">
         <v>90</v>
@@ -10414,7 +10493,7 @@
       <c r="H463" s="16"/>
       <c r="I463" s="16"/>
       <c r="J463" s="15" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="K463" s="15" t="s">
         <v>42</v>
@@ -10422,13 +10501,13 @@
     </row>
     <row r="464" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B464" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D464" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E464" s="9" t="s">
         <v>90</v>
@@ -10442,7 +10521,7 @@
       <c r="H464" s="9"/>
       <c r="I464" s="9"/>
       <c r="J464" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="K464" s="7" t="s">
         <v>42</v>
@@ -10470,7 +10549,7 @@
       <c r="H465" s="9"/>
       <c r="I465" s="9"/>
       <c r="J465" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K465" s="7" t="s">
         <v>42</v>
@@ -10498,7 +10577,7 @@
       <c r="H466" s="9"/>
       <c r="I466" s="9"/>
       <c r="J466" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="K466" s="7" t="s">
         <v>42</v>
@@ -10554,7 +10633,7 @@
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
       <c r="J468" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K468" s="7" t="s">
         <v>42</v>
@@ -10582,16 +10661,16 @@
         <v>13</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D470" s="15" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E470" s="16" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F470" s="16" t="s">
         <v>40</v>
@@ -10602,7 +10681,7 @@
       <c r="H470" s="16"/>
       <c r="I470" s="16"/>
       <c r="J470" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K470" s="15" t="s">
         <v>42</v>
@@ -10778,7 +10857,7 @@
       <c r="H518" s="2"/>
       <c r="I518" s="2"/>
       <c r="J518" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K518" s="1"/>
       <c r="L518" s="1"/>
@@ -10797,7 +10876,7 @@
       <c r="H519" s="2"/>
       <c r="I519" s="2"/>
       <c r="J519" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K519" s="1"/>
       <c r="L519" s="1"/>
@@ -10816,7 +10895,7 @@
       <c r="H520" s="2"/>
       <c r="I520" s="2"/>
       <c r="J520" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
@@ -10852,7 +10931,7 @@
       <c r="H522" s="2"/>
       <c r="I522" s="2"/>
       <c r="J522" s="1" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K522" s="1"/>
       <c r="L522" s="1"/>
@@ -10871,7 +10950,7 @@
       <c r="H523" s="2"/>
       <c r="I523" s="2"/>
       <c r="J523" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K523" s="1"/>
       <c r="L523" s="1"/>
@@ -10890,7 +10969,7 @@
       <c r="H524" s="2"/>
       <c r="I524" s="2"/>
       <c r="J524" s="1" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="K524" s="1"/>
       <c r="L524" s="1"/>
@@ -10909,7 +10988,7 @@
       <c r="H525" s="2"/>
       <c r="I525" s="2"/>
       <c r="J525" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K525" s="1"/>
       <c r="L525" s="1"/>
@@ -10964,13 +11043,13 @@
     </row>
     <row r="528" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B528" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C528" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D528" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E528" s="9" t="s">
         <v>90</v>
@@ -10984,7 +11063,7 @@
       <c r="H528" s="9"/>
       <c r="I528" s="9"/>
       <c r="J528" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K528" s="7" t="s">
         <v>42</v>
@@ -11048,13 +11127,13 @@
     </row>
     <row r="531" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B531" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="C531" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="D531" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E531" s="9" t="s">
         <v>240</v>
@@ -11068,7 +11147,7 @@
       <c r="H531" s="9"/>
       <c r="I531" s="9"/>
       <c r="J531" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="K531" s="7" t="s">
         <v>65</v>
@@ -11076,16 +11155,16 @@
     </row>
     <row r="532" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B532" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C532" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D532" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
+      </c>
+      <c r="D532" s="19" t="s">
+        <v>407</v>
       </c>
       <c r="E532" s="9" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F532" s="9" t="s">
         <v>212</v>
@@ -11096,7 +11175,7 @@
       <c r="H532" s="9"/>
       <c r="I532" s="9"/>
       <c r="J532" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K532" s="7" t="s">
         <v>75</v>
@@ -11109,8 +11188,8 @@
       <c r="C533" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D533" s="18" t="s">
-        <v>403</v>
+      <c r="D533" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="E533" s="9" t="s">
         <v>159</v>
@@ -11138,16 +11217,16 @@
     </row>
     <row r="534" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B534" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C534" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D534" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E534" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F534" s="9" t="s">
         <v>236</v>
@@ -11158,7 +11237,7 @@
       <c r="H534" s="9"/>
       <c r="I534" s="9"/>
       <c r="J534" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K534" s="7" t="s">
         <v>65</v>
@@ -11166,16 +11245,16 @@
     </row>
     <row r="535" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B535" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C535" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D535" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E535" s="9" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F535" s="9" t="s">
         <v>236</v>
@@ -11186,21 +11265,21 @@
       <c r="H535" s="9"/>
       <c r="I535" s="9"/>
       <c r="J535" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K535" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
     </row>
     <row r="536" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B536" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C536" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D536" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E536" s="9" t="n">
         <v>45692</v>
@@ -11214,7 +11293,7 @@
       <c r="H536" s="9"/>
       <c r="I536" s="9"/>
       <c r="J536" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="K536" s="7" t="s">
         <v>42</v>
@@ -11244,16 +11323,16 @@
     </row>
     <row r="539" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B539" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C539" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D539" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E539" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F539" s="9" t="s">
         <v>40</v>
@@ -11264,7 +11343,7 @@
       <c r="H539" s="9"/>
       <c r="I539" s="9"/>
       <c r="J539" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K539" s="7" t="s">
         <v>42</v>
@@ -11300,13 +11379,13 @@
     </row>
     <row r="541" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B541" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D541" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E541" s="9" t="s">
         <v>52</v>
@@ -11320,7 +11399,7 @@
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
       <c r="J541" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K541" s="7" t="s">
         <v>42</v>
@@ -11395,10 +11474,10 @@
         <v>5</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>266</v>
@@ -11413,7 +11492,7 @@
         <v>10</v>
       </c>
       <c r="J545" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="K545" s="1" t="s">
         <v>42</v>
@@ -11466,7 +11545,7 @@
       <c r="H548" s="2"/>
       <c r="I548" s="2"/>
       <c r="J548" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K548" s="1"/>
       <c r="L548" s="1"/>
@@ -11485,7 +11564,7 @@
       <c r="H549" s="2"/>
       <c r="I549" s="2"/>
       <c r="J549" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K549" s="1"/>
       <c r="L549" s="1"/>
@@ -11504,7 +11583,7 @@
       <c r="H550" s="2"/>
       <c r="I550" s="2"/>
       <c r="J550" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K550" s="1"/>
       <c r="L550" s="1"/>
@@ -11531,13 +11610,13 @@
     </row>
     <row r="552" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B552" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D552" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E552" s="9" t="n">
         <v>45692</v>
@@ -11551,7 +11630,7 @@
       <c r="H552" s="9"/>
       <c r="I552" s="9"/>
       <c r="J552" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K552" s="7" t="s">
         <v>42</v>
@@ -11587,13 +11666,13 @@
     </row>
     <row r="554" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B554" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D554" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E554" s="9" t="s">
         <v>90</v>
@@ -11607,7 +11686,7 @@
       <c r="H554" s="9"/>
       <c r="I554" s="9"/>
       <c r="J554" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K554" s="7" t="s">
         <v>42</v>
@@ -11641,26 +11720,33 @@
         <v>42</v>
       </c>
     </row>
-    <row r="556" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A556" s="1"/>
-      <c r="B556" s="1"/>
-      <c r="C556" s="1"/>
-      <c r="D556" s="1"/>
-      <c r="E556" s="2"/>
-      <c r="F556" s="2"/>
-      <c r="G556" s="2"/>
-      <c r="H556" s="2"/>
-      <c r="I556" s="2"/>
-      <c r="J556" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K556" s="1" t="s">
+    <row r="556" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B556" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C556" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D556" s="17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E556" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="F556" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G556" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H556" s="16"/>
+      <c r="I556" s="16"/>
+      <c r="J556" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="K556" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="L556" s="1"/>
-      <c r="M556" s="1"/>
-      <c r="N556" s="1"/>
-      <c r="O556" s="1"/>
     </row>
     <row r="557" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B557" s="7" t="s">
@@ -11684,7 +11770,7 @@
       <c r="H557" s="9"/>
       <c r="I557" s="9"/>
       <c r="J557" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K557" s="7" t="s">
         <v>42</v>
@@ -11868,7 +11954,7 @@
       <c r="H566" s="2"/>
       <c r="I566" s="2"/>
       <c r="J566" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K566" s="1"/>
       <c r="L566" s="1"/>
@@ -11887,7 +11973,7 @@
       <c r="H567" s="2"/>
       <c r="I567" s="2"/>
       <c r="J567" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K567" s="1"/>
       <c r="L567" s="1"/>
@@ -11906,7 +11992,7 @@
       <c r="H568" s="2"/>
       <c r="I568" s="2"/>
       <c r="J568" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K568" s="1"/>
       <c r="L568" s="1"/>
@@ -11942,7 +12028,7 @@
       <c r="H570" s="2"/>
       <c r="I570" s="2"/>
       <c r="J570" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="K570" s="1"/>
       <c r="L570" s="1"/>
@@ -11961,7 +12047,7 @@
       <c r="H571" s="2"/>
       <c r="I571" s="2"/>
       <c r="J571" s="1" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K571" s="1"/>
       <c r="L571" s="1"/>
@@ -11980,7 +12066,7 @@
       <c r="H572" s="2"/>
       <c r="I572" s="2"/>
       <c r="J572" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="K572" s="1"/>
       <c r="L572" s="1"/>
@@ -11999,7 +12085,7 @@
       <c r="H573" s="2"/>
       <c r="I573" s="2"/>
       <c r="J573" s="1" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="K573" s="1"/>
       <c r="L573" s="1"/>
@@ -12026,16 +12112,16 @@
     </row>
     <row r="575" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B575" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C575" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D575" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E575" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F575" s="9" t="s">
         <v>236</v>
@@ -12046,7 +12132,7 @@
       <c r="H575" s="9"/>
       <c r="I575" s="9"/>
       <c r="J575" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="K575" s="7" t="s">
         <v>42</v>
@@ -12088,8 +12174,8 @@
       <c r="C577" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D577" s="18" t="s">
-        <v>403</v>
+      <c r="D577" s="19" t="s">
+        <v>410</v>
       </c>
       <c r="E577" s="9" t="s">
         <v>159</v>
@@ -12135,13 +12221,13 @@
         <v>13</v>
       </c>
       <c r="B579" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C579" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D579" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E579" s="9" t="s">
         <v>52</v>
@@ -12155,7 +12241,7 @@
       <c r="H579" s="9"/>
       <c r="I579" s="9"/>
       <c r="J579" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K579" s="7" t="s">
         <v>42</v>
@@ -12215,17 +12301,17 @@
     </row>
     <row r="584" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J584" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J585" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J586" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -12282,7 +12368,7 @@
         <v>155</v>
       </c>
       <c r="K589" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="590" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12335,7 +12421,7 @@
       <c r="H591" s="16"/>
       <c r="I591" s="16"/>
       <c r="J591" s="15" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K591" s="15" t="s">
         <v>65</v>
@@ -12363,7 +12449,7 @@
       <c r="H592" s="9"/>
       <c r="I592" s="9"/>
       <c r="J592" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K592" s="7" t="s">
         <v>42</v>
@@ -12371,10 +12457,10 @@
     </row>
     <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B593" s="1" t="s">
-        <v>412</v>
+        <v>299</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>413</v>
+        <v>300</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>266</v>
@@ -12389,7 +12475,7 @@
         <v>10</v>
       </c>
       <c r="J593" s="1" t="s">
-        <v>414</v>
+        <v>301</v>
       </c>
       <c r="K593" s="1" t="s">
         <v>42</v>
@@ -12417,7 +12503,7 @@
       <c r="H594" s="9"/>
       <c r="I594" s="9"/>
       <c r="J594" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="K594" s="7" t="s">
         <v>42</v>
@@ -12445,7 +12531,7 @@
       <c r="H595" s="16"/>
       <c r="I595" s="16"/>
       <c r="J595" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K595" s="15" t="s">
         <v>42</v>
@@ -12453,13 +12539,13 @@
     </row>
     <row r="596" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B596" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C596" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D596" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E596" s="9" t="s">
         <v>90</v>
@@ -12473,7 +12559,7 @@
       <c r="H596" s="9"/>
       <c r="I596" s="9"/>
       <c r="J596" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K596" s="7" t="s">
         <v>42</v>
@@ -12481,7 +12567,7 @@
     </row>
     <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J597" s="1" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="K597" s="1" t="s">
         <v>65</v>
@@ -12489,7 +12575,7 @@
     </row>
     <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J598" s="1" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="K598" s="1" t="s">
         <v>65</v>
@@ -12497,7 +12583,7 @@
     </row>
     <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J599" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="K599" s="1" t="s">
         <v>65</v>
@@ -12505,7 +12591,7 @@
     </row>
     <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J600" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K600" s="1" t="s">
         <v>65</v>
@@ -12517,13 +12603,13 @@
         <v>5</v>
       </c>
       <c r="B602" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D602" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E602" s="16" t="s">
         <v>90</v>
@@ -12535,7 +12621,7 @@
         <v>10</v>
       </c>
       <c r="J602" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K602" s="1" t="s">
         <v>42</v>
@@ -12584,13 +12670,13 @@
         <v>5</v>
       </c>
       <c r="B609" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D609" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E609" s="16" t="s">
         <v>90</v>
@@ -12602,7 +12688,7 @@
         <v>10</v>
       </c>
       <c r="J609" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K609" s="1" t="s">
         <v>42</v>
@@ -12616,29 +12702,29 @@
     </row>
     <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J612" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J613" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J614" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="616" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B616" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C616" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D616" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E616" s="9" t="n">
         <v>45692</v>
@@ -12652,7 +12738,7 @@
       <c r="H616" s="9"/>
       <c r="I616" s="9"/>
       <c r="J616" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K616" s="7" t="s">
         <v>42</v>
@@ -12661,16 +12747,16 @@
     <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="618" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B618" s="15" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C618" s="15" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D618" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E618" s="16" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="F618" s="16" t="s">
         <v>154</v>
@@ -12681,7 +12767,7 @@
       <c r="H618" s="16"/>
       <c r="I618" s="16"/>
       <c r="J618" s="15" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K618" s="15" t="s">
         <v>42</v>
@@ -12717,13 +12803,13 @@
     </row>
     <row r="620" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B620" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C620" s="15" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D620" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E620" s="16" t="s">
         <v>90</v>
@@ -12737,7 +12823,7 @@
       <c r="H620" s="16"/>
       <c r="I620" s="16"/>
       <c r="J620" s="15" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="K620" s="15" t="s">
         <v>42</v>
@@ -12793,7 +12879,7 @@
       <c r="H622" s="9"/>
       <c r="I622" s="9"/>
       <c r="J622" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K622" s="7" t="s">
         <v>42</v>
@@ -12855,16 +12941,16 @@
     </row>
     <row r="625" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B625" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C625" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D625" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E625" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F625" s="9" t="s">
         <v>40</v>
@@ -12875,7 +12961,7 @@
       <c r="H625" s="9"/>
       <c r="I625" s="9"/>
       <c r="J625" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K625" s="7" t="s">
         <v>42</v>
@@ -12912,12 +12998,12 @@
     <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J628" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J629" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K629" s="1" t="s">
         <v>134</v>
@@ -12955,21 +13041,21 @@
     <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J633" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="634" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B634" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D634" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E634" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F634" s="9" t="s">
         <v>236</v>
@@ -12980,7 +13066,7 @@
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
       <c r="J634" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K634" s="7" t="s">
         <v>65</v>
@@ -12989,17 +13075,17 @@
     <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J636" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J637" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J638" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K638" s="1" t="s">
         <v>75</v>
@@ -13007,7 +13093,7 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J639" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K639" s="1" t="s">
         <v>75</v>
@@ -13016,12 +13102,12 @@
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J641" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J642" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K642" s="1" t="s">
         <v>42</v>
@@ -13030,12 +13116,12 @@
     <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J644" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J645" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="K645" s="1" t="s">
         <v>42</v>
@@ -13240,7 +13326,7 @@
         <v>2</v>
       </c>
       <c r="D658" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E658" s="4"/>
       <c r="F658" s="4" t="s">
@@ -13250,7 +13336,7 @@
       <c r="H658" s="4"/>
       <c r="I658" s="4"/>
       <c r="J658" s="3" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13330,21 +13416,21 @@
       <c r="H663" s="9"/>
       <c r="I663" s="9"/>
       <c r="J663" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
     </row>
     <row r="664" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B664" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D664" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E664" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F664" s="9" t="s">
         <v>40</v>
@@ -13355,7 +13441,7 @@
       <c r="H664" s="9"/>
       <c r="I664" s="9"/>
       <c r="J664" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13548,14 +13634,14 @@
     </row>
     <row r="677" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B677" s="3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="D677" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E677" s="4"/>
       <c r="F677" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G677" s="4"/>
       <c r="H677" s="4"/>
@@ -13583,16 +13669,16 @@
         <v>5</v>
       </c>
       <c r="B679" s="15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C679" s="15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D679" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E679" s="16" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F679" s="16" t="s">
         <v>154</v>
@@ -13605,7 +13691,7 @@
       </c>
       <c r="I679" s="16"/>
       <c r="J679" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K679" s="15" t="s">
         <v>42</v>
@@ -13658,7 +13744,7 @@
       <c r="H682" s="2"/>
       <c r="I682" s="2"/>
       <c r="J682" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K682" s="1"/>
       <c r="L682" s="1"/>
@@ -13677,7 +13763,7 @@
       <c r="H683" s="2"/>
       <c r="I683" s="2"/>
       <c r="J683" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K683" s="1"/>
       <c r="L683" s="1"/>
@@ -13696,7 +13782,7 @@
       <c r="H684" s="2"/>
       <c r="I684" s="2"/>
       <c r="J684" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K684" s="1"/>
       <c r="L684" s="1"/>
@@ -13777,7 +13863,7 @@
       <c r="H687" s="2"/>
       <c r="I687" s="2"/>
       <c r="J687" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K687" s="1" t="s">
         <v>42</v>
@@ -14058,14 +14144,14 @@
     </row>
     <row r="703" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B703" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="D703" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E703" s="4"/>
       <c r="F703" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G703" s="4"/>
       <c r="H703" s="4"/>
@@ -14355,16 +14441,16 @@
     </row>
     <row r="715" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B715" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="C715" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="D715" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="E715" s="9" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="F715" s="9" t="s">
         <v>154</v>
@@ -14375,7 +14461,7 @@
       <c r="H715" s="9"/>
       <c r="I715" s="9"/>
       <c r="J715" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="K715" s="7" t="s">
         <v>42</v>
@@ -14383,13 +14469,13 @@
     </row>
     <row r="716" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B716" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C716" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D716" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E716" s="9" t="n">
         <v>45692</v>
@@ -14403,7 +14489,7 @@
       <c r="H716" s="9"/>
       <c r="I716" s="9"/>
       <c r="J716" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K716" s="7" t="s">
         <v>42</v>
@@ -14445,16 +14531,16 @@
     </row>
     <row r="718" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B718" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="C718" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D718" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="E718" s="9" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F718" s="9" t="s">
         <v>236</v>
@@ -14465,7 +14551,7 @@
       <c r="H718" s="9"/>
       <c r="I718" s="9"/>
       <c r="J718" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K718" s="7" t="s">
         <v>75</v>
@@ -14473,16 +14559,16 @@
     </row>
     <row r="719" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B719" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C719" s="7" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D719" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E719" s="9" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="F719" s="9" t="s">
         <v>236</v>
@@ -14493,7 +14579,7 @@
       <c r="H719" s="9"/>
       <c r="I719" s="9"/>
       <c r="J719" s="7" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="K719" s="7" t="s">
         <v>65</v>
@@ -14501,16 +14587,16 @@
     </row>
     <row r="720" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B720" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C720" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D720" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="E720" s="9" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="F720" s="9" t="s">
         <v>154</v>
@@ -14521,7 +14607,7 @@
       <c r="H720" s="9"/>
       <c r="I720" s="9"/>
       <c r="J720" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="K720" s="7" t="s">
         <v>42</v>
@@ -14549,7 +14635,7 @@
       <c r="H721" s="9"/>
       <c r="I721" s="9"/>
       <c r="J721" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="K721" s="7" t="s">
         <v>128</v>
@@ -14601,16 +14687,16 @@
     </row>
     <row r="725" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B725" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C725" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D725" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E725" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F725" s="9" t="s">
         <v>40</v>
@@ -14621,7 +14707,7 @@
       <c r="H725" s="9"/>
       <c r="I725" s="9"/>
       <c r="J725" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K725" s="7" t="s">
         <v>42</v>
@@ -14668,16 +14754,16 @@
         <v>5</v>
       </c>
       <c r="B728" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C728" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D728" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E728" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F728" s="9" t="s">
         <v>40</v>
@@ -14690,7 +14776,7 @@
       </c>
       <c r="I728" s="9"/>
       <c r="J728" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K728" s="7" t="s">
         <v>42</v>
@@ -14743,7 +14829,7 @@
       <c r="H731" s="2"/>
       <c r="I731" s="2"/>
       <c r="J731" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K731" s="1"/>
       <c r="L731" s="1"/>
@@ -14762,7 +14848,7 @@
       <c r="H732" s="2"/>
       <c r="I732" s="2"/>
       <c r="J732" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="K732" s="1"/>
       <c r="L732" s="1"/>
@@ -14781,7 +14867,7 @@
       <c r="H733" s="2"/>
       <c r="I733" s="2"/>
       <c r="J733" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="K733" s="1"/>
       <c r="L733" s="1"/>
@@ -14808,13 +14894,13 @@
     </row>
     <row r="735" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B735" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C735" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D735" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E735" s="9" t="n">
         <v>45692</v>
@@ -14828,7 +14914,7 @@
       <c r="H735" s="9"/>
       <c r="I735" s="9"/>
       <c r="J735" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K735" s="7" t="s">
         <v>42</v>
@@ -14873,7 +14959,7 @@
       <c r="H737" s="9"/>
       <c r="I737" s="9"/>
       <c r="J737" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="K737" s="7" t="s">
         <v>42</v>
@@ -14901,7 +14987,7 @@
       <c r="H738" s="9"/>
       <c r="I738" s="9"/>
       <c r="J738" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="K738" s="7" t="s">
         <v>42</v>
@@ -14929,7 +15015,7 @@
       <c r="H739" s="9"/>
       <c r="I739" s="9"/>
       <c r="J739" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K739" s="7" t="s">
         <v>42</v>
@@ -14937,13 +15023,13 @@
     </row>
     <row r="740" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B740" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C740" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D740" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E740" s="9" t="s">
         <v>90</v>
@@ -14957,7 +15043,7 @@
       <c r="H740" s="9"/>
       <c r="I740" s="9"/>
       <c r="J740" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K740" s="7" t="s">
         <v>42</v>
@@ -14993,16 +15079,16 @@
     </row>
     <row r="742" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C742" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D742" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E742" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F742" s="9" t="s">
         <v>236</v>
@@ -15013,7 +15099,7 @@
       <c r="H742" s="9"/>
       <c r="I742" s="9"/>
       <c r="J742" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K742" s="7" t="s">
         <v>42</v>
@@ -15021,16 +15107,16 @@
     </row>
     <row r="743" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B743" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C743" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D743" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E743" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F743" s="9" t="s">
         <v>40</v>
@@ -15041,7 +15127,7 @@
       <c r="H743" s="9"/>
       <c r="I743" s="9"/>
       <c r="J743" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K743" s="7" t="s">
         <v>42</v>
@@ -15093,13 +15179,13 @@
     </row>
     <row r="747" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B747" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C747" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D747" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E747" s="9" t="s">
         <v>52</v>
@@ -15113,7 +15199,7 @@
       <c r="H747" s="9"/>
       <c r="I747" s="9"/>
       <c r="J747" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K747" s="7" t="s">
         <v>42</v>
@@ -15228,16 +15314,16 @@
         <v>5</v>
       </c>
       <c r="B754" s="15" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C754" s="15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D754" s="15" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E754" s="16" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F754" s="16" t="s">
         <v>40</v>
@@ -15250,7 +15336,7 @@
       </c>
       <c r="I754" s="16"/>
       <c r="J754" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K754" s="15" t="s">
         <v>42</v>
@@ -15303,7 +15389,7 @@
       <c r="H757" s="2"/>
       <c r="I757" s="2"/>
       <c r="J757" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K757" s="1"/>
       <c r="L757" s="1"/>
@@ -15322,7 +15408,7 @@
       <c r="H758" s="2"/>
       <c r="I758" s="2"/>
       <c r="J758" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K758" s="1"/>
       <c r="L758" s="1"/>
@@ -15341,7 +15427,7 @@
       <c r="H759" s="2"/>
       <c r="I759" s="2"/>
       <c r="J759" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K759" s="1"/>
       <c r="L759" s="1"/>
@@ -15388,7 +15474,7 @@
       <c r="H761" s="9"/>
       <c r="I761" s="9"/>
       <c r="J761" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="K761" s="7" t="s">
         <v>75</v>
@@ -15416,7 +15502,7 @@
       <c r="H762" s="9"/>
       <c r="I762" s="9"/>
       <c r="J762" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K762" s="7" t="s">
         <v>42</v>
@@ -15424,13 +15510,13 @@
     </row>
     <row r="763" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B763" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C763" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D763" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E763" s="9" t="s">
         <v>90</v>
@@ -15444,7 +15530,7 @@
       <c r="H763" s="9"/>
       <c r="I763" s="9"/>
       <c r="J763" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="K763" s="7" t="s">
         <v>42</v>
@@ -15500,7 +15586,7 @@
       <c r="H765" s="9"/>
       <c r="I765" s="9"/>
       <c r="J765" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="K765" s="7" t="s">
         <v>42</v>
@@ -15528,7 +15614,7 @@
       <c r="H766" s="9"/>
       <c r="I766" s="9"/>
       <c r="J766" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K766" s="7" t="s">
         <v>42</v>
@@ -15832,7 +15918,7 @@
       <c r="H782" s="2"/>
       <c r="I782" s="2"/>
       <c r="J782" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K782" s="1"/>
       <c r="L782" s="1"/>
@@ -15851,7 +15937,7 @@
       <c r="H783" s="2"/>
       <c r="I783" s="2"/>
       <c r="J783" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K783" s="1"/>
       <c r="L783" s="1"/>
@@ -15870,7 +15956,7 @@
       <c r="H784" s="2"/>
       <c r="I784" s="2"/>
       <c r="J784" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K784" s="1"/>
       <c r="L784" s="1"/>
@@ -15917,7 +16003,7 @@
       <c r="H786" s="9"/>
       <c r="I786" s="9"/>
       <c r="J786" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K786" s="7" t="s">
         <v>42</v>
@@ -15925,16 +16011,16 @@
     </row>
     <row r="787" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="15" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C787" s="15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D787" s="15" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E787" s="16" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F787" s="16" t="s">
         <v>40</v>
@@ -15945,7 +16031,7 @@
       <c r="H787" s="16"/>
       <c r="I787" s="16"/>
       <c r="J787" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K787" s="15" t="s">
         <v>42</v>
@@ -15981,13 +16067,13 @@
     </row>
     <row r="789" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C789" s="15" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D789" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E789" s="16" t="s">
         <v>90</v>
@@ -16001,7 +16087,7 @@
       <c r="H789" s="16"/>
       <c r="I789" s="16"/>
       <c r="J789" s="15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="K789" s="15" t="s">
         <v>42</v>
@@ -16009,13 +16095,13 @@
     </row>
     <row r="790" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B790" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C790" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D790" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E790" s="9" t="s">
         <v>90</v>
@@ -16029,7 +16115,7 @@
       <c r="H790" s="9"/>
       <c r="I790" s="9"/>
       <c r="J790" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K790" s="7" t="s">
         <v>42</v>
@@ -16057,7 +16143,7 @@
       <c r="H791" s="16"/>
       <c r="I791" s="16"/>
       <c r="J791" s="15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K791" s="15" t="s">
         <v>42</v>
@@ -16121,13 +16207,13 @@
     </row>
     <row r="794" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B794" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C794" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D794" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E794" s="9" t="n">
         <v>45692</v>
@@ -16141,7 +16227,7 @@
       <c r="H794" s="9"/>
       <c r="I794" s="9"/>
       <c r="J794" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K794" s="7" t="s">
         <v>42</v>
@@ -16149,16 +16235,16 @@
     </row>
     <row r="795" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B795" s="15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C795" s="15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D795" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E795" s="16" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F795" s="16" t="s">
         <v>154</v>
@@ -16169,7 +16255,7 @@
       <c r="H795" s="16"/>
       <c r="I795" s="16"/>
       <c r="J795" s="15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K795" s="15" t="s">
         <v>42</v>
@@ -16205,13 +16291,13 @@
     </row>
     <row r="797" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B797" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C797" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D797" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E797" s="9" t="s">
         <v>52</v>
@@ -16225,7 +16311,7 @@
       <c r="H797" s="9"/>
       <c r="I797" s="9"/>
       <c r="J797" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K797" s="7" t="s">
         <v>42</v>
@@ -16233,16 +16319,16 @@
     </row>
     <row r="798" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B798" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C798" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D798" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E798" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F798" s="9" t="s">
         <v>236</v>
@@ -16253,7 +16339,7 @@
       <c r="H798" s="9"/>
       <c r="I798" s="9"/>
       <c r="J798" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K798" s="7" t="s">
         <v>42</v>
@@ -16395,7 +16481,7 @@
       <c r="N805" s="1"/>
       <c r="O805" s="1"/>
     </row>
-    <row r="806" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="806" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="10"/>
       <c r="B806" s="10"/>
       <c r="C806" s="10"/>
@@ -16492,7 +16578,7 @@
       <c r="H810" s="2"/>
       <c r="I810" s="2"/>
       <c r="J810" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K810" s="1"/>
       <c r="L810" s="1"/>
@@ -16511,7 +16597,7 @@
       <c r="H811" s="2"/>
       <c r="I811" s="2"/>
       <c r="J811" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K811" s="1"/>
       <c r="L811" s="1"/>
@@ -16530,7 +16616,7 @@
       <c r="H812" s="2"/>
       <c r="I812" s="2"/>
       <c r="J812" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K812" s="1"/>
       <c r="L812" s="1"/>
@@ -16557,13 +16643,13 @@
     </row>
     <row r="814" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B814" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C814" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D814" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E814" s="9" t="n">
         <v>45692</v>
@@ -16577,7 +16663,7 @@
       <c r="H814" s="9"/>
       <c r="I814" s="9"/>
       <c r="J814" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="K814" s="7" t="s">
         <v>42</v>
@@ -16633,7 +16719,7 @@
       <c r="H816" s="9"/>
       <c r="I816" s="9"/>
       <c r="J816" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="K816" s="7" t="s">
         <v>42</v>
@@ -16641,13 +16727,13 @@
     </row>
     <row r="817" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B817" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C817" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D817" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E817" s="9" t="s">
         <v>90</v>
@@ -16661,7 +16747,7 @@
       <c r="H817" s="9"/>
       <c r="I817" s="9"/>
       <c r="J817" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K817" s="7" t="s">
         <v>42</v>
@@ -16689,7 +16775,7 @@
       <c r="H818" s="9"/>
       <c r="I818" s="9"/>
       <c r="J818" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K818" s="7" t="s">
         <v>42</v>
@@ -16697,16 +16783,16 @@
     </row>
     <row r="819" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B819" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C819" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D819" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E819" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F819" s="9" t="s">
         <v>236</v>
@@ -16717,7 +16803,7 @@
       <c r="H819" s="9"/>
       <c r="I819" s="9"/>
       <c r="J819" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="K819" s="7" t="s">
         <v>42</v>
@@ -16725,16 +16811,16 @@
     </row>
     <row r="820" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B820" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C820" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D820" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E820" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F820" s="9" t="s">
         <v>40</v>
@@ -16745,7 +16831,7 @@
       <c r="H820" s="9"/>
       <c r="I820" s="9"/>
       <c r="J820" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K820" s="7" t="s">
         <v>42</v>
@@ -16793,7 +16879,7 @@
       <c r="H822" s="9"/>
       <c r="I822" s="9"/>
     </row>
-    <row r="823" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="823" s="20" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="10"/>
       <c r="B823" s="10"/>
       <c r="C823" s="10"/>
@@ -16815,13 +16901,13 @@
         <v>5</v>
       </c>
       <c r="B824" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C824" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D824" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E824" s="9" t="s">
         <v>52</v>
@@ -16837,7 +16923,7 @@
       </c>
       <c r="I824" s="9"/>
       <c r="J824" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K824" s="7" t="s">
         <v>42</v>
@@ -16890,7 +16976,7 @@
       <c r="H827" s="2"/>
       <c r="I827" s="2"/>
       <c r="J827" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="K827" s="1"/>
       <c r="L827" s="1"/>
@@ -16898,25 +16984,25 @@
       <c r="N827" s="1"/>
       <c r="O827" s="1"/>
       <c r="R827" s="13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="S827" s="13" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="T827" s="13" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="U827" s="13" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="V827" s="13" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="W827" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="X827" s="13" t="s">
         <v>477</v>
-      </c>
-      <c r="X827" s="13" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="828" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16930,7 +17016,7 @@
       <c r="H828" s="2"/>
       <c r="I828" s="2"/>
       <c r="J828" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="K828" s="1"/>
       <c r="L828" s="1"/>
@@ -16938,31 +17024,31 @@
       <c r="N828" s="1"/>
       <c r="O828" s="1"/>
       <c r="R828" s="13" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="S828" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T828" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="U828" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="V828" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="W828" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="U828" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="V828" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="W828" s="13" t="s">
-        <v>476</v>
-      </c>
       <c r="X828" s="13" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Y828" s="13" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="Z828" s="13" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
     </row>
     <row r="829" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16976,7 +17062,7 @@
       <c r="H829" s="2"/>
       <c r="I829" s="2"/>
       <c r="J829" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="K829" s="1"/>
       <c r="L829" s="1"/>
@@ -16984,33 +17070,33 @@
       <c r="N829" s="1"/>
       <c r="O829" s="1"/>
       <c r="R829" s="13" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="S829" s="13" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="T829" s="13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="U829" s="13" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="V829" s="13" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="W829" s="13" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="830" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B830" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C830" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D830" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E830" s="9" t="n">
         <v>45692</v>
@@ -17024,7 +17110,7 @@
       <c r="H830" s="9"/>
       <c r="I830" s="9"/>
       <c r="J830" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="K830" s="7" t="s">
         <v>42</v>
@@ -17097,7 +17183,7 @@
       <c r="H833" s="9"/>
       <c r="I833" s="9"/>
       <c r="J833" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="K833" s="7" t="s">
         <v>42</v>
@@ -17133,13 +17219,13 @@
     </row>
     <row r="835" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B835" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C835" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="D835" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E835" s="9" t="s">
         <v>90</v>
@@ -17153,7 +17239,7 @@
       <c r="H835" s="9"/>
       <c r="I835" s="9"/>
       <c r="J835" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K835" s="7" t="s">
         <v>42</v>
@@ -17217,16 +17303,16 @@
     </row>
     <row r="838" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B838" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C838" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D838" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E838" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F838" s="9" t="s">
         <v>236</v>
@@ -17237,7 +17323,7 @@
       <c r="H838" s="9"/>
       <c r="I838" s="9"/>
       <c r="J838" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="K838" s="7" t="s">
         <v>42</v>
@@ -17245,16 +17331,16 @@
     </row>
     <row r="839" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B839" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C839" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D839" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E839" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F839" s="9" t="s">
         <v>40</v>
@@ -17265,7 +17351,7 @@
       <c r="H839" s="9"/>
       <c r="I839" s="9"/>
       <c r="J839" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K839" s="7" t="s">
         <v>42</v>
@@ -17273,16 +17359,16 @@
     </row>
     <row r="840" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C840" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="D840" s="18" t="s">
-        <v>400</v>
+        <v>406</v>
+      </c>
+      <c r="D840" s="19" t="s">
+        <v>407</v>
       </c>
       <c r="E840" s="9" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F840" s="9" t="s">
         <v>212</v>
@@ -17293,7 +17379,7 @@
       <c r="H840" s="9"/>
       <c r="I840" s="9"/>
       <c r="J840" s="7" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="K840" s="7" t="s">
         <v>75</v>
@@ -17411,11 +17497,11 @@
     </row>
     <row r="847" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B847" s="3" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E847" s="4"/>
       <c r="F847" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G847" s="4"/>
       <c r="H847" s="4"/>
@@ -17472,28 +17558,28 @@
     </row>
     <row r="852" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J852" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J853" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J854" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="856" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B856" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D856" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E856" s="9" t="n">
         <v>45692</v>
@@ -17507,7 +17593,7 @@
       <c r="H856" s="9"/>
       <c r="I856" s="9"/>
       <c r="J856" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K856" s="7" t="s">
         <v>42</v>
@@ -17633,16 +17719,16 @@
     </row>
     <row r="862" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B862" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D862" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E862" s="9" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F862" s="9" t="s">
         <v>40</v>
@@ -17653,7 +17739,7 @@
       <c r="H862" s="9"/>
       <c r="I862" s="9"/>
       <c r="J862" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K862" s="7" t="s">
         <v>42</v>
@@ -17661,13 +17747,13 @@
     </row>
     <row r="863" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B863" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C863" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D863" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E863" s="9" t="s">
         <v>90</v>
@@ -17681,7 +17767,7 @@
       <c r="H863" s="9"/>
       <c r="I863" s="9"/>
       <c r="J863" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K863" s="7" t="s">
         <v>42</v>
@@ -17689,13 +17775,13 @@
     </row>
     <row r="864" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B864" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C864" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D864" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E864" s="9" t="s">
         <v>52</v>
@@ -17709,7 +17795,7 @@
       <c r="H864" s="9"/>
       <c r="I864" s="9"/>
       <c r="J864" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="K864" s="7" t="s">
         <v>42</v>
@@ -17745,16 +17831,16 @@
     </row>
     <row r="866" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B866" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="C866" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D866" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="E866" s="9" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="F866" s="9" t="s">
         <v>236</v>
@@ -17765,7 +17851,7 @@
       <c r="H866" s="9"/>
       <c r="I866" s="9"/>
       <c r="J866" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K866" s="7" t="s">
         <v>42</v>
@@ -17773,16 +17859,16 @@
     </row>
     <row r="867" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B867" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C867" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D867" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E867" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F867" s="9" t="s">
         <v>40</v>
@@ -17793,28 +17879,28 @@
       <c r="H867" s="9"/>
       <c r="I867" s="9"/>
       <c r="J867" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="K867" s="7" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A868" s="20"/>
-      <c r="B868" s="20"/>
-      <c r="C868" s="20"/>
-      <c r="D868" s="20"/>
-      <c r="E868" s="21"/>
-      <c r="F868" s="21"/>
-      <c r="G868" s="21"/>
-      <c r="H868" s="21"/>
-      <c r="I868" s="21"/>
-      <c r="J868" s="20"/>
-      <c r="K868" s="20"/>
-      <c r="L868" s="20"/>
-      <c r="M868" s="20"/>
-      <c r="N868" s="20"/>
-      <c r="O868" s="20"/>
+      <c r="A868" s="21"/>
+      <c r="B868" s="21"/>
+      <c r="C868" s="21"/>
+      <c r="D868" s="21"/>
+      <c r="E868" s="22"/>
+      <c r="F868" s="22"/>
+      <c r="G868" s="22"/>
+      <c r="H868" s="22"/>
+      <c r="I868" s="22"/>
+      <c r="J868" s="21"/>
+      <c r="K868" s="21"/>
+      <c r="L868" s="21"/>
+      <c r="M868" s="21"/>
+      <c r="N868" s="21"/>
+      <c r="O868" s="21"/>
       <c r="AA868" s="0"/>
       <c r="AB868" s="0"/>
       <c r="AC868" s="0"/>
@@ -34176,11 +34262,11 @@
     </row>
     <row r="870" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B870" s="3" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E870" s="4"/>
       <c r="F870" s="4" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G870" s="4"/>
       <c r="H870" s="4"/>
@@ -34233,43 +34319,43 @@
     </row>
     <row r="875" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J875" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J876" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J877" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J879" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J880" s="1" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J881" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="883" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B883" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="C883" s="7" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D883" s="7" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="E883" s="9" t="n">
         <v>45692</v>
@@ -34283,7 +34369,7 @@
       <c r="H883" s="9"/>
       <c r="I883" s="9"/>
       <c r="J883" s="7" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="K883" s="7" t="s">
         <v>42</v>
@@ -34431,16 +34517,16 @@
     </row>
     <row r="889" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B889" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="C889" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D889" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E889" s="9" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F889" s="9" t="s">
         <v>40</v>
@@ -34451,7 +34537,7 @@
       <c r="H889" s="9"/>
       <c r="I889" s="9"/>
       <c r="J889" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="K889" s="7" t="s">
         <v>42</v>
@@ -34459,13 +34545,13 @@
     </row>
     <row r="890" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B890" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="C890" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D890" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E890" s="9" t="s">
         <v>52</v>
@@ -34479,7 +34565,7 @@
       <c r="H890" s="9"/>
       <c r="I890" s="9"/>
       <c r="J890" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="K890" s="7" t="s">
         <v>42</v>
@@ -34571,16 +34657,16 @@
     </row>
     <row r="894" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B894" s="15" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="C894" s="15" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D894" s="15" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="E894" s="16" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F894" s="16" t="s">
         <v>40</v>
@@ -34591,7 +34677,7 @@
       <c r="H894" s="16"/>
       <c r="I894" s="16"/>
       <c r="J894" s="15" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="K894" s="15" t="s">
         <v>42</v>
@@ -34619,7 +34705,7 @@
       <c r="H895" s="9"/>
       <c r="I895" s="9"/>
       <c r="J895" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K895" s="7" t="s">
         <v>42</v>
@@ -34627,13 +34713,13 @@
     </row>
     <row r="896" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B896" s="15" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C896" s="15" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="D896" s="15" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="E896" s="16" t="s">
         <v>90</v>
@@ -34647,7 +34733,7 @@
       <c r="H896" s="16"/>
       <c r="I896" s="16"/>
       <c r="J896" s="15" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="K896" s="15" t="s">
         <v>42</v>
@@ -34655,13 +34741,13 @@
     </row>
     <row r="897" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B897" s="1" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="C897" s="1" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="D897" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E897" s="16" t="s">
         <v>90</v>
@@ -34673,7 +34759,7 @@
         <v>10</v>
       </c>
       <c r="J897" s="1" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="K897" s="1" t="s">
         <v>42</v>
@@ -34681,7 +34767,7 @@
     </row>
     <row r="898" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J898" s="1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K898" s="1" t="s">
         <v>42</v>
@@ -34689,13 +34775,13 @@
     </row>
     <row r="899" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B899" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="C899" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D899" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E899" s="9" t="s">
         <v>90</v>
@@ -34709,7 +34795,7 @@
       <c r="H899" s="9"/>
       <c r="I899" s="9"/>
       <c r="J899" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K899" s="7" t="s">
         <v>42</v>
@@ -34737,7 +34823,7 @@
       <c r="H900" s="16"/>
       <c r="I900" s="16"/>
       <c r="J900" s="15" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="K900" s="15" t="s">
         <v>42</v>
@@ -34745,7 +34831,7 @@
     </row>
     <row r="901" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J901" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K901" s="1" t="s">
         <v>42</v>
@@ -34753,7 +34839,7 @@
     </row>
     <row r="902" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J902" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="K902" s="1" t="s">
         <v>42</v>
@@ -34781,7 +34867,7 @@
       <c r="H903" s="9"/>
       <c r="I903" s="9"/>
       <c r="J903" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="K903" s="7" t="s">
         <v>42</v>
@@ -34789,7 +34875,7 @@
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J904" s="1" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="K904" s="1" t="s">
         <v>42</v>
@@ -34825,7 +34911,7 @@
     </row>
     <row r="906" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J906" s="1" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="K906" s="1" t="s">
         <v>75</v>
@@ -34833,7 +34919,7 @@
     </row>
     <row r="907" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J907" s="1" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="908" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -34858,7 +34944,7 @@
       <c r="H908" s="16"/>
       <c r="I908" s="16"/>
       <c r="J908" s="15" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K908" s="15" t="s">
         <v>65</v>
@@ -34886,7 +34972,7 @@
       <c r="H909" s="9"/>
       <c r="I909" s="9"/>
       <c r="J909" s="7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="K909" s="7" t="s">
         <v>75</v>
@@ -34894,7 +34980,7 @@
     </row>
     <row r="910" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J910" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K910" s="1" t="s">
         <v>65</v>
@@ -34902,16 +34988,16 @@
     </row>
     <row r="911" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B911" s="15" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="C911" s="15" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D911" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E911" s="16" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F911" s="16" t="s">
         <v>154</v>
@@ -34922,7 +35008,7 @@
       <c r="H911" s="16"/>
       <c r="I911" s="16"/>
       <c r="J911" s="15" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="K911" s="15" t="s">
         <v>42</v>
@@ -34930,16 +35016,16 @@
     </row>
     <row r="912" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B912" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="C912" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D912" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="E912" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F912" s="9" t="s">
         <v>236</v>
@@ -34950,7 +35036,7 @@
       <c r="H912" s="9"/>
       <c r="I912" s="9"/>
       <c r="J912" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="K912" s="7" t="s">
         <v>42</v>
@@ -34958,7 +35044,7 @@
     </row>
     <row r="913" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J913" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="K913" s="1" t="s">
         <v>42</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3992" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3993" uniqueCount="618">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -1180,7 +1180,7 @@
     <t xml:space="preserve"> typing-extensions&gt;=4</t>
   </si>
   <si>
-    <t xml:space="preserve">i4.1.35</t>
+    <t xml:space="preserve">i4.2.35</t>
   </si>
   <si>
     <t xml:space="preserve">oslo.db</t>
@@ -1634,9 +1634,6 @@
   </si>
   <si>
     <t xml:space="preserve">pbr&gt;=1.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i4.2.35</t>
   </si>
   <si>
     <t xml:space="preserve">i1.2.03</t>
@@ -2351,8 +2348,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A716" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A744" activeCellId="0" sqref="744:744"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A985" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1007" activeCellId="0" sqref="B1007"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7900,17 +7897,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B306" s="1" t="s">
+    <row r="306" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B306" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C306" s="1" t="s">
+      <c r="C306" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D306" s="1" t="s">
+      <c r="D306" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E306" s="2" t="s">
+      <c r="E306" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F306" s="16" t="s">
@@ -7919,10 +7916,12 @@
       <c r="G306" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J306" s="1" t="s">
+      <c r="H306" s="16"/>
+      <c r="I306" s="16"/>
+      <c r="J306" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="K306" s="1" t="s">
+      <c r="K306" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16337,20 +16336,20 @@
       <c r="N728" s="1"/>
       <c r="O728" s="1"/>
     </row>
-    <row r="729" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A729" s="1" t="s">
+    <row r="729" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A729" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B729" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C729" s="1" t="s">
+      <c r="B729" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C729" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D729" s="1" t="s">
+      <c r="D729" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E729" s="2" t="s">
+      <c r="E729" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F729" s="16" t="s">
@@ -16359,10 +16358,12 @@
       <c r="G729" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J729" s="1" t="s">
+      <c r="H729" s="16"/>
+      <c r="I729" s="16"/>
+      <c r="J729" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="K729" s="1" t="s">
+      <c r="K729" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16388,16 +16389,16 @@
         <v>5</v>
       </c>
       <c r="B731" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C731" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="C731" s="15" t="s">
+      <c r="D731" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D731" s="15" t="s">
+      <c r="E731" s="16" t="s">
         <v>541</v>
-      </c>
-      <c r="E731" s="16" t="s">
-        <v>542</v>
       </c>
       <c r="F731" s="16" t="s">
         <v>9</v>
@@ -16410,7 +16411,7 @@
       </c>
       <c r="I731" s="16"/>
       <c r="J731" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16439,7 +16440,7 @@
       <c r="H733" s="9"/>
       <c r="I733" s="9"/>
       <c r="J733" s="7" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16450,16 +16451,16 @@
     </row>
     <row r="736" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B736" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C736" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="C736" s="15" t="s">
+      <c r="D736" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D736" s="15" t="s">
+      <c r="E736" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="E736" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="F736" s="16" t="s">
         <v>9</v>
@@ -16470,7 +16471,7 @@
       <c r="H736" s="16"/>
       <c r="I736" s="16"/>
       <c r="J736" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="737" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16514,16 +16515,16 @@
         <v>5</v>
       </c>
       <c r="B739" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="C739" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="C739" s="15" t="s">
+      <c r="D739" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D739" s="15" t="s">
+      <c r="E739" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="E739" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="F739" s="16" t="s">
         <v>9</v>
@@ -16536,7 +16537,7 @@
       </c>
       <c r="I739" s="16"/>
       <c r="J739" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16547,16 +16548,16 @@
     </row>
     <row r="742" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="C742" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="C742" s="15" t="s">
+      <c r="D742" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="D742" s="15" t="s">
+      <c r="E742" s="16" t="s">
         <v>541</v>
-      </c>
-      <c r="E742" s="16" t="s">
-        <v>542</v>
       </c>
       <c r="F742" s="16" t="s">
         <v>9</v>
@@ -16567,7 +16568,7 @@
       <c r="H742" s="16"/>
       <c r="I742" s="16"/>
       <c r="J742" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16576,16 +16577,16 @@
         <v>13</v>
       </c>
       <c r="B744" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C744" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C744" s="15" t="s">
+      <c r="D744" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D744" s="15" t="s">
+      <c r="E744" s="16" t="s">
         <v>551</v>
-      </c>
-      <c r="E744" s="16" t="s">
-        <v>552</v>
       </c>
       <c r="F744" s="16" t="s">
         <v>9</v>
@@ -16596,7 +16597,7 @@
       <c r="H744" s="16"/>
       <c r="I744" s="16"/>
       <c r="J744" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K744" s="15" t="s">
         <v>536</v>
@@ -16624,16 +16625,16 @@
         <v>5</v>
       </c>
       <c r="B746" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C746" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="C746" s="15" t="s">
+      <c r="D746" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D746" s="15" t="s">
+      <c r="E746" s="16" t="s">
         <v>551</v>
-      </c>
-      <c r="E746" s="16" t="s">
-        <v>552</v>
       </c>
       <c r="F746" s="16" t="s">
         <v>9</v>
@@ -16646,7 +16647,7 @@
       </c>
       <c r="I746" s="16"/>
       <c r="J746" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K746" s="15" t="s">
         <v>536</v>
@@ -16710,21 +16711,21 @@
       <c r="H749" s="9"/>
       <c r="I749" s="9"/>
       <c r="J749" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="750" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C750" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="D750" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="D750" s="15" t="s">
+      <c r="E750" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="E750" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="F750" s="16" t="s">
         <v>9</v>
@@ -16735,7 +16736,7 @@
       <c r="H750" s="16"/>
       <c r="I750" s="16"/>
       <c r="J750" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="751" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16755,20 +16756,20 @@
       <c r="N751" s="1"/>
       <c r="O751" s="1"/>
     </row>
-    <row r="752" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A752" s="1" t="s">
+    <row r="752" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A752" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B752" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C752" s="1" t="s">
+      <c r="B752" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C752" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D752" s="1" t="s">
+      <c r="D752" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E752" s="2" t="s">
+      <c r="E752" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F752" s="16" t="s">
@@ -16777,10 +16778,12 @@
       <c r="G752" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J752" s="1" t="s">
+      <c r="H752" s="16"/>
+      <c r="I752" s="16"/>
+      <c r="J752" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="K752" s="1" t="s">
+      <c r="K752" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -16957,16 +16960,16 @@
         <v>5</v>
       </c>
       <c r="B763" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C763" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="C763" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="D763" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E763" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F763" s="16" t="s">
         <v>154</v>
@@ -16979,7 +16982,7 @@
       </c>
       <c r="I763" s="16"/>
       <c r="J763" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K763" s="15" t="s">
         <v>42</v>
@@ -17151,7 +17154,7 @@
       <c r="H771" s="2"/>
       <c r="I771" s="2"/>
       <c r="J771" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K771" s="1" t="s">
         <v>42</v>
@@ -17432,7 +17435,7 @@
     </row>
     <row r="787" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B787" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D787" s="3" t="s">
         <v>527</v>
@@ -17749,7 +17752,7 @@
       <c r="H799" s="9"/>
       <c r="I799" s="9"/>
       <c r="J799" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K799" s="7" t="s">
         <v>42</v>
@@ -17923,7 +17926,7 @@
       <c r="H805" s="9"/>
       <c r="I805" s="9"/>
       <c r="J805" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K805" s="7" t="s">
         <v>128</v>
@@ -18247,7 +18250,7 @@
       <c r="H821" s="9"/>
       <c r="I821" s="9"/>
       <c r="J821" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="K821" s="7" t="s">
         <v>42</v>
@@ -18275,7 +18278,7 @@
       <c r="H822" s="9"/>
       <c r="I822" s="9"/>
       <c r="J822" s="7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K822" s="7" t="s">
         <v>42</v>
@@ -18762,7 +18765,7 @@
       <c r="H845" s="9"/>
       <c r="I845" s="9"/>
       <c r="J845" s="7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K845" s="7" t="s">
         <v>75</v>
@@ -18790,7 +18793,7 @@
       <c r="H846" s="9"/>
       <c r="I846" s="9"/>
       <c r="J846" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K846" s="7" t="s">
         <v>42</v>
@@ -18818,7 +18821,7 @@
       <c r="H847" s="9"/>
       <c r="I847" s="9"/>
       <c r="J847" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K847" s="7" t="s">
         <v>42</v>
@@ -18874,7 +18877,7 @@
       <c r="H849" s="9"/>
       <c r="I849" s="9"/>
       <c r="J849" s="7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K849" s="7" t="s">
         <v>42</v>
@@ -18973,20 +18976,20 @@
       <c r="N853" s="10"/>
       <c r="O853" s="10"/>
     </row>
-    <row r="854" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A854" s="1" t="s">
+    <row r="854" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A854" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B854" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C854" s="1" t="s">
+      <c r="B854" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C854" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D854" s="1" t="s">
+      <c r="D854" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E854" s="2" t="s">
+      <c r="E854" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F854" s="16" t="s">
@@ -18995,10 +18998,14 @@
       <c r="G854" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J854" s="1" t="s">
+      <c r="H854" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="I854" s="16"/>
+      <c r="J854" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="K854" s="1" t="s">
+      <c r="K854" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -19319,7 +19326,7 @@
       <c r="H868" s="2"/>
       <c r="I868" s="2"/>
       <c r="J868" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K868" s="1"/>
       <c r="L868" s="1"/>
@@ -19338,7 +19345,7 @@
       <c r="H869" s="2"/>
       <c r="I869" s="2"/>
       <c r="J869" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K869" s="1"/>
       <c r="L869" s="1"/>
@@ -19346,77 +19353,67 @@
       <c r="N869" s="1"/>
       <c r="O869" s="1"/>
       <c r="T869" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="U869" s="13" t="s">
         <v>572</v>
       </c>
-      <c r="U869" s="13" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="870" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A870" s="1"/>
-      <c r="B870" s="1" t="s">
+    </row>
+    <row r="870" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B870" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="C870" s="1" t="s">
+      <c r="C870" s="15" t="s">
         <v>532</v>
       </c>
-      <c r="D870" s="1" t="s">
+      <c r="D870" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="E870" s="2" t="s">
+      <c r="E870" s="16" t="s">
         <v>534</v>
       </c>
-      <c r="F870" s="2" t="s">
+      <c r="F870" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="G870" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H870" s="2"/>
-      <c r="I870" s="2"/>
-      <c r="J870" s="1" t="s">
+      <c r="G870" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H870" s="16"/>
+      <c r="I870" s="16"/>
+      <c r="J870" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="K870" s="1" t="s">
+      <c r="K870" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="L870" s="1"/>
-      <c r="M870" s="1"/>
-      <c r="N870" s="1"/>
-      <c r="O870" s="1"/>
-    </row>
-    <row r="871" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A871" s="1"/>
-      <c r="B871" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C871" s="1" t="s">
+    </row>
+    <row r="871" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B871" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C871" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="D871" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="D871" s="1" t="s">
+      <c r="E871" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="E871" s="2" t="s">
+      <c r="F871" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G871" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H871" s="16"/>
+      <c r="I871" s="16"/>
+      <c r="J871" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="F871" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G871" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H871" s="2"/>
-      <c r="I871" s="2"/>
-      <c r="J871" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="K871" s="1" t="s">
+      <c r="K871" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="L871" s="1"/>
-      <c r="M871" s="1"/>
-      <c r="N871" s="1"/>
-      <c r="O871" s="1"/>
     </row>
     <row r="872" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="1"/>
@@ -19845,7 +19842,7 @@
       <c r="H894" s="9"/>
       <c r="I894" s="9"/>
       <c r="J894" s="7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K894" s="7" t="s">
         <v>42</v>
@@ -20077,16 +20074,16 @@
     </row>
     <row r="903" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B903" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C903" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="C903" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="D903" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E903" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F903" s="16" t="s">
         <v>154</v>
@@ -20097,7 +20094,7 @@
       <c r="H903" s="16"/>
       <c r="I903" s="16"/>
       <c r="J903" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K903" s="15" t="s">
         <v>42</v>
@@ -20153,7 +20150,7 @@
       <c r="H905" s="9"/>
       <c r="I905" s="9"/>
       <c r="J905" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K905" s="7" t="s">
         <v>42</v>
@@ -20505,7 +20502,7 @@
       <c r="H922" s="9"/>
       <c r="I922" s="9"/>
       <c r="J922" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K922" s="7" t="s">
         <v>42</v>
@@ -20561,7 +20558,7 @@
       <c r="H924" s="9"/>
       <c r="I924" s="9"/>
       <c r="J924" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K924" s="7" t="s">
         <v>42</v>
@@ -20589,7 +20586,7 @@
       <c r="H925" s="9"/>
       <c r="I925" s="9"/>
       <c r="J925" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K925" s="7" t="s">
         <v>42</v>
@@ -20617,7 +20614,7 @@
       <c r="H926" s="9"/>
       <c r="I926" s="9"/>
       <c r="J926" s="7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K926" s="7" t="s">
         <v>42</v>
@@ -20645,7 +20642,7 @@
       <c r="H927" s="9"/>
       <c r="I927" s="9"/>
       <c r="J927" s="7" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K927" s="7" t="s">
         <v>42</v>
@@ -20673,7 +20670,7 @@
       <c r="H928" s="9"/>
       <c r="I928" s="9"/>
       <c r="J928" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K928" s="7" t="s">
         <v>42</v>
@@ -20826,25 +20823,25 @@
       <c r="N935" s="1"/>
       <c r="O935" s="1"/>
       <c r="R935" s="13" t="s">
+        <v>581</v>
+      </c>
+      <c r="S935" s="13" t="s">
         <v>582</v>
       </c>
-      <c r="S935" s="13" t="s">
+      <c r="T935" s="13" t="s">
         <v>583</v>
       </c>
-      <c r="T935" s="13" t="s">
+      <c r="U935" s="13" t="s">
         <v>584</v>
       </c>
-      <c r="U935" s="13" t="s">
+      <c r="V935" s="13" t="s">
         <v>585</v>
       </c>
-      <c r="V935" s="13" t="s">
+      <c r="W935" s="13" t="s">
         <v>586</v>
       </c>
-      <c r="W935" s="13" t="s">
-        <v>587</v>
-      </c>
       <c r="X935" s="13" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="936" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20866,31 +20863,31 @@
       <c r="N936" s="1"/>
       <c r="O936" s="1"/>
       <c r="R936" s="13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="S936" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T936" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="U936" s="13" t="s">
         <v>589</v>
       </c>
-      <c r="U936" s="13" t="s">
+      <c r="V936" s="13" t="s">
         <v>590</v>
       </c>
-      <c r="V936" s="13" t="s">
+      <c r="W936" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="X936" s="13" t="s">
         <v>591</v>
       </c>
-      <c r="W936" s="13" t="s">
-        <v>586</v>
-      </c>
-      <c r="X936" s="13" t="s">
+      <c r="Y936" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="Y936" s="13" t="s">
+      <c r="Z936" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="Z936" s="13" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="937" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20912,22 +20909,22 @@
       <c r="N937" s="1"/>
       <c r="O937" s="1"/>
       <c r="R937" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="S937" s="13" t="s">
         <v>595</v>
       </c>
-      <c r="S937" s="13" t="s">
+      <c r="T937" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="T937" s="13" t="s">
+      <c r="U937" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="U937" s="13" t="s">
+      <c r="V937" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="V937" s="13" t="s">
+      <c r="W937" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="W937" s="13" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="938" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21025,7 +21022,7 @@
       <c r="H941" s="9"/>
       <c r="I941" s="9"/>
       <c r="J941" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K941" s="7" t="s">
         <v>42</v>
@@ -21339,7 +21336,7 @@
     </row>
     <row r="955" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E955" s="4"/>
       <c r="F955" s="4" t="s">
@@ -21592,7 +21589,7 @@
         <v>412</v>
       </c>
       <c r="C971" s="7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D971" s="7" t="s">
         <v>414</v>
@@ -21693,7 +21690,7 @@
       <c r="H974" s="9"/>
       <c r="I974" s="9"/>
       <c r="J974" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K974" s="7" t="s">
         <v>42</v>
@@ -38104,7 +38101,7 @@
     </row>
     <row r="978" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B978" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E978" s="4"/>
       <c r="F978" s="4" t="s">
@@ -38407,7 +38404,7 @@
       <c r="H998" s="9"/>
       <c r="I998" s="9"/>
       <c r="J998" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K998" s="7" t="s">
         <v>42</v>
@@ -38547,7 +38544,7 @@
       <c r="H1003" s="9"/>
       <c r="I1003" s="9"/>
       <c r="J1003" s="7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K1003" s="7" t="s">
         <v>42</v>
@@ -38575,7 +38572,7 @@
       <c r="H1004" s="16"/>
       <c r="I1004" s="16"/>
       <c r="J1004" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K1004" s="15" t="s">
         <v>42</v>
@@ -38609,17 +38606,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1006" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1006" s="1" t="s">
+    <row r="1006" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1006" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="C1006" s="1" t="s">
+      <c r="C1006" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="D1006" s="1" t="s">
+      <c r="D1006" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="E1006" s="2" t="s">
+      <c r="E1006" s="16" t="s">
         <v>293</v>
       </c>
       <c r="F1006" s="16" t="s">
@@ -38628,10 +38625,12 @@
       <c r="G1006" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J1006" s="1" t="s">
+      <c r="H1006" s="16"/>
+      <c r="I1006" s="16"/>
+      <c r="J1006" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="K1006" s="1" t="s">
+      <c r="K1006" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -38721,7 +38720,7 @@
     </row>
     <row r="1010" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1010" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K1010" s="1" t="s">
         <v>42</v>
@@ -38749,7 +38748,7 @@
       <c r="H1011" s="9"/>
       <c r="I1011" s="9"/>
       <c r="J1011" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K1011" s="7" t="s">
         <v>42</v>
@@ -38757,7 +38756,7 @@
     </row>
     <row r="1012" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1012" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K1012" s="1" t="s">
         <v>42</v>
@@ -38793,7 +38792,7 @@
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1014" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K1014" s="1" t="s">
         <v>75</v>
@@ -38801,7 +38800,7 @@
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1015" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1016" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -38826,7 +38825,7 @@
       <c r="H1016" s="16"/>
       <c r="I1016" s="16"/>
       <c r="J1016" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K1016" s="15" t="s">
         <v>65</v>
@@ -38854,7 +38853,7 @@
       <c r="H1017" s="9"/>
       <c r="I1017" s="9"/>
       <c r="J1017" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K1017" s="7" t="s">
         <v>75</v>
@@ -38862,7 +38861,7 @@
     </row>
     <row r="1018" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1018" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K1018" s="1" t="s">
         <v>65</v>
@@ -38870,16 +38869,16 @@
     </row>
     <row r="1019" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1019" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C1019" s="15" t="s">
         <v>556</v>
-      </c>
-      <c r="C1019" s="15" t="s">
-        <v>557</v>
       </c>
       <c r="D1019" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E1019" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F1019" s="16" t="s">
         <v>154</v>
@@ -38890,7 +38889,7 @@
       <c r="H1019" s="16"/>
       <c r="I1019" s="16"/>
       <c r="J1019" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K1019" s="15" t="s">
         <v>42</v>
@@ -38918,7 +38917,7 @@
       <c r="H1020" s="9"/>
       <c r="I1020" s="9"/>
       <c r="J1020" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K1020" s="7" t="s">
         <v>42</v>
@@ -38926,7 +38925,7 @@
     </row>
     <row r="1021" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1021" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K1021" s="1" t="s">
         <v>42</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4153" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4176" uniqueCount="633">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -1192,6 +1192,21 @@
     <t xml:space="preserve">oslo.db&gt;=6.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">i1.1.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oauthlib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022/Oct/18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oauthlib&gt;=0.6.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">OpenStack Hosted apps</t>
   </si>
   <si>
@@ -1883,9 +1898,6 @@
   </si>
   <si>
     <t xml:space="preserve">oslo.config&gt;=6.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oauthlib&gt;=0.6.2</t>
   </si>
   <si>
     <t xml:space="preserve">pysaml2&gt;=5.0.0</t>
@@ -2381,8 +2393,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1074"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1040" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1065" activeCellId="0" sqref="1065:1065"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1035" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1067" activeCellId="0" sqref="1067:1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7980,10 +7992,80 @@
       <c r="N308" s="10"/>
       <c r="O308" s="10"/>
     </row>
-    <row r="309" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A309" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C309" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D309" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F309" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G309" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H309" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="I309" s="16"/>
+      <c r="J309" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="K309" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="310" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="G311" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="10"/>
+      <c r="B312" s="10"/>
+      <c r="C312" s="10"/>
+      <c r="D312" s="10"/>
+      <c r="E312" s="11"/>
+      <c r="F312" s="11"/>
+      <c r="G312" s="11"/>
+      <c r="H312" s="11"/>
+      <c r="I312" s="11"/>
+      <c r="J312" s="10"/>
+      <c r="K312" s="10"/>
+      <c r="L312" s="10"/>
+      <c r="M312" s="10"/>
+      <c r="N312" s="10"/>
+      <c r="O312" s="10"/>
+    </row>
     <row r="313" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="314" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="315" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -7994,14 +8076,14 @@
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="322" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B322" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D322" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E322" s="4"/>
       <c r="F322" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G322" s="4"/>
       <c r="H322" s="4"/>
@@ -8029,13 +8111,13 @@
         <v>5</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D324" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E324" s="9" t="n">
         <v>45692</v>
@@ -8051,7 +8133,7 @@
       </c>
       <c r="I324" s="9"/>
       <c r="J324" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K324" s="7" t="s">
         <v>42</v>
@@ -8116,16 +8198,16 @@
     </row>
     <row r="330" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B330" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D330" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E330" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F330" s="9" t="s">
         <v>40</v>
@@ -8136,7 +8218,7 @@
       <c r="H330" s="9"/>
       <c r="I330" s="9"/>
       <c r="J330" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K330" s="7" t="s">
         <v>42</v>
@@ -8144,16 +8226,16 @@
     </row>
     <row r="331" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B331" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D331" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E331" s="9" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F331" s="9" t="s">
         <v>154</v>
@@ -8164,7 +8246,7 @@
       <c r="H331" s="9"/>
       <c r="I331" s="9"/>
       <c r="J331" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K331" s="7" t="s">
         <v>42</v>
@@ -8220,7 +8302,7 @@
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
       <c r="J333" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K333" s="7" t="s">
         <v>42</v>
@@ -8228,16 +8310,16 @@
     </row>
     <row r="334" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B334" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D334" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E334" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F334" s="9" t="s">
         <v>40</v>
@@ -8248,7 +8330,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K334" s="7" t="s">
         <v>42</v>
@@ -8256,13 +8338,13 @@
     </row>
     <row r="335" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B335" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D335" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E335" s="9" t="s">
         <v>90</v>
@@ -8276,7 +8358,7 @@
       <c r="H335" s="9"/>
       <c r="I335" s="9"/>
       <c r="J335" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K335" s="7" t="s">
         <v>42</v>
@@ -8345,13 +8427,13 @@
     </row>
     <row r="338" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B338" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D338" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E338" s="9" t="s">
         <v>52</v>
@@ -8365,7 +8447,7 @@
       <c r="H338" s="9"/>
       <c r="I338" s="9"/>
       <c r="J338" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K338" s="7" t="s">
         <v>42</v>
@@ -8440,16 +8522,16 @@
         <v>5</v>
       </c>
       <c r="B342" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C342" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D342" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E342" s="9" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F342" s="9" t="s">
         <v>154</v>
@@ -8462,7 +8544,7 @@
       </c>
       <c r="I342" s="9"/>
       <c r="J342" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K342" s="7" t="s">
         <v>42</v>
@@ -8515,7 +8597,7 @@
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
       <c r="J345" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K345" s="1"/>
       <c r="L345" s="1"/>
@@ -8534,7 +8616,7 @@
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
       <c r="J346" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K346" s="1"/>
       <c r="L346" s="1"/>
@@ -8553,7 +8635,7 @@
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
       <c r="J347" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K347" s="1"/>
       <c r="L347" s="1"/>
@@ -8580,13 +8662,13 @@
     </row>
     <row r="349" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B349" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C349" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D349" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E349" s="9" t="n">
         <v>45692</v>
@@ -8600,7 +8682,7 @@
       <c r="H349" s="9"/>
       <c r="I349" s="9"/>
       <c r="J349" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K349" s="7" t="s">
         <v>42</v>
@@ -8678,7 +8760,7 @@
       <c r="H353" s="9"/>
       <c r="I353" s="9"/>
       <c r="J353" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K353" s="7" t="s">
         <v>42</v>
@@ -8706,16 +8788,16 @@
         <v>5</v>
       </c>
       <c r="B355" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C355" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D355" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E355" s="9" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F355" s="9" t="s">
         <v>154</v>
@@ -8728,7 +8810,7 @@
       </c>
       <c r="I355" s="9"/>
       <c r="J355" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K355" s="7" t="s">
         <v>42</v>
@@ -8957,13 +9039,13 @@
     </row>
     <row r="366" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B366" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C366" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D366" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E366" s="9" t="s">
         <v>52</v>
@@ -8977,7 +9059,7 @@
       <c r="H366" s="9"/>
       <c r="I366" s="9"/>
       <c r="J366" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K366" s="7" t="s">
         <v>42</v>
@@ -9024,16 +9106,16 @@
         <v>5</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C369" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D369" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E369" s="16" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F369" s="16" t="s">
         <v>154</v>
@@ -9046,7 +9128,7 @@
       </c>
       <c r="I369" s="16"/>
       <c r="J369" s="15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K369" s="15" t="s">
         <v>42</v>
@@ -9425,14 +9507,14 @@
     </row>
     <row r="391" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B391" s="3" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D391" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E391" s="4"/>
       <c r="F391" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G391" s="4"/>
       <c r="H391" s="4"/>
@@ -9460,16 +9542,16 @@
         <v>5</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D393" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E393" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F393" s="9" t="s">
         <v>40</v>
@@ -9482,7 +9564,7 @@
       </c>
       <c r="I393" s="9"/>
       <c r="J393" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K393" s="7" t="s">
         <v>42</v>
@@ -9535,7 +9617,7 @@
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
       <c r="J396" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K396" s="1"/>
       <c r="L396" s="1"/>
@@ -9554,7 +9636,7 @@
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
       <c r="J397" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K397" s="1"/>
       <c r="L397" s="1"/>
@@ -9573,7 +9655,7 @@
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
       <c r="J398" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K398" s="1"/>
       <c r="L398" s="1"/>
@@ -9600,13 +9682,13 @@
     </row>
     <row r="400" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B400" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C400" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D400" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E400" s="9" t="n">
         <v>45692</v>
@@ -9620,7 +9702,7 @@
       <c r="H400" s="9"/>
       <c r="I400" s="9"/>
       <c r="J400" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="401" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9753,16 +9835,16 @@
     </row>
     <row r="407" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B407" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C407" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D407" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E407" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F407" s="9" t="s">
         <v>40</v>
@@ -9773,7 +9855,7 @@
       <c r="H407" s="9"/>
       <c r="I407" s="9"/>
       <c r="J407" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K407" s="7" t="s">
         <v>42</v>
@@ -9809,13 +9891,13 @@
     </row>
     <row r="409" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B409" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C409" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D409" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E409" s="9" t="s">
         <v>52</v>
@@ -9829,7 +9911,7 @@
       <c r="H409" s="9"/>
       <c r="I409" s="9"/>
       <c r="J409" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K409" s="7" t="s">
         <v>42</v>
@@ -10054,16 +10136,16 @@
     </row>
     <row r="419" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B419" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C419" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D419" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E419" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F419" s="9" t="s">
         <v>40</v>
@@ -10074,7 +10156,7 @@
       <c r="H419" s="9"/>
       <c r="I419" s="9"/>
       <c r="J419" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K419" s="7" t="s">
         <v>42</v>
@@ -10082,16 +10164,16 @@
     </row>
     <row r="420" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B420" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C420" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D420" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E420" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F420" s="9" t="s">
         <v>236</v>
@@ -10102,7 +10184,7 @@
       <c r="H420" s="9"/>
       <c r="I420" s="9"/>
       <c r="J420" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="K420" s="7" t="s">
         <v>65</v>
@@ -10154,16 +10236,16 @@
     </row>
     <row r="424" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B424" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C424" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D424" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E424" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F424" s="9" t="s">
         <v>40</v>
@@ -10174,7 +10256,7 @@
       <c r="H424" s="9"/>
       <c r="I424" s="9"/>
       <c r="J424" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K424" s="7" t="s">
         <v>42</v>
@@ -10296,7 +10378,7 @@
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
       <c r="J430" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K430" s="1"/>
       <c r="L430" s="1"/>
@@ -10315,7 +10397,7 @@
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
       <c r="J431" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K431" s="1"/>
       <c r="L431" s="1"/>
@@ -10334,7 +10416,7 @@
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
       <c r="J432" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K432" s="1"/>
       <c r="L432" s="1"/>
@@ -10370,7 +10452,7 @@
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
       <c r="J434" s="1" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K434" s="1"/>
       <c r="L434" s="1"/>
@@ -10406,7 +10488,7 @@
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
       <c r="J436" s="1" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="K436" s="1"/>
       <c r="L436" s="1"/>
@@ -10425,7 +10507,7 @@
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
       <c r="J437" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K437" s="1"/>
       <c r="L437" s="1"/>
@@ -10444,7 +10526,7 @@
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
       <c r="J438" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="K438" s="1"/>
       <c r="L438" s="1"/>
@@ -10463,7 +10545,7 @@
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
       <c r="J439" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K439" s="1"/>
       <c r="L439" s="1"/>
@@ -10482,7 +10564,7 @@
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
       <c r="J440" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="K440" s="1"/>
       <c r="L440" s="1"/>
@@ -10501,7 +10583,7 @@
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
       <c r="J441" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K441" s="1"/>
       <c r="L441" s="1"/>
@@ -10528,13 +10610,13 @@
     </row>
     <row r="443" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B443" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D443" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E443" s="9" t="n">
         <v>45692</v>
@@ -10548,7 +10630,7 @@
       <c r="H443" s="9"/>
       <c r="I443" s="9"/>
       <c r="J443" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K443" s="7" t="s">
         <v>42</v>
@@ -10576,7 +10658,7 @@
       <c r="H444" s="9"/>
       <c r="I444" s="9"/>
       <c r="J444" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K444" s="7" t="s">
         <v>65</v>
@@ -10584,16 +10666,16 @@
     </row>
     <row r="445" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B445" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D445" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E445" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F445" s="9" t="s">
         <v>236</v>
@@ -10604,7 +10686,7 @@
       <c r="H445" s="9"/>
       <c r="I445" s="9"/>
       <c r="J445" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K445" s="7" t="s">
         <v>42</v>
@@ -10612,16 +10694,16 @@
     </row>
     <row r="446" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B446" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C446" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D446" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E446" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F446" s="9" t="s">
         <v>40</v>
@@ -10632,7 +10714,7 @@
       <c r="H446" s="9"/>
       <c r="I446" s="9"/>
       <c r="J446" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K446" s="7" t="s">
         <v>42</v>
@@ -10640,16 +10722,16 @@
     </row>
     <row r="447" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B447" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D447" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E447" s="9" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F447" s="9" t="s">
         <v>154</v>
@@ -10660,7 +10742,7 @@
       <c r="H447" s="9"/>
       <c r="I447" s="9"/>
       <c r="J447" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K447" s="7" t="s">
         <v>42</v>
@@ -10746,16 +10828,16 @@
     </row>
     <row r="452" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B452" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C452" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D452" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E452" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F452" s="9" t="s">
         <v>40</v>
@@ -10766,7 +10848,7 @@
       <c r="H452" s="9"/>
       <c r="I452" s="9"/>
       <c r="J452" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K452" s="7" t="s">
         <v>42</v>
@@ -10774,13 +10856,13 @@
     </row>
     <row r="453" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B453" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D453" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E453" s="9" t="s">
         <v>52</v>
@@ -10794,7 +10876,7 @@
       <c r="H453" s="9"/>
       <c r="I453" s="9"/>
       <c r="J453" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K453" s="7" t="s">
         <v>42</v>
@@ -10900,14 +10982,14 @@
     </row>
     <row r="459" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B459" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="D459" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E459" s="4"/>
       <c r="F459" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G459" s="4"/>
       <c r="H459" s="4"/>
@@ -10935,13 +11017,13 @@
         <v>5</v>
       </c>
       <c r="B461" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C461" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D461" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E461" s="9" t="s">
         <v>90</v>
@@ -10957,7 +11039,7 @@
       </c>
       <c r="I461" s="9"/>
       <c r="J461" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K461" s="7" t="s">
         <v>42</v>
@@ -11010,7 +11092,7 @@
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
       <c r="J464" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K464" s="1"/>
       <c r="L464" s="1"/>
@@ -11029,7 +11111,7 @@
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
       <c r="J465" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K465" s="1"/>
       <c r="L465" s="1"/>
@@ -11048,7 +11130,7 @@
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
       <c r="J466" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K466" s="1"/>
       <c r="L466" s="1"/>
@@ -11075,13 +11157,13 @@
     </row>
     <row r="468" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B468" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D468" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E468" s="9" t="n">
         <v>45692</v>
@@ -11095,7 +11177,7 @@
       <c r="H468" s="9"/>
       <c r="I468" s="9"/>
       <c r="J468" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
     </row>
     <row r="469" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11119,7 +11201,7 @@
       </c>
       <c r="H469" s="9"/>
       <c r="I469" s="9" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="J469" s="7" t="s">
         <v>325</v>
@@ -11199,16 +11281,16 @@
     </row>
     <row r="474" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B474" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C474" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D474" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E474" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F474" s="9" t="s">
         <v>40</v>
@@ -11219,7 +11301,7 @@
       <c r="H474" s="9"/>
       <c r="I474" s="9"/>
       <c r="J474" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K474" s="7" t="s">
         <v>42</v>
@@ -11255,13 +11337,13 @@
     </row>
     <row r="476" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B476" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C476" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D476" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E476" s="9" t="s">
         <v>52</v>
@@ -11275,7 +11357,7 @@
       <c r="H476" s="9"/>
       <c r="I476" s="9"/>
       <c r="J476" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K476" s="7" t="s">
         <v>42</v>
@@ -11386,17 +11468,17 @@
     </row>
     <row r="483" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J483" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J484" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J485" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11450,7 +11532,7 @@
       <c r="H488" s="9"/>
       <c r="I488" s="9"/>
       <c r="J488" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K488" s="7" t="s">
         <v>75</v>
@@ -11458,16 +11540,16 @@
     </row>
     <row r="489" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B489" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C489" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D489" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E489" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F489" s="9" t="s">
         <v>40</v>
@@ -11478,7 +11560,7 @@
       <c r="H489" s="9"/>
       <c r="I489" s="9"/>
       <c r="J489" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K489" s="7" t="s">
         <v>42</v>
@@ -11486,13 +11568,13 @@
     </row>
     <row r="490" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B490" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C490" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D490" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E490" s="9" t="s">
         <v>90</v>
@@ -11506,7 +11588,7 @@
       <c r="H490" s="9"/>
       <c r="I490" s="9"/>
       <c r="J490" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K490" s="7" t="s">
         <v>42</v>
@@ -11542,16 +11624,16 @@
     </row>
     <row r="492" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B492" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C492" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D492" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E492" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F492" s="9" t="s">
         <v>236</v>
@@ -11562,7 +11644,7 @@
       <c r="H492" s="9"/>
       <c r="I492" s="9"/>
       <c r="J492" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K492" s="7" t="s">
         <v>65</v>
@@ -11570,16 +11652,16 @@
     </row>
     <row r="493" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B493" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C493" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D493" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E493" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F493" s="9" t="s">
         <v>236</v>
@@ -11590,7 +11672,7 @@
       <c r="H493" s="9"/>
       <c r="I493" s="9"/>
       <c r="J493" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K493" s="7" t="s">
         <v>42</v>
@@ -11602,13 +11684,13 @@
         <v>13</v>
       </c>
       <c r="B495" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C495" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D495" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E495" s="9" t="s">
         <v>52</v>
@@ -11622,7 +11704,7 @@
       <c r="H495" s="9"/>
       <c r="I495" s="9"/>
       <c r="J495" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K495" s="7" t="s">
         <v>42</v>
@@ -11650,13 +11732,13 @@
         <v>5</v>
       </c>
       <c r="B497" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C497" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D497" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E497" s="16" t="s">
         <v>90</v>
@@ -11672,7 +11754,7 @@
       </c>
       <c r="I497" s="16"/>
       <c r="J497" s="15" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K497" s="15" t="s">
         <v>42</v>
@@ -11725,7 +11807,7 @@
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
       <c r="J500" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K500" s="1"/>
       <c r="L500" s="1"/>
@@ -11744,7 +11826,7 @@
       <c r="H501" s="2"/>
       <c r="I501" s="2"/>
       <c r="J501" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -11763,7 +11845,7 @@
       <c r="H502" s="2"/>
       <c r="I502" s="2"/>
       <c r="J502" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K502" s="1"/>
       <c r="L502" s="1"/>
@@ -11790,13 +11872,13 @@
     </row>
     <row r="504" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B504" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C504" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D504" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E504" s="9" t="n">
         <v>45692</v>
@@ -11810,7 +11892,7 @@
       <c r="H504" s="9"/>
       <c r="I504" s="9"/>
       <c r="J504" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K504" s="7" t="s">
         <v>42</v>
@@ -12006,7 +12088,7 @@
       <c r="H513" s="2"/>
       <c r="I513" s="2"/>
       <c r="J513" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K513" s="1"/>
       <c r="L513" s="1"/>
@@ -12025,7 +12107,7 @@
       <c r="H514" s="2"/>
       <c r="I514" s="2"/>
       <c r="J514" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K514" s="1"/>
       <c r="L514" s="1"/>
@@ -12044,7 +12126,7 @@
       <c r="H515" s="2"/>
       <c r="I515" s="2"/>
       <c r="J515" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
@@ -12071,13 +12153,13 @@
     </row>
     <row r="517" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B517" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C517" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D517" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E517" s="9" t="n">
         <v>45692</v>
@@ -12091,7 +12173,7 @@
       <c r="H517" s="9"/>
       <c r="I517" s="9"/>
       <c r="J517" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K517" s="7" t="s">
         <v>42</v>
@@ -12127,13 +12209,13 @@
     </row>
     <row r="519" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B519" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D519" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E519" s="16" t="s">
         <v>90</v>
@@ -12147,7 +12229,7 @@
       <c r="H519" s="16"/>
       <c r="I519" s="16"/>
       <c r="J519" s="15" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="K519" s="15" t="s">
         <v>42</v>
@@ -12155,13 +12237,13 @@
     </row>
     <row r="520" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B520" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C520" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D520" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E520" s="9" t="s">
         <v>90</v>
@@ -12175,7 +12257,7 @@
       <c r="H520" s="9"/>
       <c r="I520" s="9"/>
       <c r="J520" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K520" s="7" t="s">
         <v>42</v>
@@ -12203,7 +12285,7 @@
       <c r="H521" s="9"/>
       <c r="I521" s="9"/>
       <c r="J521" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="K521" s="7" t="s">
         <v>42</v>
@@ -12231,7 +12313,7 @@
       <c r="H522" s="9"/>
       <c r="I522" s="9"/>
       <c r="J522" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="K522" s="7" t="s">
         <v>42</v>
@@ -12287,7 +12369,7 @@
       <c r="H524" s="9"/>
       <c r="I524" s="9"/>
       <c r="J524" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K524" s="7" t="s">
         <v>42</v>
@@ -12315,16 +12397,16 @@
         <v>13</v>
       </c>
       <c r="B526" s="15" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C526" s="15" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D526" s="15" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E526" s="16" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F526" s="16" t="s">
         <v>40</v>
@@ -12335,7 +12417,7 @@
       <c r="H526" s="16"/>
       <c r="I526" s="16"/>
       <c r="J526" s="15" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K526" s="15" t="s">
         <v>42</v>
@@ -12438,7 +12520,7 @@
       <c r="H531" s="2"/>
       <c r="I531" s="2"/>
       <c r="J531" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K531" s="1"/>
       <c r="L531" s="1"/>
@@ -12457,7 +12539,7 @@
       <c r="H532" s="2"/>
       <c r="I532" s="2"/>
       <c r="J532" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K532" s="1"/>
       <c r="L532" s="1"/>
@@ -12476,7 +12558,7 @@
       <c r="H533" s="2"/>
       <c r="I533" s="2"/>
       <c r="J533" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K533" s="1"/>
       <c r="L533" s="1"/>
@@ -12512,7 +12594,7 @@
       <c r="H535" s="2"/>
       <c r="I535" s="2"/>
       <c r="J535" s="1" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
@@ -12531,7 +12613,7 @@
       <c r="H536" s="2"/>
       <c r="I536" s="2"/>
       <c r="J536" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
@@ -12550,7 +12632,7 @@
       <c r="H537" s="2"/>
       <c r="I537" s="2"/>
       <c r="J537" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="K537" s="1"/>
       <c r="L537" s="1"/>
@@ -12569,7 +12651,7 @@
       <c r="H538" s="2"/>
       <c r="I538" s="2"/>
       <c r="J538" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K538" s="1"/>
       <c r="L538" s="1"/>
@@ -12624,13 +12706,13 @@
     </row>
     <row r="541" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B541" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C541" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D541" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E541" s="9" t="s">
         <v>90</v>
@@ -12644,7 +12726,7 @@
       <c r="H541" s="9"/>
       <c r="I541" s="9"/>
       <c r="J541" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K541" s="7" t="s">
         <v>42</v>
@@ -12708,13 +12790,13 @@
     </row>
     <row r="544" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B544" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="C544" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="D544" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="E544" s="9" t="s">
         <v>240</v>
@@ -12728,7 +12810,7 @@
       <c r="H544" s="9"/>
       <c r="I544" s="9"/>
       <c r="J544" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="K544" s="7" t="s">
         <v>65</v>
@@ -12736,16 +12818,16 @@
     </row>
     <row r="545" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B545" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C545" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D545" s="18" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E545" s="9" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F545" s="9" t="s">
         <v>212</v>
@@ -12756,7 +12838,7 @@
       <c r="H545" s="9"/>
       <c r="I545" s="9"/>
       <c r="J545" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K545" s="7" t="s">
         <v>75</v>
@@ -12798,16 +12880,16 @@
     </row>
     <row r="547" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B547" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C547" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D547" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E547" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F547" s="9" t="s">
         <v>236</v>
@@ -12818,7 +12900,7 @@
       <c r="H547" s="9"/>
       <c r="I547" s="9"/>
       <c r="J547" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K547" s="7" t="s">
         <v>65</v>
@@ -12826,16 +12908,16 @@
     </row>
     <row r="548" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B548" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C548" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D548" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E548" s="9" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F548" s="9" t="s">
         <v>236</v>
@@ -12846,21 +12928,21 @@
       <c r="H548" s="9"/>
       <c r="I548" s="9"/>
       <c r="J548" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K548" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
     </row>
     <row r="549" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B549" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C549" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D549" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E549" s="9" t="n">
         <v>45692</v>
@@ -12874,7 +12956,7 @@
       <c r="H549" s="9"/>
       <c r="I549" s="9"/>
       <c r="J549" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="K549" s="7" t="s">
         <v>42</v>
@@ -12904,16 +12986,16 @@
     </row>
     <row r="552" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B552" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C552" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D552" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E552" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F552" s="9" t="s">
         <v>40</v>
@@ -12924,7 +13006,7 @@
       <c r="H552" s="9"/>
       <c r="I552" s="9"/>
       <c r="J552" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K552" s="7" t="s">
         <v>42</v>
@@ -12960,13 +13042,13 @@
     </row>
     <row r="554" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B554" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C554" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D554" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E554" s="9" t="s">
         <v>52</v>
@@ -12980,7 +13062,7 @@
       <c r="H554" s="9"/>
       <c r="I554" s="9"/>
       <c r="J554" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K554" s="7" t="s">
         <v>42</v>
@@ -13130,7 +13212,7 @@
       <c r="H561" s="2"/>
       <c r="I561" s="2"/>
       <c r="J561" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K561" s="1"/>
       <c r="L561" s="1"/>
@@ -13149,7 +13231,7 @@
       <c r="H562" s="2"/>
       <c r="I562" s="2"/>
       <c r="J562" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K562" s="1"/>
       <c r="L562" s="1"/>
@@ -13168,7 +13250,7 @@
       <c r="H563" s="2"/>
       <c r="I563" s="2"/>
       <c r="J563" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K563" s="1"/>
       <c r="L563" s="1"/>
@@ -13195,13 +13277,13 @@
     </row>
     <row r="565" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B565" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C565" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D565" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E565" s="9" t="n">
         <v>45692</v>
@@ -13215,7 +13297,7 @@
       <c r="H565" s="9"/>
       <c r="I565" s="9"/>
       <c r="J565" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K565" s="7" t="s">
         <v>42</v>
@@ -13251,13 +13333,13 @@
     </row>
     <row r="567" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B567" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C567" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D567" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E567" s="9" t="s">
         <v>90</v>
@@ -13271,7 +13353,7 @@
       <c r="H567" s="9"/>
       <c r="I567" s="9"/>
       <c r="J567" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K567" s="7" t="s">
         <v>42</v>
@@ -13355,7 +13437,7 @@
       <c r="H570" s="9"/>
       <c r="I570" s="9"/>
       <c r="J570" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K570" s="7" t="s">
         <v>42</v>
@@ -13541,7 +13623,7 @@
       <c r="H579" s="2"/>
       <c r="I579" s="2"/>
       <c r="J579" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K579" s="1"/>
       <c r="L579" s="1"/>
@@ -13560,7 +13642,7 @@
       <c r="H580" s="2"/>
       <c r="I580" s="2"/>
       <c r="J580" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K580" s="1"/>
       <c r="L580" s="1"/>
@@ -13579,7 +13661,7 @@
       <c r="H581" s="2"/>
       <c r="I581" s="2"/>
       <c r="J581" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K581" s="1"/>
       <c r="L581" s="1"/>
@@ -13607,13 +13689,13 @@
     <row r="583" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1"/>
       <c r="B583" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C583" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D583" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E583" s="9" t="n">
         <v>45692</v>
@@ -13627,7 +13709,7 @@
       <c r="H583" s="2"/>
       <c r="I583" s="2"/>
       <c r="J583" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="K583" s="1" t="s">
         <v>42</v>
@@ -13665,7 +13747,7 @@
       <c r="H585" s="2"/>
       <c r="I585" s="2"/>
       <c r="J585" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="K585" s="1"/>
       <c r="L585" s="1"/>
@@ -13696,7 +13778,7 @@
       <c r="H586" s="2"/>
       <c r="I586" s="2"/>
       <c r="J586" s="1" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K586" s="1"/>
       <c r="L586" s="1"/>
@@ -13727,7 +13809,7 @@
       <c r="H587" s="2"/>
       <c r="I587" s="2"/>
       <c r="J587" s="1" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K587" s="1"/>
       <c r="L587" s="1"/>
@@ -13758,7 +13840,7 @@
       <c r="H588" s="2"/>
       <c r="I588" s="2"/>
       <c r="J588" s="1" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="K588" s="1"/>
       <c r="L588" s="1"/>
@@ -13794,7 +13876,7 @@
       <c r="H590" s="2"/>
       <c r="I590" s="2"/>
       <c r="J590" s="1" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="K590" s="1"/>
       <c r="L590" s="1"/>
@@ -13807,7 +13889,7 @@
         <v>365</v>
       </c>
       <c r="C591" s="15" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D591" s="15" t="s">
         <v>367</v>
@@ -13972,7 +14054,7 @@
       <c r="H598" s="2"/>
       <c r="I598" s="2"/>
       <c r="J598" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K598" s="1"/>
       <c r="L598" s="1"/>
@@ -13991,7 +14073,7 @@
       <c r="H599" s="2"/>
       <c r="I599" s="2"/>
       <c r="J599" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K599" s="1"/>
       <c r="L599" s="1"/>
@@ -14010,7 +14092,7 @@
       <c r="H600" s="2"/>
       <c r="I600" s="2"/>
       <c r="J600" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K600" s="1"/>
       <c r="L600" s="1"/>
@@ -14037,13 +14119,13 @@
     </row>
     <row r="602" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B602" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C602" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D602" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E602" s="9" t="n">
         <v>45692</v>
@@ -14057,7 +14139,7 @@
       <c r="H602" s="9"/>
       <c r="I602" s="9"/>
       <c r="J602" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K602" s="7" t="s">
         <v>42</v>
@@ -14085,10 +14167,10 @@
       <c r="H603" s="9"/>
       <c r="I603" s="9"/>
       <c r="J603" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="K603" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="604" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14121,13 +14203,13 @@
     </row>
     <row r="605" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B605" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C605" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D605" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E605" s="16" t="s">
         <v>90</v>
@@ -14141,7 +14223,7 @@
       <c r="H605" s="16"/>
       <c r="I605" s="16"/>
       <c r="J605" s="15" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K605" s="15" t="s">
         <v>42</v>
@@ -14149,13 +14231,13 @@
     </row>
     <row r="606" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B606" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C606" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D606" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E606" s="9" t="s">
         <v>90</v>
@@ -14169,7 +14251,7 @@
       <c r="H606" s="9"/>
       <c r="I606" s="9"/>
       <c r="J606" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K606" s="7" t="s">
         <v>42</v>
@@ -14205,16 +14287,16 @@
     </row>
     <row r="608" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B608" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C608" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D608" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E608" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F608" s="9" t="s">
         <v>40</v>
@@ -14225,7 +14307,7 @@
       <c r="H608" s="9"/>
       <c r="I608" s="9"/>
       <c r="J608" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K608" s="7" t="s">
         <v>42</v>
@@ -14253,7 +14335,7 @@
       <c r="H609" s="16"/>
       <c r="I609" s="16"/>
       <c r="J609" s="15" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K609" s="15" t="s">
         <v>65</v>
@@ -14521,7 +14603,7 @@
       <c r="H621" s="2"/>
       <c r="I621" s="2"/>
       <c r="J621" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K621" s="1"/>
       <c r="L621" s="1"/>
@@ -14540,7 +14622,7 @@
       <c r="H622" s="2"/>
       <c r="I622" s="2"/>
       <c r="J622" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K622" s="1"/>
       <c r="L622" s="1"/>
@@ -14559,7 +14641,7 @@
       <c r="H623" s="2"/>
       <c r="I623" s="2"/>
       <c r="J623" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K623" s="1"/>
       <c r="L623" s="1"/>
@@ -14595,7 +14677,7 @@
       <c r="H625" s="2"/>
       <c r="I625" s="2"/>
       <c r="J625" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="K625" s="1"/>
       <c r="L625" s="1"/>
@@ -14614,7 +14696,7 @@
       <c r="H626" s="2"/>
       <c r="I626" s="2"/>
       <c r="J626" s="1" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K626" s="1"/>
       <c r="L626" s="1"/>
@@ -14633,7 +14715,7 @@
       <c r="H627" s="2"/>
       <c r="I627" s="2"/>
       <c r="J627" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="K627" s="1"/>
       <c r="L627" s="1"/>
@@ -14652,7 +14734,7 @@
       <c r="H628" s="2"/>
       <c r="I628" s="2"/>
       <c r="J628" s="1" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="K628" s="1"/>
       <c r="L628" s="1"/>
@@ -14679,16 +14761,16 @@
     </row>
     <row r="630" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B630" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C630" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D630" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E630" s="9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F630" s="9" t="s">
         <v>236</v>
@@ -14699,7 +14781,7 @@
       <c r="H630" s="9"/>
       <c r="I630" s="9"/>
       <c r="J630" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="K630" s="7" t="s">
         <v>42</v>
@@ -14783,13 +14865,13 @@
         <v>13</v>
       </c>
       <c r="B634" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C634" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D634" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E634" s="9" t="s">
         <v>52</v>
@@ -14803,7 +14885,7 @@
       <c r="H634" s="9"/>
       <c r="I634" s="9"/>
       <c r="J634" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K634" s="7" t="s">
         <v>42</v>
@@ -14831,13 +14913,13 @@
         <v>5</v>
       </c>
       <c r="B636" s="15" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C636" s="15" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D636" s="15" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E636" s="16" t="s">
         <v>90</v>
@@ -14853,7 +14935,7 @@
       </c>
       <c r="I636" s="16"/>
       <c r="J636" s="15" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K636" s="15" t="s">
         <v>42</v>
@@ -14866,31 +14948,31 @@
     </row>
     <row r="639" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J639" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J640" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J641" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="643" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B643" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C643" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D643" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E643" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F643" s="9" t="s">
         <v>236</v>
@@ -14901,7 +14983,7 @@
       <c r="H643" s="9"/>
       <c r="I643" s="9"/>
       <c r="J643" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K643" s="7" t="s">
         <v>42</v>
@@ -14929,7 +15011,7 @@
       <c r="H644" s="9"/>
       <c r="I644" s="9"/>
       <c r="J644" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="K644" s="7" t="s">
         <v>42</v>
@@ -14937,13 +15019,13 @@
     </row>
     <row r="645" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B645" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C645" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D645" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E645" s="16" t="s">
         <v>90</v>
@@ -14957,7 +15039,7 @@
       <c r="H645" s="16"/>
       <c r="I645" s="16"/>
       <c r="J645" s="15" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K645" s="15" t="s">
         <v>42</v>
@@ -14965,13 +15047,13 @@
     </row>
     <row r="646" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B646" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C646" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D646" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E646" s="9" t="s">
         <v>90</v>
@@ -14985,7 +15067,7 @@
       <c r="H646" s="9"/>
       <c r="I646" s="9"/>
       <c r="J646" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K646" s="7" t="s">
         <v>42</v>
@@ -15021,16 +15103,16 @@
     </row>
     <row r="648" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B648" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C648" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D648" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E648" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F648" s="9" t="s">
         <v>236</v>
@@ -15041,7 +15123,7 @@
       <c r="H648" s="9"/>
       <c r="I648" s="9"/>
       <c r="J648" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K648" s="7" t="s">
         <v>65</v>
@@ -15049,16 +15131,16 @@
     </row>
     <row r="649" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B649" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D649" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E649" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F649" s="9" t="s">
         <v>40</v>
@@ -15069,7 +15151,7 @@
       <c r="H649" s="9"/>
       <c r="I649" s="9"/>
       <c r="J649" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K649" s="7" t="s">
         <v>42</v>
@@ -15097,7 +15179,7 @@
       <c r="H650" s="9"/>
       <c r="I650" s="9"/>
       <c r="J650" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="K650" s="7" t="s">
         <v>42</v>
@@ -15208,17 +15290,17 @@
     </row>
     <row r="673" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J673" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J674" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J675" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -15275,7 +15357,7 @@
         <v>155</v>
       </c>
       <c r="K678" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="679" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15328,7 +15410,7 @@
       <c r="H680" s="16"/>
       <c r="I680" s="16"/>
       <c r="J680" s="15" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="K680" s="15" t="s">
         <v>65</v>
@@ -15356,7 +15438,7 @@
       <c r="H681" s="9"/>
       <c r="I681" s="9"/>
       <c r="J681" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="K681" s="7" t="s">
         <v>42</v>
@@ -15412,7 +15494,7 @@
       <c r="H683" s="9"/>
       <c r="I683" s="9"/>
       <c r="J683" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="K683" s="7" t="s">
         <v>42</v>
@@ -15440,7 +15522,7 @@
       <c r="H684" s="16"/>
       <c r="I684" s="16"/>
       <c r="J684" s="15" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K684" s="15" t="s">
         <v>42</v>
@@ -15448,13 +15530,13 @@
     </row>
     <row r="685" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B685" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C685" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D685" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E685" s="9" t="s">
         <v>90</v>
@@ -15468,7 +15550,7 @@
       <c r="H685" s="9"/>
       <c r="I685" s="9"/>
       <c r="J685" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K685" s="7" t="s">
         <v>42</v>
@@ -15697,29 +15779,29 @@
     </row>
     <row r="701" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J701" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J702" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J703" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="705" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B705" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C705" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D705" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E705" s="9" t="n">
         <v>45692</v>
@@ -15733,7 +15815,7 @@
       <c r="H705" s="9"/>
       <c r="I705" s="9"/>
       <c r="J705" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K705" s="7" t="s">
         <v>42</v>
@@ -15742,16 +15824,16 @@
     <row r="706" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="707" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B707" s="15" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C707" s="15" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="D707" s="15" t="s">
         <v>114</v>
       </c>
       <c r="E707" s="16" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="F707" s="16" t="s">
         <v>154</v>
@@ -15762,7 +15844,7 @@
       <c r="H707" s="16"/>
       <c r="I707" s="16"/>
       <c r="J707" s="15" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="K707" s="15" t="s">
         <v>42</v>
@@ -15798,13 +15880,13 @@
     </row>
     <row r="709" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B709" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C709" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D709" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E709" s="16" t="s">
         <v>90</v>
@@ -15818,7 +15900,7 @@
       <c r="H709" s="16"/>
       <c r="I709" s="16"/>
       <c r="J709" s="15" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="K709" s="15" t="s">
         <v>42</v>
@@ -15874,7 +15956,7 @@
       <c r="H711" s="9"/>
       <c r="I711" s="9"/>
       <c r="J711" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K711" s="7" t="s">
         <v>42</v>
@@ -15938,16 +16020,16 @@
     </row>
     <row r="714" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B714" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C714" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D714" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E714" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F714" s="9" t="s">
         <v>40</v>
@@ -15958,7 +16040,7 @@
       <c r="H714" s="9"/>
       <c r="I714" s="9"/>
       <c r="J714" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K714" s="7" t="s">
         <v>42</v>
@@ -15995,7 +16077,7 @@
     <row r="716" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="717" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J717" s="1" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="718" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16058,21 +16140,21 @@
     <row r="721" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="722" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J722" s="1" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="723" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C723" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D723" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E723" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F723" s="9" t="s">
         <v>236</v>
@@ -16083,7 +16165,7 @@
       <c r="H723" s="9"/>
       <c r="I723" s="9"/>
       <c r="J723" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K723" s="7" t="s">
         <v>65</v>
@@ -16092,12 +16174,12 @@
     <row r="724" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="725" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J725" s="1" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J726" s="1" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="727" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16159,7 +16241,7 @@
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="730" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J730" s="1" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="731" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16193,7 +16275,7 @@
     <row r="732" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="733" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="J733" s="1" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="734" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16270,13 +16352,13 @@
         <v>5</v>
       </c>
       <c r="B738" s="15" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C738" s="15" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D738" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E738" s="16" t="s">
         <v>90</v>
@@ -16292,7 +16374,7 @@
       </c>
       <c r="I738" s="16"/>
       <c r="J738" s="15" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="K738" s="15" t="s">
         <v>42</v>
@@ -16345,7 +16427,7 @@
       <c r="H741" s="2"/>
       <c r="I741" s="2"/>
       <c r="J741" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K741" s="1"/>
       <c r="L741" s="1"/>
@@ -16364,7 +16446,7 @@
       <c r="H742" s="2"/>
       <c r="I742" s="2"/>
       <c r="J742" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K742" s="1"/>
       <c r="L742" s="1"/>
@@ -16383,7 +16465,7 @@
       <c r="H743" s="2"/>
       <c r="I743" s="2"/>
       <c r="J743" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K743" s="1"/>
       <c r="L743" s="1"/>
@@ -16438,13 +16520,13 @@
     </row>
     <row r="746" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C746" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D746" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E746" s="9" t="s">
         <v>90</v>
@@ -16458,7 +16540,7 @@
       <c r="H746" s="9"/>
       <c r="I746" s="9"/>
       <c r="J746" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K746" s="7" t="s">
         <v>42</v>
@@ -16486,7 +16568,7 @@
       <c r="H747" s="9"/>
       <c r="I747" s="9"/>
       <c r="J747" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="K747" s="7" t="s">
         <v>75</v>
@@ -16514,7 +16596,7 @@
       <c r="H748" s="9"/>
       <c r="I748" s="9"/>
       <c r="J748" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="K748" s="7" t="s">
         <v>42</v>
@@ -16522,13 +16604,13 @@
     </row>
     <row r="749" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B749" s="15" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C749" s="15" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D749" s="15" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E749" s="16" t="s">
         <v>90</v>
@@ -16542,7 +16624,7 @@
       <c r="H749" s="16"/>
       <c r="I749" s="16"/>
       <c r="J749" s="15" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="K749" s="15" t="s">
         <v>42</v>
@@ -16832,7 +16914,7 @@
         <v>2</v>
       </c>
       <c r="D766" s="3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E766" s="4"/>
       <c r="F766" s="4" t="s">
@@ -16842,7 +16924,7 @@
       <c r="H766" s="4"/>
       <c r="I766" s="4"/>
       <c r="J766" s="3" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16922,21 +17004,21 @@
       <c r="H771" s="9"/>
       <c r="I771" s="9"/>
       <c r="J771" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="772" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B772" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C772" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D772" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E772" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F772" s="9" t="s">
         <v>40</v>
@@ -16947,7 +17029,7 @@
       <c r="H772" s="9"/>
       <c r="I772" s="9"/>
       <c r="J772" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17024,16 +17106,16 @@
         <v>5</v>
       </c>
       <c r="B778" s="15" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C778" s="15" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D778" s="15" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E778" s="16" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F778" s="16" t="s">
         <v>9</v>
@@ -17046,10 +17128,10 @@
       </c>
       <c r="I778" s="16"/>
       <c r="J778" s="15" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K778" s="15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="779" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17074,13 +17156,13 @@
         <v>20</v>
       </c>
       <c r="B780" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C780" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D780" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E780" s="9" t="n">
         <v>45692</v>
@@ -17094,7 +17176,7 @@
       <c r="H780" s="9"/>
       <c r="I780" s="9"/>
       <c r="J780" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="781" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17167,16 +17249,16 @@
         <v>5</v>
       </c>
       <c r="B784" s="15" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C784" s="15" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D784" s="15" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E784" s="16" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="F784" s="16" t="s">
         <v>9</v>
@@ -17189,7 +17271,7 @@
       </c>
       <c r="I784" s="16"/>
       <c r="J784" s="15" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17198,13 +17280,13 @@
         <v>20</v>
       </c>
       <c r="B786" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C786" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D786" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E786" s="9" t="n">
         <v>45692</v>
@@ -17218,7 +17300,7 @@
       <c r="H786" s="9"/>
       <c r="I786" s="9"/>
       <c r="J786" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17229,16 +17311,16 @@
     </row>
     <row r="789" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B789" s="15" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C789" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D789" s="15" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E789" s="16" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F789" s="16" t="s">
         <v>9</v>
@@ -17249,7 +17331,7 @@
       <c r="H789" s="16"/>
       <c r="I789" s="16"/>
       <c r="J789" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="790" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17293,16 +17375,16 @@
         <v>5</v>
       </c>
       <c r="B792" s="15" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C792" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D792" s="15" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E792" s="16" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F792" s="16" t="s">
         <v>9</v>
@@ -17315,7 +17397,7 @@
       </c>
       <c r="I792" s="16"/>
       <c r="J792" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17326,16 +17408,16 @@
     </row>
     <row r="795" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B795" s="15" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C795" s="15" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D795" s="15" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E795" s="16" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="F795" s="16" t="s">
         <v>9</v>
@@ -17346,7 +17428,7 @@
       <c r="H795" s="16"/>
       <c r="I795" s="16"/>
       <c r="J795" s="15" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17355,16 +17437,16 @@
         <v>13</v>
       </c>
       <c r="B797" s="15" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C797" s="15" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D797" s="15" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E797" s="16" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F797" s="16" t="s">
         <v>9</v>
@@ -17375,10 +17457,10 @@
       <c r="H797" s="16"/>
       <c r="I797" s="16"/>
       <c r="J797" s="15" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K797" s="15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17403,16 +17485,16 @@
         <v>5</v>
       </c>
       <c r="B799" s="15" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C799" s="15" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D799" s="15" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E799" s="16" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F799" s="16" t="s">
         <v>9</v>
@@ -17425,10 +17507,10 @@
       </c>
       <c r="I799" s="16"/>
       <c r="J799" s="15" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K799" s="15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="800" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17469,13 +17551,13 @@
     </row>
     <row r="802" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B802" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C802" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D802" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E802" s="9" t="n">
         <v>45692</v>
@@ -17489,21 +17571,21 @@
       <c r="H802" s="9"/>
       <c r="I802" s="9"/>
       <c r="J802" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="803" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B803" s="15" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C803" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D803" s="15" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="E803" s="16" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="F803" s="16" t="s">
         <v>9</v>
@@ -17514,7 +17596,7 @@
       <c r="H803" s="16"/>
       <c r="I803" s="16"/>
       <c r="J803" s="15" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="804" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17703,14 +17785,14 @@
     </row>
     <row r="814" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B814" s="3" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D814" s="3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E814" s="4"/>
       <c r="F814" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G814" s="4"/>
       <c r="H814" s="4"/>
@@ -17738,16 +17820,16 @@
         <v>5</v>
       </c>
       <c r="B816" s="15" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C816" s="15" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D816" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E816" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F816" s="16" t="s">
         <v>154</v>
@@ -17760,7 +17842,7 @@
       </c>
       <c r="I816" s="16"/>
       <c r="J816" s="15" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K816" s="15" t="s">
         <v>42</v>
@@ -17813,7 +17895,7 @@
       <c r="H819" s="2"/>
       <c r="I819" s="2"/>
       <c r="J819" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K819" s="1"/>
       <c r="L819" s="1"/>
@@ -17832,7 +17914,7 @@
       <c r="H820" s="2"/>
       <c r="I820" s="2"/>
       <c r="J820" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K820" s="1"/>
       <c r="L820" s="1"/>
@@ -17851,7 +17933,7 @@
       <c r="H821" s="2"/>
       <c r="I821" s="2"/>
       <c r="J821" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K821" s="1"/>
       <c r="L821" s="1"/>
@@ -17932,7 +18014,7 @@
       <c r="H824" s="2"/>
       <c r="I824" s="2"/>
       <c r="J824" s="1" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="K824" s="1" t="s">
         <v>42</v>
@@ -18213,14 +18295,14 @@
     </row>
     <row r="840" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B840" s="3" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="D840" s="3" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="E840" s="4"/>
       <c r="F840" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G840" s="4"/>
       <c r="H840" s="4"/>
@@ -18510,16 +18592,16 @@
     </row>
     <row r="852" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B852" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C852" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="D852" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="E852" s="9" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="F852" s="9" t="s">
         <v>154</v>
@@ -18530,7 +18612,7 @@
       <c r="H852" s="9"/>
       <c r="I852" s="9"/>
       <c r="J852" s="7" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="K852" s="7" t="s">
         <v>42</v>
@@ -18538,13 +18620,13 @@
     </row>
     <row r="853" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B853" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C853" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D853" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E853" s="9" t="n">
         <v>45692</v>
@@ -18558,7 +18640,7 @@
       <c r="H853" s="9"/>
       <c r="I853" s="9"/>
       <c r="J853" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K853" s="7" t="s">
         <v>42</v>
@@ -18600,16 +18682,16 @@
     </row>
     <row r="855" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B855" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="C855" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="D855" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="E855" s="9" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="F855" s="9" t="s">
         <v>236</v>
@@ -18620,7 +18702,7 @@
       <c r="H855" s="9"/>
       <c r="I855" s="9"/>
       <c r="J855" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="K855" s="7" t="s">
         <v>75</v>
@@ -18628,16 +18710,16 @@
     </row>
     <row r="856" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B856" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C856" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="D856" s="7" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="E856" s="9" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="F856" s="9" t="s">
         <v>236</v>
@@ -18648,7 +18730,7 @@
       <c r="H856" s="9"/>
       <c r="I856" s="9"/>
       <c r="J856" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K856" s="7" t="s">
         <v>65</v>
@@ -18656,16 +18738,16 @@
     </row>
     <row r="857" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B857" s="7" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="C857" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D857" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="E857" s="9" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F857" s="9" t="s">
         <v>154</v>
@@ -18676,7 +18758,7 @@
       <c r="H857" s="9"/>
       <c r="I857" s="9"/>
       <c r="J857" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="K857" s="7" t="s">
         <v>42</v>
@@ -18704,7 +18786,7 @@
       <c r="H858" s="9"/>
       <c r="I858" s="9"/>
       <c r="J858" s="7" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="K858" s="7" t="s">
         <v>128</v>
@@ -18756,16 +18838,16 @@
     </row>
     <row r="862" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B862" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C862" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D862" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E862" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F862" s="9" t="s">
         <v>40</v>
@@ -18776,7 +18858,7 @@
       <c r="H862" s="9"/>
       <c r="I862" s="9"/>
       <c r="J862" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K862" s="7" t="s">
         <v>42</v>
@@ -18823,16 +18905,16 @@
         <v>5</v>
       </c>
       <c r="B865" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C865" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D865" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E865" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F865" s="9" t="s">
         <v>40</v>
@@ -18845,7 +18927,7 @@
       </c>
       <c r="I865" s="9"/>
       <c r="J865" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K865" s="7" t="s">
         <v>42</v>
@@ -18898,7 +18980,7 @@
       <c r="H868" s="2"/>
       <c r="I868" s="2"/>
       <c r="J868" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="K868" s="1"/>
       <c r="L868" s="1"/>
@@ -18917,7 +18999,7 @@
       <c r="H869" s="2"/>
       <c r="I869" s="2"/>
       <c r="J869" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="K869" s="1"/>
       <c r="L869" s="1"/>
@@ -18936,7 +19018,7 @@
       <c r="H870" s="2"/>
       <c r="I870" s="2"/>
       <c r="J870" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K870" s="1"/>
       <c r="L870" s="1"/>
@@ -18963,13 +19045,13 @@
     </row>
     <row r="872" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B872" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C872" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D872" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E872" s="9" t="n">
         <v>45692</v>
@@ -18983,7 +19065,7 @@
       <c r="H872" s="9"/>
       <c r="I872" s="9"/>
       <c r="J872" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K872" s="7" t="s">
         <v>42</v>
@@ -19028,7 +19110,7 @@
       <c r="H874" s="9"/>
       <c r="I874" s="9"/>
       <c r="J874" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="K874" s="7" t="s">
         <v>42</v>
@@ -19056,7 +19138,7 @@
       <c r="H875" s="9"/>
       <c r="I875" s="9"/>
       <c r="J875" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="K875" s="7" t="s">
         <v>42</v>
@@ -19084,7 +19166,7 @@
       <c r="H876" s="9"/>
       <c r="I876" s="9"/>
       <c r="J876" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="K876" s="7" t="s">
         <v>42</v>
@@ -19092,13 +19174,13 @@
     </row>
     <row r="877" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B877" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C877" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D877" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E877" s="9" t="s">
         <v>90</v>
@@ -19112,7 +19194,7 @@
       <c r="H877" s="9"/>
       <c r="I877" s="9"/>
       <c r="J877" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K877" s="7" t="s">
         <v>42</v>
@@ -19148,16 +19230,16 @@
     </row>
     <row r="879" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B879" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C879" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D879" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E879" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F879" s="9" t="s">
         <v>236</v>
@@ -19168,7 +19250,7 @@
       <c r="H879" s="9"/>
       <c r="I879" s="9"/>
       <c r="J879" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K879" s="7" t="s">
         <v>42</v>
@@ -19176,16 +19258,16 @@
     </row>
     <row r="880" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B880" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C880" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D880" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E880" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F880" s="9" t="s">
         <v>40</v>
@@ -19196,7 +19278,7 @@
       <c r="H880" s="9"/>
       <c r="I880" s="9"/>
       <c r="J880" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K880" s="7" t="s">
         <v>42</v>
@@ -19248,13 +19330,13 @@
     </row>
     <row r="884" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B884" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C884" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D884" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E884" s="9" t="s">
         <v>52</v>
@@ -19268,7 +19350,7 @@
       <c r="H884" s="9"/>
       <c r="I884" s="9"/>
       <c r="J884" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K884" s="7" t="s">
         <v>42</v>
@@ -19383,16 +19465,16 @@
         <v>5</v>
       </c>
       <c r="B891" s="15" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C891" s="15" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D891" s="15" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E891" s="16" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F891" s="16" t="s">
         <v>40</v>
@@ -19405,7 +19487,7 @@
       </c>
       <c r="I891" s="16"/>
       <c r="J891" s="15" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K891" s="15" t="s">
         <v>42</v>
@@ -19458,7 +19540,7 @@
       <c r="H894" s="2"/>
       <c r="I894" s="2"/>
       <c r="J894" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K894" s="1"/>
       <c r="L894" s="1"/>
@@ -19477,7 +19559,7 @@
       <c r="H895" s="2"/>
       <c r="I895" s="2"/>
       <c r="J895" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K895" s="1"/>
       <c r="L895" s="1"/>
@@ -19496,7 +19578,7 @@
       <c r="H896" s="2"/>
       <c r="I896" s="2"/>
       <c r="J896" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K896" s="1"/>
       <c r="L896" s="1"/>
@@ -19543,7 +19625,7 @@
       <c r="H898" s="9"/>
       <c r="I898" s="9"/>
       <c r="J898" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="K898" s="7" t="s">
         <v>75</v>
@@ -19571,7 +19653,7 @@
       <c r="H899" s="9"/>
       <c r="I899" s="9"/>
       <c r="J899" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="K899" s="7" t="s">
         <v>42</v>
@@ -19579,13 +19661,13 @@
     </row>
     <row r="900" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B900" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C900" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D900" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E900" s="9" t="s">
         <v>90</v>
@@ -19599,7 +19681,7 @@
       <c r="H900" s="9"/>
       <c r="I900" s="9"/>
       <c r="J900" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="K900" s="7" t="s">
         <v>42</v>
@@ -19655,7 +19737,7 @@
       <c r="H902" s="9"/>
       <c r="I902" s="9"/>
       <c r="J902" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="K902" s="7" t="s">
         <v>42</v>
@@ -19683,7 +19765,7 @@
       <c r="H903" s="9"/>
       <c r="I903" s="9"/>
       <c r="J903" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="K903" s="7" t="s">
         <v>42</v>
@@ -19834,7 +19916,7 @@
       <c r="H910" s="2"/>
       <c r="I910" s="2"/>
       <c r="J910" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K910" s="1"/>
       <c r="L910" s="1"/>
@@ -19853,7 +19935,7 @@
       <c r="H911" s="2"/>
       <c r="I911" s="2"/>
       <c r="J911" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K911" s="1"/>
       <c r="L911" s="1"/>
@@ -19872,7 +19954,7 @@
       <c r="H912" s="2"/>
       <c r="I912" s="2"/>
       <c r="J912" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K912" s="1"/>
       <c r="L912" s="1"/>
@@ -19955,13 +20037,13 @@
     </row>
     <row r="916" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B916" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C916" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D916" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E916" s="9" t="s">
         <v>90</v>
@@ -19975,7 +20057,7 @@
       <c r="H916" s="9"/>
       <c r="I916" s="9"/>
       <c r="J916" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K916" s="7" t="s">
         <v>42</v>
@@ -20067,16 +20149,16 @@
     </row>
     <row r="920" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B920" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C920" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D920" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E920" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F920" s="9" t="s">
         <v>40</v>
@@ -20087,7 +20169,7 @@
       <c r="H920" s="9"/>
       <c r="I920" s="9"/>
       <c r="J920" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K920" s="7" t="s">
         <v>42</v>
@@ -20104,7 +20186,7 @@
       <c r="H921" s="2"/>
       <c r="I921" s="2"/>
       <c r="J921" s="1" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="K921" s="1"/>
       <c r="L921" s="1"/>
@@ -20123,7 +20205,7 @@
       <c r="H922" s="2"/>
       <c r="I922" s="2"/>
       <c r="J922" s="1" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K922" s="1"/>
       <c r="L922" s="1"/>
@@ -20131,24 +20213,24 @@
       <c r="N922" s="1"/>
       <c r="O922" s="1"/>
       <c r="T922" s="13" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="U922" s="13" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
     </row>
     <row r="923" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B923" s="15" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C923" s="15" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="D923" s="15" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="E923" s="16" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="F923" s="16" t="s">
         <v>9</v>
@@ -20159,24 +20241,24 @@
       <c r="H923" s="16"/>
       <c r="I923" s="16"/>
       <c r="J923" s="15" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="K923" s="15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="924" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B924" s="15" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="C924" s="15" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="D924" s="15" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="E924" s="16" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F924" s="16" t="s">
         <v>9</v>
@@ -20187,10 +20269,10 @@
       <c r="H924" s="16"/>
       <c r="I924" s="16"/>
       <c r="J924" s="15" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="K924" s="15" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="925" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20535,7 +20617,7 @@
       <c r="H943" s="2"/>
       <c r="I943" s="2"/>
       <c r="J943" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K943" s="1"/>
       <c r="L943" s="1"/>
@@ -20554,7 +20636,7 @@
       <c r="H944" s="2"/>
       <c r="I944" s="2"/>
       <c r="J944" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K944" s="1"/>
       <c r="L944" s="1"/>
@@ -20573,7 +20655,7 @@
       <c r="H945" s="2"/>
       <c r="I945" s="2"/>
       <c r="J945" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K945" s="1"/>
       <c r="L945" s="1"/>
@@ -20620,7 +20702,7 @@
       <c r="H947" s="9"/>
       <c r="I947" s="9"/>
       <c r="J947" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="K947" s="7" t="s">
         <v>42</v>
@@ -20628,16 +20710,16 @@
     </row>
     <row r="948" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B948" s="15" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C948" s="15" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D948" s="15" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E948" s="16" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F948" s="16" t="s">
         <v>40</v>
@@ -20648,7 +20730,7 @@
       <c r="H948" s="16"/>
       <c r="I948" s="16"/>
       <c r="J948" s="15" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K948" s="15" t="s">
         <v>42</v>
@@ -20684,13 +20766,13 @@
     </row>
     <row r="950" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B950" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C950" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D950" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E950" s="16" t="s">
         <v>90</v>
@@ -20704,7 +20786,7 @@
       <c r="H950" s="16"/>
       <c r="I950" s="16"/>
       <c r="J950" s="15" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="K950" s="15" t="s">
         <v>42</v>
@@ -20712,13 +20794,13 @@
     </row>
     <row r="951" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B951" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C951" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D951" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E951" s="9" t="s">
         <v>90</v>
@@ -20732,7 +20814,7 @@
       <c r="H951" s="9"/>
       <c r="I951" s="9"/>
       <c r="J951" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K951" s="7" t="s">
         <v>42</v>
@@ -20760,7 +20842,7 @@
       <c r="H952" s="16"/>
       <c r="I952" s="16"/>
       <c r="J952" s="15" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K952" s="15" t="s">
         <v>42</v>
@@ -20824,13 +20906,13 @@
     </row>
     <row r="955" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B955" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C955" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D955" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E955" s="9" t="n">
         <v>45692</v>
@@ -20844,7 +20926,7 @@
       <c r="H955" s="9"/>
       <c r="I955" s="9"/>
       <c r="J955" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K955" s="7" t="s">
         <v>42</v>
@@ -20852,16 +20934,16 @@
     </row>
     <row r="956" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B956" s="15" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C956" s="15" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D956" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E956" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F956" s="16" t="s">
         <v>154</v>
@@ -20872,7 +20954,7 @@
       <c r="H956" s="16"/>
       <c r="I956" s="16"/>
       <c r="J956" s="15" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="K956" s="15" t="s">
         <v>42</v>
@@ -20908,13 +20990,13 @@
     </row>
     <row r="958" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B958" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C958" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D958" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E958" s="9" t="s">
         <v>52</v>
@@ -20928,7 +21010,7 @@
       <c r="H958" s="9"/>
       <c r="I958" s="9"/>
       <c r="J958" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K958" s="7" t="s">
         <v>42</v>
@@ -20936,16 +21018,16 @@
     </row>
     <row r="959" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B959" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C959" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D959" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E959" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F959" s="9" t="s">
         <v>236</v>
@@ -20956,7 +21038,7 @@
       <c r="H959" s="9"/>
       <c r="I959" s="9"/>
       <c r="J959" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K959" s="7" t="s">
         <v>42</v>
@@ -21195,7 +21277,7 @@
       <c r="H971" s="2"/>
       <c r="I971" s="2"/>
       <c r="J971" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K971" s="1"/>
       <c r="L971" s="1"/>
@@ -21214,7 +21296,7 @@
       <c r="H972" s="2"/>
       <c r="I972" s="2"/>
       <c r="J972" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K972" s="1"/>
       <c r="L972" s="1"/>
@@ -21233,7 +21315,7 @@
       <c r="H973" s="2"/>
       <c r="I973" s="2"/>
       <c r="J973" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K973" s="1"/>
       <c r="L973" s="1"/>
@@ -21260,13 +21342,13 @@
     </row>
     <row r="975" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B975" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C975" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D975" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E975" s="9" t="n">
         <v>45692</v>
@@ -21280,7 +21362,7 @@
       <c r="H975" s="9"/>
       <c r="I975" s="9"/>
       <c r="J975" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="K975" s="7" t="s">
         <v>42</v>
@@ -21336,7 +21418,7 @@
       <c r="H977" s="9"/>
       <c r="I977" s="9"/>
       <c r="J977" s="7" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="K977" s="7" t="s">
         <v>42</v>
@@ -21344,13 +21426,13 @@
     </row>
     <row r="978" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B978" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C978" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D978" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E978" s="9" t="s">
         <v>90</v>
@@ -21364,7 +21446,7 @@
       <c r="H978" s="9"/>
       <c r="I978" s="9"/>
       <c r="J978" s="7" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="K978" s="7" t="s">
         <v>42</v>
@@ -21392,7 +21474,7 @@
       <c r="H979" s="9"/>
       <c r="I979" s="9"/>
       <c r="J979" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="K979" s="7" t="s">
         <v>42</v>
@@ -21400,16 +21482,16 @@
     </row>
     <row r="980" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B980" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C980" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D980" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E980" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F980" s="9" t="s">
         <v>236</v>
@@ -21420,7 +21502,7 @@
       <c r="H980" s="9"/>
       <c r="I980" s="9"/>
       <c r="J980" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="K980" s="7" t="s">
         <v>42</v>
@@ -21428,16 +21510,16 @@
     </row>
     <row r="981" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B981" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C981" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D981" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E981" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F981" s="9" t="s">
         <v>40</v>
@@ -21448,7 +21530,7 @@
       <c r="H981" s="9"/>
       <c r="I981" s="9"/>
       <c r="J981" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="K981" s="7" t="s">
         <v>42</v>
@@ -21518,13 +21600,13 @@
         <v>5</v>
       </c>
       <c r="B985" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C985" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D985" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E985" s="9" t="s">
         <v>52</v>
@@ -21540,7 +21622,7 @@
       </c>
       <c r="I985" s="9"/>
       <c r="J985" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K985" s="7" t="s">
         <v>42</v>
@@ -21593,7 +21675,7 @@
       <c r="H988" s="2"/>
       <c r="I988" s="2"/>
       <c r="J988" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="K988" s="1"/>
       <c r="L988" s="1"/>
@@ -21601,25 +21683,25 @@
       <c r="N988" s="1"/>
       <c r="O988" s="1"/>
       <c r="R988" s="13" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="S988" s="13" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="T988" s="13" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="U988" s="13" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="V988" s="13" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="W988" s="13" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="X988" s="13" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="989" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21633,7 +21715,7 @@
       <c r="H989" s="2"/>
       <c r="I989" s="2"/>
       <c r="J989" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K989" s="1"/>
       <c r="L989" s="1"/>
@@ -21641,31 +21723,31 @@
       <c r="N989" s="1"/>
       <c r="O989" s="1"/>
       <c r="R989" s="13" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="S989" s="13" t="s">
         <v>58</v>
       </c>
       <c r="T989" s="13" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="U989" s="13" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="V989" s="13" t="s">
+        <v>609</v>
+      </c>
+      <c r="W989" s="13" t="s">
         <v>604</v>
       </c>
-      <c r="W989" s="13" t="s">
-        <v>599</v>
-      </c>
       <c r="X989" s="13" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="Y989" s="13" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="Z989" s="13" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
     </row>
     <row r="990" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21679,7 +21761,7 @@
       <c r="H990" s="2"/>
       <c r="I990" s="2"/>
       <c r="J990" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K990" s="1"/>
       <c r="L990" s="1"/>
@@ -21687,33 +21769,33 @@
       <c r="N990" s="1"/>
       <c r="O990" s="1"/>
       <c r="R990" s="13" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="S990" s="13" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="T990" s="13" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="U990" s="13" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="V990" s="13" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="W990" s="13" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
     </row>
     <row r="991" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B991" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C991" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D991" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E991" s="9" t="n">
         <v>45692</v>
@@ -21727,7 +21809,7 @@
       <c r="H991" s="9"/>
       <c r="I991" s="9"/>
       <c r="J991" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K991" s="7" t="s">
         <v>42</v>
@@ -21800,7 +21882,7 @@
       <c r="H994" s="9"/>
       <c r="I994" s="9"/>
       <c r="J994" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="K994" s="7" t="s">
         <v>42</v>
@@ -21836,13 +21918,13 @@
     </row>
     <row r="996" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B996" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C996" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D996" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E996" s="9" t="s">
         <v>90</v>
@@ -21856,7 +21938,7 @@
       <c r="H996" s="9"/>
       <c r="I996" s="9"/>
       <c r="J996" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K996" s="7" t="s">
         <v>42</v>
@@ -21920,16 +22002,16 @@
     </row>
     <row r="999" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B999" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C999" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D999" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E999" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F999" s="9" t="s">
         <v>236</v>
@@ -21940,7 +22022,7 @@
       <c r="H999" s="9"/>
       <c r="I999" s="9"/>
       <c r="J999" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="K999" s="7" t="s">
         <v>42</v>
@@ -21948,16 +22030,16 @@
     </row>
     <row r="1000" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1000" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C1000" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D1000" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E1000" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F1000" s="9" t="s">
         <v>40</v>
@@ -21968,7 +22050,7 @@
       <c r="H1000" s="9"/>
       <c r="I1000" s="9"/>
       <c r="J1000" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K1000" s="7" t="s">
         <v>42</v>
@@ -21976,16 +22058,16 @@
     </row>
     <row r="1001" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1001" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C1001" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D1001" s="18" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="E1001" s="9" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="F1001" s="9" t="s">
         <v>212</v>
@@ -21996,7 +22078,7 @@
       <c r="H1001" s="9"/>
       <c r="I1001" s="9"/>
       <c r="J1001" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="K1001" s="7" t="s">
         <v>75</v>
@@ -22114,11 +22196,11 @@
     </row>
     <row r="1008" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1008" s="3" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="E1008" s="4"/>
       <c r="F1008" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G1008" s="4"/>
       <c r="H1008" s="4"/>
@@ -22175,28 +22257,28 @@
     </row>
     <row r="1013" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1013" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1014" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1015" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1015" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1017" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1017" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C1017" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D1017" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E1017" s="9" t="n">
         <v>45692</v>
@@ -22210,7 +22292,7 @@
       <c r="H1017" s="9"/>
       <c r="I1017" s="9"/>
       <c r="J1017" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K1017" s="7" t="s">
         <v>42</v>
@@ -22336,16 +22418,16 @@
     </row>
     <row r="1023" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1023" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C1023" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D1023" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="E1023" s="9" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="F1023" s="9" t="s">
         <v>40</v>
@@ -22356,7 +22438,7 @@
       <c r="H1023" s="9"/>
       <c r="I1023" s="9"/>
       <c r="J1023" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="K1023" s="7" t="s">
         <v>42</v>
@@ -22364,13 +22446,13 @@
     </row>
     <row r="1024" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1024" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C1024" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D1024" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E1024" s="9" t="s">
         <v>90</v>
@@ -22384,7 +22466,7 @@
       <c r="H1024" s="9"/>
       <c r="I1024" s="9"/>
       <c r="J1024" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K1024" s="7" t="s">
         <v>42</v>
@@ -22392,13 +22474,13 @@
     </row>
     <row r="1025" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1025" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C1025" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D1025" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E1025" s="9" t="s">
         <v>52</v>
@@ -22412,7 +22494,7 @@
       <c r="H1025" s="9"/>
       <c r="I1025" s="9"/>
       <c r="J1025" s="7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="K1025" s="7" t="s">
         <v>42</v>
@@ -22448,16 +22530,16 @@
     </row>
     <row r="1027" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1027" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C1027" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D1027" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="E1027" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="F1027" s="9" t="s">
         <v>236</v>
@@ -22468,7 +22550,7 @@
       <c r="H1027" s="9"/>
       <c r="I1027" s="9"/>
       <c r="J1027" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="K1027" s="7" t="s">
         <v>42</v>
@@ -22476,16 +22558,16 @@
     </row>
     <row r="1028" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1028" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C1028" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D1028" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E1028" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F1028" s="9" t="s">
         <v>40</v>
@@ -22496,7 +22578,7 @@
       <c r="H1028" s="9"/>
       <c r="I1028" s="9"/>
       <c r="J1028" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="K1028" s="7" t="s">
         <v>42</v>
@@ -38879,11 +38961,11 @@
     </row>
     <row r="1031" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1031" s="3" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="E1031" s="4"/>
       <c r="F1031" s="4" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="G1031" s="4"/>
       <c r="H1031" s="4"/>
@@ -38936,43 +39018,43 @@
     </row>
     <row r="1036" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1036" s="1" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="1037" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1037" s="1" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="1038" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1038" s="1" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
     </row>
     <row r="1040" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1040" s="1" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="1041" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1041" s="1" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
     </row>
     <row r="1042" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1042" s="1" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
     </row>
     <row r="1044" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1044" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="C1044" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D1044" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="E1044" s="9" t="n">
         <v>45692</v>
@@ -38986,7 +39068,7 @@
       <c r="H1044" s="9"/>
       <c r="I1044" s="9"/>
       <c r="J1044" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="K1044" s="7" t="s">
         <v>42</v>
@@ -39134,16 +39216,16 @@
     </row>
     <row r="1050" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1050" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C1050" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D1050" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="E1050" s="9" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F1050" s="9" t="s">
         <v>40</v>
@@ -39154,7 +39236,7 @@
       <c r="H1050" s="9"/>
       <c r="I1050" s="9"/>
       <c r="J1050" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="K1050" s="7" t="s">
         <v>42</v>
@@ -39162,13 +39244,13 @@
     </row>
     <row r="1051" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1051" s="7" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C1051" s="7" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D1051" s="7" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="E1051" s="9" t="s">
         <v>52</v>
@@ -39182,7 +39264,7 @@
       <c r="H1051" s="9"/>
       <c r="I1051" s="9"/>
       <c r="J1051" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="K1051" s="7" t="s">
         <v>42</v>
@@ -39274,16 +39356,16 @@
     </row>
     <row r="1055" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1055" s="15" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="C1055" s="15" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D1055" s="15" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E1055" s="16" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F1055" s="16" t="s">
         <v>40</v>
@@ -39294,7 +39376,7 @@
       <c r="H1055" s="16"/>
       <c r="I1055" s="16"/>
       <c r="J1055" s="15" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="K1055" s="15" t="s">
         <v>42</v>
@@ -39322,7 +39404,7 @@
       <c r="H1056" s="9"/>
       <c r="I1056" s="9"/>
       <c r="J1056" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="K1056" s="7" t="s">
         <v>42</v>
@@ -39330,13 +39412,13 @@
     </row>
     <row r="1057" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1057" s="15" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="C1057" s="15" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="D1057" s="15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E1057" s="16" t="s">
         <v>90</v>
@@ -39350,7 +39432,7 @@
       <c r="H1057" s="16"/>
       <c r="I1057" s="16"/>
       <c r="J1057" s="15" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K1057" s="15" t="s">
         <v>42</v>
@@ -39414,13 +39496,13 @@
     </row>
     <row r="1060" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1060" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C1060" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="D1060" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E1060" s="9" t="s">
         <v>90</v>
@@ -39434,7 +39516,7 @@
       <c r="H1060" s="9"/>
       <c r="I1060" s="9"/>
       <c r="J1060" s="7" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="K1060" s="7" t="s">
         <v>42</v>
@@ -39462,7 +39544,7 @@
       <c r="H1061" s="16"/>
       <c r="I1061" s="16"/>
       <c r="J1061" s="15" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="K1061" s="15" t="s">
         <v>42</v>
@@ -39498,13 +39580,13 @@
     </row>
     <row r="1063" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1063" s="15" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C1063" s="15" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D1063" s="15" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="E1063" s="16" t="s">
         <v>90</v>
@@ -39518,7 +39600,7 @@
       <c r="H1063" s="16"/>
       <c r="I1063" s="16"/>
       <c r="J1063" s="15" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="K1063" s="15" t="s">
         <v>42</v>
@@ -39546,7 +39628,7 @@
       <c r="H1064" s="9"/>
       <c r="I1064" s="9"/>
       <c r="J1064" s="7" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="K1064" s="7" t="s">
         <v>42</v>
@@ -39554,13 +39636,13 @@
     </row>
     <row r="1065" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1065" s="15" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C1065" s="15" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D1065" s="15" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E1065" s="16" t="s">
         <v>90</v>
@@ -39574,7 +39656,7 @@
       <c r="H1065" s="16"/>
       <c r="I1065" s="16"/>
       <c r="J1065" s="15" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="K1065" s="15" t="s">
         <v>42</v>
@@ -39608,17 +39690,37 @@
         <v>42</v>
       </c>
     </row>
-    <row r="1067" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="J1067" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="K1067" s="1" t="s">
+    <row r="1067" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1067" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1067" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="D1067" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="E1067" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="F1067" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1067" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1067" s="16"/>
+      <c r="I1067" s="16"/>
+      <c r="J1067" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1067" s="15" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="1068" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1068" s="1" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="1069" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -39643,7 +39745,7 @@
       <c r="H1069" s="16"/>
       <c r="I1069" s="16"/>
       <c r="J1069" s="15" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="K1069" s="15" t="s">
         <v>65</v>
@@ -39671,7 +39773,7 @@
       <c r="H1070" s="9"/>
       <c r="I1070" s="9"/>
       <c r="J1070" s="7" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="K1070" s="7" t="s">
         <v>75</v>
@@ -39679,7 +39781,7 @@
     </row>
     <row r="1071" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1071" s="1" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="K1071" s="1" t="s">
         <v>65</v>
@@ -39687,16 +39789,16 @@
     </row>
     <row r="1072" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1072" s="15" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C1072" s="15" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="D1072" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E1072" s="16" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F1072" s="16" t="s">
         <v>154</v>
@@ -39707,7 +39809,7 @@
       <c r="H1072" s="16"/>
       <c r="I1072" s="16"/>
       <c r="J1072" s="15" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="K1072" s="15" t="s">
         <v>42</v>
@@ -39715,16 +39817,16 @@
     </row>
     <row r="1073" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1073" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C1073" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="D1073" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E1073" s="9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F1073" s="9" t="s">
         <v>236</v>
@@ -39735,7 +39837,7 @@
       <c r="H1073" s="9"/>
       <c r="I1073" s="9"/>
       <c r="J1073" s="7" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="K1073" s="7" t="s">
         <v>42</v>
@@ -39743,7 +39845,7 @@
     </row>
     <row r="1074" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J1074" s="1" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="K1074" s="1" t="s">
         <v>42</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4560" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="688">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -2558,8 +2558,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1138" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1161" activeCellId="0" sqref="1161:1161"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A885" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H906" activeCellId="0" sqref="H906"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19457,7 +19457,9 @@
       <c r="G905" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H905" s="13"/>
+      <c r="H905" s="13" t="s">
+        <v>11</v>
+      </c>
       <c r="I905" s="13"/>
       <c r="J905" s="12" t="s">
         <v>634</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4561" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4562" uniqueCount="688">
   <si>
     <t xml:space="preserve">Pkg</t>
   </si>
@@ -2558,8 +2558,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A885" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H906" activeCellId="0" sqref="H906"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A133" activeCellId="0" sqref="132:133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5001,45 +5001,49 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="s">
+    <row r="132" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B132" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C132" s="1" t="s">
+      <c r="C132" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="D132" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F132" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="s">
+      <c r="G132" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="13"/>
+      <c r="I132" s="13"/>
+    </row>
+    <row r="133" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B133" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C133" s="1" t="s">
+      <c r="C133" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D133" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="F133" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G133" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="G133" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="13"/>
+      <c r="I133" s="13"/>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="1" t="s">
@@ -5896,25 +5900,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="1" t="s">
+    <row r="181" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B181" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F181" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G181" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G181" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="13"/>
+      <c r="I181" s="13"/>
     </row>
     <row r="182" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="12" t="s">
@@ -6155,28 +6161,30 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
+    <row r="196" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A196" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F196" s="2" t="s">
+      <c r="F196" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G196" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G196" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H196" s="13"/>
+      <c r="I196" s="13"/>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="10"/>
@@ -6354,51 +6362,55 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="1" t="s">
+    <row r="207" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B207" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C207" s="1" t="s">
+      <c r="C207" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="E207" s="2" t="s">
+      <c r="E207" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F207" s="9" t="s">
+      <c r="F207" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G207" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J207" s="1" t="s">
+      <c r="G207" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" s="13"/>
+      <c r="I207" s="13"/>
+      <c r="J207" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="K207" s="1" t="s">
+      <c r="K207" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="1" t="s">
+    <row r="208" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B208" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C208" s="1" t="s">
+      <c r="C208" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E208" s="2" t="s">
+      <c r="E208" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F208" s="2" t="s">
+      <c r="F208" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G208" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G208" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H208" s="13"/>
+      <c r="I208" s="13"/>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="10"/>
@@ -6450,28 +6462,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
+    <row r="212" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="B212" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C212" s="1" t="s">
+      <c r="C212" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D212" s="1" t="s">
+      <c r="D212" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F212" s="2" t="s">
+      <c r="F212" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G212" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G212" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="10"/>
@@ -6523,28 +6537,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
+    <row r="216" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B216" s="1" t="s">
+      <c r="B216" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C216" s="1" t="s">
+      <c r="C216" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F216" s="2" t="s">
+      <c r="F216" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G216" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G216" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="10"/>
@@ -8801,28 +8817,30 @@
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="350" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A350" s="1" t="s">
+    <row r="350" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A350" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B350" s="1" t="s">
+      <c r="B350" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C350" s="1" t="s">
+      <c r="C350" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D350" s="1" t="s">
+      <c r="D350" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E350" s="2" t="s">
+      <c r="E350" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F350" s="2" t="s">
+      <c r="F350" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G350" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G350" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H350" s="13"/>
+      <c r="I350" s="13"/>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="10"/>
@@ -9362,25 +9380,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B383" s="1" t="s">
+    <row r="383" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B383" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C383" s="1" t="s">
+      <c r="C383" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D383" s="1" t="s">
+      <c r="D383" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E383" s="2" t="s">
+      <c r="E383" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F383" s="2" t="s">
+      <c r="F383" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G383" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G383" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H383" s="13"/>
+      <c r="I383" s="13"/>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16510,25 +16530,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B728" s="1" t="s">
+    <row r="728" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B728" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C728" s="1" t="s">
+      <c r="C728" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D728" s="1" t="s">
+      <c r="D728" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E728" s="2" t="s">
+      <c r="E728" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F728" s="2" t="s">
+      <c r="F728" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G728" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G728" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H728" s="13"/>
+      <c r="I728" s="13"/>
     </row>
     <row r="729" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B729" s="1" t="s">
@@ -17627,28 +17649,30 @@
       </c>
     </row>
     <row r="810" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="811" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A811" s="1" t="s">
+    <row r="811" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A811" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B811" s="1" t="s">
+      <c r="B811" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C811" s="1" t="s">
+      <c r="C811" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D811" s="1" t="s">
+      <c r="D811" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E811" s="2" t="s">
+      <c r="E811" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F811" s="2" t="s">
+      <c r="F811" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G811" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G811" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H811" s="13"/>
+      <c r="I811" s="13"/>
     </row>
     <row r="812" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="10"/>
@@ -17986,25 +18010,27 @@
       <c r="N826" s="1"/>
       <c r="O826" s="1"/>
     </row>
-    <row r="827" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B827" s="1" t="s">
+    <row r="827" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B827" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C827" s="1" t="s">
+      <c r="C827" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D827" s="1" t="s">
+      <c r="D827" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E827" s="2" t="s">
+      <c r="E827" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F827" s="2" t="s">
+      <c r="F827" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G827" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G827" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H827" s="13"/>
+      <c r="I827" s="13"/>
     </row>
     <row r="828" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="1"/>
@@ -19398,25 +19424,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="903" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B903" s="1" t="s">
+    <row r="903" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B903" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C903" s="1" t="s">
+      <c r="C903" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D903" s="1" t="s">
+      <c r="D903" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E903" s="2" t="s">
+      <c r="E903" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F903" s="2" t="s">
+      <c r="F903" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G903" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G903" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H903" s="13"/>
+      <c r="I903" s="13"/>
     </row>
     <row r="904" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="10"/>
@@ -19762,25 +19790,27 @@
       <c r="N917" s="1"/>
       <c r="O917" s="1"/>
     </row>
-    <row r="918" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B918" s="1" t="s">
+    <row r="918" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B918" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C918" s="1" t="s">
+      <c r="C918" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D918" s="1" t="s">
+      <c r="D918" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E918" s="2" t="s">
+      <c r="E918" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F918" s="2" t="s">
+      <c r="F918" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G918" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G918" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H918" s="13"/>
+      <c r="I918" s="13"/>
     </row>
     <row r="919" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A919" s="1"/>
@@ -21938,25 +21968,27 @@
       <c r="N1013" s="1"/>
       <c r="O1013" s="1"/>
     </row>
-    <row r="1014" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1014" s="1" t="s">
+    <row r="1014" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1014" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C1014" s="1" t="s">
+      <c r="C1014" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D1014" s="1" t="s">
+      <c r="D1014" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E1014" s="2" t="s">
+      <c r="E1014" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F1014" s="2" t="s">
+      <c r="F1014" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G1014" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1014" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1014" s="13"/>
+      <c r="I1014" s="13"/>
     </row>
     <row r="1015" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1015" s="1"/>
@@ -22716,28 +22748,30 @@
       <c r="N1048" s="1"/>
       <c r="O1048" s="1"/>
     </row>
-    <row r="1049" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1049" s="1" t="s">
+    <row r="1049" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1049" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1049" s="1" t="s">
+      <c r="B1049" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C1049" s="1" t="s">
+      <c r="C1049" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D1049" s="1" t="s">
+      <c r="D1049" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E1049" s="2" t="s">
+      <c r="E1049" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F1049" s="2" t="s">
+      <c r="F1049" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G1049" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1049" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1049" s="13"/>
+      <c r="I1049" s="13"/>
     </row>
     <row r="1050" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1050" s="1"/>
@@ -40615,28 +40649,32 @@
       <c r="N1119" s="10"/>
       <c r="O1119" s="10"/>
     </row>
-    <row r="1120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1120" s="1" t="s">
+    <row r="1120" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1120" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1120" s="1" t="s">
+      <c r="B1120" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C1120" s="1" t="s">
+      <c r="C1120" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="D1120" s="1" t="s">
+      <c r="D1120" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="E1120" s="2" t="s">
+      <c r="E1120" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F1120" s="2" t="s">
+      <c r="F1120" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="G1120" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="G1120" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1120" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1120" s="13"/>
     </row>
     <row r="1122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1122" s="1" t="s">

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -2558,8 +2558,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1165"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A58" activeCellId="0" sqref="A58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1153" activeCellId="0" sqref="C1153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41329,13 +41329,13 @@
     </row>
     <row r="1153" s="12" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1153" s="12" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="C1153" s="12" t="s">
-        <v>203</v>
+        <v>381</v>
       </c>
       <c r="D1153" s="12" t="s">
-        <v>204</v>
+        <v>382</v>
       </c>
       <c r="E1153" s="13" t="s">
         <v>97</v>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -1690,6 +1690,57 @@
     <t xml:space="preserve">pbr&gt;=3.1.1</t>
   </si>
   <si>
+    <t xml:space="preserve"># General</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.utils&gt;=3.41.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.log&gt;=3.44.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.config&gt;=6.9.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Metrics Exporter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prometheus-client</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja2&gt;=2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD License (3 clause)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.context&gt;=2.19.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebOb&gt;=1.8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># NOTE(harlowja): Because oslo.serialization is used by the client libraries,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># adding a new feature to oslo.serialization means adding a new dependency,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b30.13.25.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msgpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/Jun/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msgpack&gt;=0.5.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">oslo.i18n&gt;=3.20.0</t>
   </si>
   <si>
@@ -1712,57 +1763,6 @@
   </si>
   <si>
     <t xml:space="preserve">oslo.cache&gt;=1.26.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># General</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.utils&gt;=3.41.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.log&gt;=3.44.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.config&gt;=6.9.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Metrics Exporter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prometheus-client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja2&gt;=2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD License (3 clause)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.context&gt;=2.19.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebOb&gt;=1.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># NOTE(harlowja): Because oslo.serialization is used by the client libraries,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># adding a new feature to oslo.serialization means adding a new dependency,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b30.13.25.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Msgpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/Jun/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msgpack&gt;=0.5.2</t>
   </si>
   <si>
     <t xml:space="preserve">i4.1.42</t>
@@ -2558,8 +2558,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A583" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A591" activeCellId="0" sqref="591:591"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A691" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A716" activeCellId="0" sqref="A716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14200,36 +14200,36 @@
       <c r="N620" s="10"/>
       <c r="O620" s="10"/>
     </row>
-    <row r="621" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="13" t="s">
+    <row r="621" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B621" s="13" t="s">
+      <c r="B621" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C621" s="13" t="s">
+      <c r="C621" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="D621" s="13" t="s">
+      <c r="D621" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="E621" s="14" t="s">
+      <c r="E621" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F621" s="14" t="s">
+      <c r="F621" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G621" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H621" s="14" t="s">
+      <c r="G621" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H621" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="I621" s="14"/>
-      <c r="J621" s="13" t="s">
+      <c r="I621" s="9"/>
+      <c r="J621" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K621" s="13" t="s">
+      <c r="K621" s="7" t="s">
         <v>43</v>
       </c>
     </row>
@@ -14616,13 +14616,13 @@
         <v>5</v>
       </c>
       <c r="B639" s="13" t="s">
-        <v>283</v>
+        <v>389</v>
       </c>
       <c r="C639" s="13" t="s">
-        <v>284</v>
+        <v>390</v>
       </c>
       <c r="D639" s="13" t="s">
-        <v>285</v>
+        <v>391</v>
       </c>
       <c r="E639" s="14" t="s">
         <v>97</v>
@@ -14634,11 +14634,11 @@
         <v>10</v>
       </c>
       <c r="H639" s="14" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="I639" s="14"/>
       <c r="J639" s="13" t="s">
-        <v>286</v>
+        <v>392</v>
       </c>
       <c r="K639" s="13" t="s">
         <v>43</v>
@@ -14754,7 +14754,8 @@
       <c r="N645" s="1"/>
       <c r="O645" s="1"/>
     </row>
-    <row r="646" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="1"/>
       <c r="B646" s="7" t="s">
         <v>462</v>
       </c>
@@ -14773,80 +14774,65 @@
       <c r="G646" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H646" s="9"/>
-      <c r="I646" s="9"/>
-      <c r="J646" s="7" t="s">
+      <c r="H646" s="2"/>
+      <c r="I646" s="2"/>
+      <c r="J646" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="K646" s="7" t="s">
+      <c r="K646" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="647" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B647" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C647" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D647" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E647" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F647" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G647" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H647" s="9"/>
-      <c r="I647" s="9"/>
-      <c r="J647" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K647" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="648" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B648" s="7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C648" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="D648" s="7" t="s">
-        <v>531</v>
-      </c>
-      <c r="E648" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F648" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G648" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H648" s="9"/>
-      <c r="I648" s="9"/>
-      <c r="J648" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="K648" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="649" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L646" s="1"/>
+      <c r="M646" s="1"/>
+      <c r="N646" s="1"/>
+      <c r="O646" s="1"/>
+    </row>
+    <row r="647" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="1"/>
+      <c r="B647" s="1"/>
+      <c r="C647" s="1"/>
+      <c r="D647" s="1"/>
+      <c r="E647" s="2"/>
+      <c r="F647" s="2"/>
+      <c r="G647" s="2"/>
+      <c r="H647" s="2"/>
+      <c r="I647" s="2"/>
+      <c r="J647" s="1"/>
+      <c r="K647" s="1"/>
+      <c r="L647" s="1"/>
+      <c r="M647" s="1"/>
+      <c r="N647" s="1"/>
+      <c r="O647" s="1"/>
+    </row>
+    <row r="648" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="1"/>
+      <c r="B648" s="1"/>
+      <c r="C648" s="1"/>
+      <c r="D648" s="1"/>
+      <c r="E648" s="2"/>
+      <c r="F648" s="2"/>
+      <c r="G648" s="2"/>
+      <c r="H648" s="2"/>
+      <c r="I648" s="2"/>
+      <c r="J648" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="K648" s="1"/>
+      <c r="L648" s="1"/>
+      <c r="M648" s="1"/>
+      <c r="N648" s="1"/>
+      <c r="O648" s="1"/>
+    </row>
+    <row r="649" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="1"/>
       <c r="B649" s="7" t="s">
-        <v>482</v>
+        <v>114</v>
       </c>
       <c r="C649" s="7" t="s">
-        <v>483</v>
+        <v>115</v>
       </c>
       <c r="D649" s="7" t="s">
-        <v>484</v>
+        <v>116</v>
       </c>
       <c r="E649" s="9" t="s">
         <v>97</v>
@@ -14857,52 +14843,58 @@
       <c r="G649" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H649" s="9"/>
-      <c r="I649" s="9"/>
-      <c r="J649" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="K649" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="650" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B650" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C650" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D650" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E650" s="9" t="s">
+      <c r="H649" s="2"/>
+      <c r="I649" s="2"/>
+      <c r="J649" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="K649" s="1"/>
+      <c r="L649" s="1"/>
+      <c r="M649" s="1"/>
+      <c r="N649" s="1"/>
+      <c r="O649" s="1"/>
+    </row>
+    <row r="650" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="1"/>
+      <c r="B650" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C650" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D650" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E650" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F650" s="9" t="s">
+      <c r="F650" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G650" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H650" s="9"/>
-      <c r="I650" s="9"/>
-      <c r="J650" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="K650" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="651" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G650" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H650" s="2"/>
+      <c r="I650" s="2"/>
+      <c r="J650" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="K650" s="1"/>
+      <c r="L650" s="1"/>
+      <c r="M650" s="1"/>
+      <c r="N650" s="1"/>
+      <c r="O650" s="1"/>
+    </row>
+    <row r="651" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="1"/>
       <c r="B651" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="C651" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D651" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="E651" s="9" t="s">
         <v>97</v>
@@ -14913,190 +14905,178 @@
       <c r="G651" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H651" s="9"/>
-      <c r="I651" s="9"/>
-      <c r="J651" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="K651" s="7" t="s">
+      <c r="H651" s="2"/>
+      <c r="I651" s="2"/>
+      <c r="J651" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K651" s="1"/>
+      <c r="L651" s="1"/>
+      <c r="M651" s="1"/>
+      <c r="N651" s="1"/>
+      <c r="O651" s="1"/>
+    </row>
+    <row r="652" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="1"/>
+      <c r="B652" s="1"/>
+      <c r="C652" s="1"/>
+      <c r="D652" s="1"/>
+      <c r="E652" s="2"/>
+      <c r="F652" s="2"/>
+      <c r="G652" s="2"/>
+      <c r="H652" s="2"/>
+      <c r="I652" s="2"/>
+      <c r="J652" s="1"/>
+      <c r="K652" s="1"/>
+      <c r="L652" s="1"/>
+      <c r="M652" s="1"/>
+      <c r="N652" s="1"/>
+      <c r="O652" s="1"/>
+    </row>
+    <row r="653" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="1"/>
+      <c r="B653" s="1"/>
+      <c r="C653" s="1"/>
+      <c r="D653" s="1"/>
+      <c r="E653" s="2"/>
+      <c r="F653" s="2"/>
+      <c r="G653" s="2"/>
+      <c r="H653" s="2"/>
+      <c r="I653" s="2"/>
+      <c r="J653" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K653" s="1"/>
+      <c r="L653" s="1"/>
+      <c r="M653" s="1"/>
+      <c r="N653" s="1"/>
+      <c r="O653" s="1"/>
+    </row>
+    <row r="654" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C654" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="D654" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E654" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F654" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G654" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H654" s="14"/>
+      <c r="I654" s="14"/>
+      <c r="J654" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="655" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="1"/>
+      <c r="B655" s="1"/>
+      <c r="C655" s="1"/>
+      <c r="D655" s="1"/>
+      <c r="E655" s="2"/>
+      <c r="F655" s="2"/>
+      <c r="G655" s="2"/>
+      <c r="H655" s="2"/>
+      <c r="I655" s="2"/>
+      <c r="J655" s="1"/>
+      <c r="K655" s="1"/>
+      <c r="L655" s="1"/>
+      <c r="M655" s="1"/>
+      <c r="N655" s="1"/>
+      <c r="O655" s="1"/>
+    </row>
+    <row r="656" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A656" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B656" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C656" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D656" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E656" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F656" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G656" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H656" s="14"/>
+      <c r="I656" s="14"/>
+      <c r="J656" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K656" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="652" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B652" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C652" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D652" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E652" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F652" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G652" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H652" s="9"/>
-      <c r="I652" s="9"/>
-      <c r="J652" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K652" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="653" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B653" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C653" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D653" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E653" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F653" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G653" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H653" s="9"/>
-      <c r="I653" s="9"/>
-      <c r="J653" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K653" s="7" t="s">
+    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="10"/>
+      <c r="B657" s="10"/>
+      <c r="C657" s="10"/>
+      <c r="D657" s="10"/>
+      <c r="E657" s="11"/>
+      <c r="F657" s="11"/>
+      <c r="G657" s="11"/>
+      <c r="H657" s="11"/>
+      <c r="I657" s="11"/>
+      <c r="J657" s="10"/>
+      <c r="K657" s="10"/>
+      <c r="L657" s="10"/>
+      <c r="M657" s="10"/>
+      <c r="N657" s="10"/>
+      <c r="O657" s="10"/>
+    </row>
+    <row r="658" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B658" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C658" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="D658" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="E658" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F658" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G658" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H658" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I658" s="14"/>
+      <c r="J658" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="K658" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="654" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1"/>
-      <c r="B654" s="1"/>
-      <c r="C654" s="1"/>
-      <c r="D654" s="1"/>
-      <c r="E654" s="2"/>
-      <c r="F654" s="2"/>
-      <c r="G654" s="2"/>
-      <c r="H654" s="2"/>
-      <c r="I654" s="2"/>
-      <c r="J654" s="1"/>
-      <c r="K654" s="1"/>
-      <c r="L654" s="1"/>
-      <c r="M654" s="1"/>
-      <c r="N654" s="1"/>
-      <c r="O654" s="1"/>
-    </row>
-    <row r="655" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B655" s="13" t="s">
-        <v>559</v>
-      </c>
-      <c r="C655" s="13" t="s">
-        <v>560</v>
-      </c>
-      <c r="D655" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="E655" s="14" t="s">
-        <v>562</v>
-      </c>
-      <c r="F655" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G655" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H655" s="14"/>
-      <c r="I655" s="14"/>
-      <c r="J655" s="13" t="s">
-        <v>563</v>
-      </c>
-      <c r="K655" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="10"/>
-      <c r="B656" s="10"/>
-      <c r="C656" s="10"/>
-      <c r="D656" s="10"/>
-      <c r="E656" s="11"/>
-      <c r="F656" s="11"/>
-      <c r="G656" s="11"/>
-      <c r="H656" s="11"/>
-      <c r="I656" s="11"/>
-      <c r="J656" s="10"/>
-      <c r="K656" s="10"/>
-      <c r="L656" s="10"/>
-      <c r="M656" s="10"/>
-      <c r="N656" s="10"/>
-      <c r="O656" s="10"/>
-    </row>
-    <row r="657" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B657" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="C657" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="D657" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="E657" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F657" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G657" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H657" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I657" s="14"/>
-      <c r="J657" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="K657" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="658" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="1"/>
-      <c r="B658" s="1"/>
-      <c r="C658" s="1"/>
-      <c r="D658" s="1"/>
-      <c r="E658" s="2"/>
-      <c r="F658" s="2"/>
-      <c r="G658" s="2"/>
-      <c r="H658" s="2"/>
-      <c r="I658" s="2"/>
-      <c r="J658" s="1"/>
-      <c r="K658" s="1"/>
-      <c r="L658" s="1"/>
-      <c r="M658" s="1"/>
-      <c r="N658" s="1"/>
-      <c r="O658" s="1"/>
-    </row>
     <row r="659" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A659" s="1"/>
       <c r="B659" s="1"/>
       <c r="C659" s="1"/>
       <c r="D659" s="1"/>
@@ -15113,7 +15093,9 @@
       <c r="O659" s="1"/>
     </row>
     <row r="660" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1"/>
+      <c r="A660" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -15122,9 +15104,7 @@
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
       <c r="I660" s="2"/>
-      <c r="J660" s="1" t="s">
-        <v>504</v>
-      </c>
+      <c r="J660" s="1"/>
       <c r="K660" s="1"/>
       <c r="L660" s="1"/>
       <c r="M660" s="1"/>
@@ -15142,7 +15122,7 @@
       <c r="H661" s="2"/>
       <c r="I661" s="2"/>
       <c r="J661" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K661" s="1"/>
       <c r="L661" s="1"/>
@@ -15161,7 +15141,7 @@
       <c r="H662" s="2"/>
       <c r="I662" s="2"/>
       <c r="J662" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K662" s="1"/>
       <c r="L662" s="1"/>
@@ -15179,7 +15159,9 @@
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
       <c r="I663" s="2"/>
-      <c r="J663" s="1"/>
+      <c r="J663" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="K663" s="1"/>
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
@@ -15188,83 +15170,86 @@
     </row>
     <row r="664" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1"/>
-      <c r="B664" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C664" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D664" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E664" s="9" t="n">
-        <v>45692</v>
-      </c>
-      <c r="F664" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G664" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="B664" s="1"/>
+      <c r="C664" s="1"/>
+      <c r="D664" s="1"/>
+      <c r="E664" s="2"/>
+      <c r="F664" s="2"/>
+      <c r="G664" s="2"/>
       <c r="H664" s="2"/>
       <c r="I664" s="2"/>
-      <c r="J664" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K664" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="J664" s="1"/>
+      <c r="K664" s="1"/>
       <c r="L664" s="1"/>
       <c r="M664" s="1"/>
       <c r="N664" s="1"/>
       <c r="O664" s="1"/>
     </row>
-    <row r="665" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="1"/>
-      <c r="B665" s="1"/>
-      <c r="C665" s="1"/>
-      <c r="D665" s="1"/>
-      <c r="E665" s="2"/>
-      <c r="F665" s="2"/>
-      <c r="G665" s="2"/>
-      <c r="H665" s="2"/>
-      <c r="I665" s="2"/>
-      <c r="J665" s="1"/>
-      <c r="K665" s="1"/>
-      <c r="L665" s="1"/>
-      <c r="M665" s="1"/>
-      <c r="N665" s="1"/>
-      <c r="O665" s="1"/>
-    </row>
-    <row r="666" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="1"/>
-      <c r="B666" s="1"/>
-      <c r="C666" s="1"/>
-      <c r="D666" s="1"/>
-      <c r="E666" s="2"/>
-      <c r="F666" s="2"/>
-      <c r="G666" s="2"/>
-      <c r="H666" s="2"/>
-      <c r="I666" s="2"/>
-      <c r="J666" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="K666" s="1"/>
-      <c r="L666" s="1"/>
-      <c r="M666" s="1"/>
-      <c r="N666" s="1"/>
-      <c r="O666" s="1"/>
-    </row>
-    <row r="667" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="1"/>
+    <row r="665" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B665" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D665" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E665" s="9" t="n">
+        <v>45692</v>
+      </c>
+      <c r="F665" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G665" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H665" s="9"/>
+      <c r="I665" s="9"/>
+      <c r="J665" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K665" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="666" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B666" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C666" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D666" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E666" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F666" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G666" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H666" s="9"/>
+      <c r="I666" s="9"/>
+      <c r="J666" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K666" s="7" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="667" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B667" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C667" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D667" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E667" s="9" t="s">
         <v>97</v>
@@ -15275,27 +15260,24 @@
       <c r="G667" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H667" s="2"/>
-      <c r="I667" s="2"/>
-      <c r="J667" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="K667" s="1"/>
-      <c r="L667" s="1"/>
-      <c r="M667" s="1"/>
-      <c r="N667" s="1"/>
-      <c r="O667" s="1"/>
-    </row>
-    <row r="668" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="1"/>
+      <c r="H667" s="9"/>
+      <c r="I667" s="9"/>
+      <c r="J667" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K667" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="668" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B668" s="13" t="s">
-        <v>283</v>
+        <v>529</v>
       </c>
       <c r="C668" s="13" t="s">
-        <v>284</v>
+        <v>530</v>
       </c>
       <c r="D668" s="13" t="s">
-        <v>285</v>
+        <v>531</v>
       </c>
       <c r="E668" s="14" t="s">
         <v>97</v>
@@ -15306,27 +15288,24 @@
       <c r="G668" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H668" s="2"/>
-      <c r="I668" s="2"/>
-      <c r="J668" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="K668" s="1"/>
-      <c r="L668" s="1"/>
-      <c r="M668" s="1"/>
-      <c r="N668" s="1"/>
-      <c r="O668" s="1"/>
-    </row>
-    <row r="669" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="1"/>
+      <c r="H668" s="14"/>
+      <c r="I668" s="14"/>
+      <c r="J668" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="K668" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="669" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B669" s="7" t="s">
-        <v>164</v>
+        <v>482</v>
       </c>
       <c r="C669" s="7" t="s">
-        <v>165</v>
+        <v>483</v>
       </c>
       <c r="D669" s="7" t="s">
-        <v>166</v>
+        <v>484</v>
       </c>
       <c r="E669" s="9" t="s">
         <v>97</v>
@@ -15337,65 +15316,83 @@
       <c r="G669" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H669" s="2"/>
-      <c r="I669" s="2"/>
-      <c r="J669" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="K669" s="1"/>
-      <c r="L669" s="1"/>
-      <c r="M669" s="1"/>
-      <c r="N669" s="1"/>
-      <c r="O669" s="1"/>
-    </row>
-    <row r="670" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="1"/>
-      <c r="B670" s="1"/>
-      <c r="C670" s="1"/>
-      <c r="D670" s="1"/>
-      <c r="E670" s="2"/>
-      <c r="F670" s="2"/>
-      <c r="G670" s="2"/>
-      <c r="H670" s="2"/>
-      <c r="I670" s="2"/>
-      <c r="J670" s="1"/>
-      <c r="K670" s="1"/>
-      <c r="L670" s="1"/>
-      <c r="M670" s="1"/>
-      <c r="N670" s="1"/>
-      <c r="O670" s="1"/>
-    </row>
-    <row r="671" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="1"/>
-      <c r="B671" s="1"/>
-      <c r="C671" s="1"/>
-      <c r="D671" s="1"/>
-      <c r="E671" s="2"/>
-      <c r="F671" s="2"/>
-      <c r="G671" s="2"/>
-      <c r="H671" s="2"/>
-      <c r="I671" s="2"/>
-      <c r="J671" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="K671" s="1"/>
-      <c r="L671" s="1"/>
-      <c r="M671" s="1"/>
-      <c r="N671" s="1"/>
-      <c r="O671" s="1"/>
+      <c r="H669" s="9"/>
+      <c r="I669" s="9"/>
+      <c r="J669" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K669" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="670" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B670" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C670" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D670" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E670" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F670" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G670" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H670" s="9"/>
+      <c r="I670" s="9"/>
+      <c r="J670" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K670" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="671" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B671" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D671" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E671" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F671" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G671" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H671" s="9"/>
+      <c r="I671" s="9"/>
+      <c r="J671" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K671" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="672" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B672" s="13" t="s">
-        <v>384</v>
+        <v>192</v>
       </c>
       <c r="C672" s="13" t="s">
-        <v>569</v>
+        <v>193</v>
       </c>
       <c r="D672" s="13" t="s">
-        <v>386</v>
+        <v>194</v>
       </c>
       <c r="E672" s="14" t="s">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="F672" s="14" t="s">
         <v>9</v>
@@ -15406,44 +15403,55 @@
       <c r="H672" s="14"/>
       <c r="I672" s="14"/>
       <c r="J672" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="673" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="1"/>
-      <c r="B673" s="1"/>
-      <c r="C673" s="1"/>
-      <c r="D673" s="1"/>
-      <c r="E673" s="2"/>
-      <c r="F673" s="2"/>
-      <c r="G673" s="2"/>
-      <c r="H673" s="2"/>
-      <c r="I673" s="2"/>
-      <c r="J673" s="1"/>
-      <c r="K673" s="1"/>
-      <c r="L673" s="1"/>
-      <c r="M673" s="1"/>
-      <c r="N673" s="1"/>
-      <c r="O673" s="1"/>
-    </row>
-    <row r="674" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A674" s="13" t="s">
-        <v>13</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="K672" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="673" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B673" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D673" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E673" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F673" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G673" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H673" s="9"/>
+      <c r="I673" s="9"/>
+      <c r="J673" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K673" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="674" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B674" s="13" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="C674" s="13" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="D674" s="13" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="E674" s="14" t="s">
-        <v>97</v>
+        <v>378</v>
       </c>
       <c r="F674" s="14" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G674" s="14" t="s">
         <v>10</v>
@@ -15451,64 +15459,61 @@
       <c r="H674" s="14"/>
       <c r="I674" s="14"/>
       <c r="J674" s="13" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K674" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="675" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C675" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="D675" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E675" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="F675" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G675" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H675" s="14"/>
+      <c r="I675" s="14"/>
+      <c r="J675" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="K675" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="10"/>
-      <c r="B675" s="10"/>
-      <c r="C675" s="10"/>
-      <c r="D675" s="10"/>
-      <c r="E675" s="11"/>
-      <c r="F675" s="11"/>
-      <c r="G675" s="11"/>
-      <c r="H675" s="11"/>
-      <c r="I675" s="11"/>
-      <c r="J675" s="10"/>
-      <c r="K675" s="10"/>
-      <c r="L675" s="10"/>
-      <c r="M675" s="10"/>
-      <c r="N675" s="10"/>
-      <c r="O675" s="10"/>
-    </row>
-    <row r="676" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B676" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C676" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="D676" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="E676" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F676" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G676" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H676" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I676" s="14"/>
-      <c r="J676" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="K676" s="13" t="s">
-        <v>43</v>
-      </c>
+    <row r="676" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="1"/>
+      <c r="B676" s="1"/>
+      <c r="C676" s="1"/>
+      <c r="D676" s="1"/>
+      <c r="E676" s="2"/>
+      <c r="F676" s="2"/>
+      <c r="G676" s="2"/>
+      <c r="H676" s="2"/>
+      <c r="I676" s="2"/>
+      <c r="J676" s="1"/>
+      <c r="K676" s="1"/>
+      <c r="L676" s="1"/>
+      <c r="M676" s="1"/>
+      <c r="N676" s="1"/>
+      <c r="O676" s="1"/>
     </row>
     <row r="677" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="1"/>
+      <c r="A677" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -15524,24 +15529,33 @@
       <c r="N677" s="1"/>
       <c r="O677" s="1"/>
     </row>
-    <row r="678" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B678" s="1"/>
-      <c r="C678" s="1"/>
-      <c r="D678" s="1"/>
-      <c r="E678" s="2"/>
-      <c r="F678" s="2"/>
-      <c r="G678" s="2"/>
-      <c r="H678" s="2"/>
-      <c r="I678" s="2"/>
-      <c r="J678" s="1"/>
-      <c r="K678" s="1"/>
-      <c r="L678" s="1"/>
-      <c r="M678" s="1"/>
-      <c r="N678" s="1"/>
-      <c r="O678" s="1"/>
+    <row r="678" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B678" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C678" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D678" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E678" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F678" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G678" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H678" s="14"/>
+      <c r="I678" s="14"/>
+      <c r="J678" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K678" s="13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="679" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1"/>
@@ -15553,52 +15567,62 @@
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
       <c r="I679" s="2"/>
-      <c r="J679" s="1" t="s">
-        <v>504</v>
-      </c>
+      <c r="J679" s="1"/>
       <c r="K679" s="1"/>
       <c r="L679" s="1"/>
       <c r="M679" s="1"/>
       <c r="N679" s="1"/>
       <c r="O679" s="1"/>
     </row>
-    <row r="680" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="1"/>
-      <c r="B680" s="1"/>
-      <c r="C680" s="1"/>
-      <c r="D680" s="1"/>
-      <c r="E680" s="2"/>
-      <c r="F680" s="2"/>
-      <c r="G680" s="2"/>
-      <c r="H680" s="2"/>
-      <c r="I680" s="2"/>
-      <c r="J680" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K680" s="1"/>
-      <c r="L680" s="1"/>
-      <c r="M680" s="1"/>
-      <c r="N680" s="1"/>
-      <c r="O680" s="1"/>
-    </row>
-    <row r="681" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="1"/>
-      <c r="B681" s="1"/>
-      <c r="C681" s="1"/>
-      <c r="D681" s="1"/>
-      <c r="E681" s="2"/>
-      <c r="F681" s="2"/>
-      <c r="G681" s="2"/>
-      <c r="H681" s="2"/>
-      <c r="I681" s="2"/>
-      <c r="J681" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="K681" s="1"/>
-      <c r="L681" s="1"/>
-      <c r="M681" s="1"/>
-      <c r="N681" s="1"/>
-      <c r="O681" s="1"/>
+    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="10"/>
+      <c r="B680" s="10"/>
+      <c r="C680" s="10"/>
+      <c r="D680" s="10"/>
+      <c r="E680" s="11"/>
+      <c r="F680" s="11"/>
+      <c r="G680" s="11"/>
+      <c r="H680" s="11"/>
+      <c r="I680" s="11"/>
+      <c r="J680" s="10"/>
+      <c r="K680" s="10"/>
+      <c r="L680" s="10"/>
+      <c r="M680" s="10"/>
+      <c r="N680" s="10"/>
+      <c r="O680" s="10"/>
+    </row>
+    <row r="681" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B681" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C681" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D681" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E681" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F681" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G681" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H681" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I681" s="9"/>
+      <c r="J681" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K681" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="682" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1"/>
@@ -15617,394 +15641,323 @@
       <c r="N682" s="1"/>
       <c r="O682" s="1"/>
     </row>
-    <row r="683" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B683" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C683" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D683" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E683" s="9" t="n">
-        <v>45692</v>
-      </c>
-      <c r="F683" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G683" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H683" s="9"/>
-      <c r="I683" s="9"/>
-      <c r="J683" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="K683" s="7" t="s">
+    <row r="683" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B683" s="1"/>
+      <c r="C683" s="1"/>
+      <c r="D683" s="1"/>
+      <c r="E683" s="2"/>
+      <c r="F683" s="2"/>
+      <c r="G683" s="2"/>
+      <c r="H683" s="2"/>
+      <c r="I683" s="2"/>
+      <c r="J683" s="1"/>
+      <c r="K683" s="1"/>
+      <c r="L683" s="1"/>
+      <c r="M683" s="1"/>
+      <c r="N683" s="1"/>
+      <c r="O683" s="1"/>
+    </row>
+    <row r="684" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
+      <c r="C684" s="1"/>
+      <c r="D684" s="1"/>
+      <c r="E684" s="2"/>
+      <c r="F684" s="2"/>
+      <c r="G684" s="2"/>
+      <c r="H684" s="2"/>
+      <c r="I684" s="2"/>
+      <c r="J684" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K684" s="1"/>
+      <c r="L684" s="1"/>
+      <c r="M684" s="1"/>
+      <c r="N684" s="1"/>
+      <c r="O684" s="1"/>
+    </row>
+    <row r="685" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1"/>
+      <c r="B685" s="1"/>
+      <c r="C685" s="1"/>
+      <c r="D685" s="1"/>
+      <c r="E685" s="2"/>
+      <c r="F685" s="2"/>
+      <c r="G685" s="2"/>
+      <c r="H685" s="2"/>
+      <c r="I685" s="2"/>
+      <c r="J685" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K685" s="1"/>
+      <c r="L685" s="1"/>
+      <c r="M685" s="1"/>
+      <c r="N685" s="1"/>
+      <c r="O685" s="1"/>
+    </row>
+    <row r="686" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1"/>
+      <c r="B686" s="1"/>
+      <c r="C686" s="1"/>
+      <c r="D686" s="1"/>
+      <c r="E686" s="2"/>
+      <c r="F686" s="2"/>
+      <c r="G686" s="2"/>
+      <c r="H686" s="2"/>
+      <c r="I686" s="2"/>
+      <c r="J686" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K686" s="1"/>
+      <c r="L686" s="1"/>
+      <c r="M686" s="1"/>
+      <c r="N686" s="1"/>
+      <c r="O686" s="1"/>
+    </row>
+    <row r="687" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1"/>
+      <c r="B687" s="1"/>
+      <c r="C687" s="1"/>
+      <c r="D687" s="1"/>
+      <c r="E687" s="2"/>
+      <c r="F687" s="2"/>
+      <c r="G687" s="2"/>
+      <c r="H687" s="2"/>
+      <c r="I687" s="2"/>
+      <c r="J687" s="1"/>
+      <c r="K687" s="1"/>
+      <c r="L687" s="1"/>
+      <c r="M687" s="1"/>
+      <c r="N687" s="1"/>
+      <c r="O687" s="1"/>
+    </row>
+    <row r="688" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1"/>
+      <c r="B688" s="1"/>
+      <c r="C688" s="1"/>
+      <c r="D688" s="1"/>
+      <c r="E688" s="2"/>
+      <c r="F688" s="2"/>
+      <c r="G688" s="2"/>
+      <c r="H688" s="2"/>
+      <c r="I688" s="2"/>
+      <c r="J688" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K688" s="1"/>
+      <c r="L688" s="1"/>
+      <c r="M688" s="1"/>
+      <c r="N688" s="1"/>
+      <c r="O688" s="1"/>
+    </row>
+    <row r="689" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1"/>
+      <c r="B689" s="1"/>
+      <c r="C689" s="1"/>
+      <c r="D689" s="1"/>
+      <c r="E689" s="2"/>
+      <c r="F689" s="2"/>
+      <c r="G689" s="2"/>
+      <c r="H689" s="2"/>
+      <c r="I689" s="2"/>
+      <c r="J689" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K689" s="1"/>
+      <c r="L689" s="1"/>
+      <c r="M689" s="1"/>
+      <c r="N689" s="1"/>
+      <c r="O689" s="1"/>
+    </row>
+    <row r="690" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1"/>
+      <c r="B690" s="1"/>
+      <c r="C690" s="1"/>
+      <c r="D690" s="1"/>
+      <c r="E690" s="2"/>
+      <c r="F690" s="2"/>
+      <c r="G690" s="2"/>
+      <c r="H690" s="2"/>
+      <c r="I690" s="2"/>
+      <c r="J690" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K690" s="1"/>
+      <c r="L690" s="1"/>
+      <c r="M690" s="1"/>
+      <c r="N690" s="1"/>
+      <c r="O690" s="1"/>
+    </row>
+    <row r="691" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1"/>
+      <c r="B691" s="1"/>
+      <c r="C691" s="1"/>
+      <c r="D691" s="1"/>
+      <c r="E691" s="2"/>
+      <c r="F691" s="2"/>
+      <c r="G691" s="2"/>
+      <c r="H691" s="2"/>
+      <c r="I691" s="2"/>
+      <c r="J691" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K691" s="1"/>
+      <c r="L691" s="1"/>
+      <c r="M691" s="1"/>
+      <c r="N691" s="1"/>
+      <c r="O691" s="1"/>
+    </row>
+    <row r="692" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1"/>
+      <c r="B692" s="1"/>
+      <c r="C692" s="1"/>
+      <c r="D692" s="1"/>
+      <c r="E692" s="2"/>
+      <c r="F692" s="2"/>
+      <c r="G692" s="2"/>
+      <c r="H692" s="2"/>
+      <c r="I692" s="2"/>
+      <c r="J692" s="1"/>
+      <c r="K692" s="1"/>
+      <c r="L692" s="1"/>
+      <c r="M692" s="1"/>
+      <c r="N692" s="1"/>
+      <c r="O692" s="1"/>
+    </row>
+    <row r="693" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="D693" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="E693" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F693" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G693" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H693" s="9"/>
+      <c r="I693" s="9"/>
+      <c r="J693" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="K693" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="684" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B684" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C684" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D684" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E684" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F684" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G684" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H684" s="9"/>
-      <c r="I684" s="9"/>
-      <c r="J684" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="K684" s="7" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="685" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B685" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C685" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D685" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E685" s="9" t="s">
+    <row r="694" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C694" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D694" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E694" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F685" s="9" t="s">
+      <c r="F694" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G685" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H685" s="9"/>
-      <c r="I685" s="9"/>
-      <c r="J685" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K685" s="7" t="s">
+      <c r="G694" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H694" s="9"/>
+      <c r="I694" s="9"/>
+      <c r="J694" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K694" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="686" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B686" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C686" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D686" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="E686" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F686" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G686" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H686" s="14"/>
-      <c r="I686" s="14"/>
-      <c r="J686" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="K686" s="13" t="s">
+    <row r="695" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D695" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E695" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F695" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G695" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H695" s="9"/>
+      <c r="I695" s="9"/>
+      <c r="J695" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K695" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="696" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1"/>
+      <c r="B696" s="1"/>
+      <c r="C696" s="1"/>
+      <c r="D696" s="1"/>
+      <c r="E696" s="2"/>
+      <c r="F696" s="2"/>
+      <c r="G696" s="2"/>
+      <c r="H696" s="2"/>
+      <c r="I696" s="2"/>
+      <c r="J696" s="1"/>
+      <c r="K696" s="1"/>
+      <c r="L696" s="1"/>
+      <c r="M696" s="1"/>
+      <c r="N696" s="1"/>
+      <c r="O696" s="1"/>
+    </row>
+    <row r="697" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A697" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B697" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C697" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D697" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E697" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F697" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G697" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H697" s="9"/>
+      <c r="I697" s="9"/>
+      <c r="J697" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K697" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="687" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B687" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C687" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D687" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E687" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F687" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G687" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H687" s="9"/>
-      <c r="I687" s="9"/>
-      <c r="J687" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="K687" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="688" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B688" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C688" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D688" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E688" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F688" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G688" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H688" s="9"/>
-      <c r="I688" s="9"/>
-      <c r="J688" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K688" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="689" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B689" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C689" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D689" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E689" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="F689" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G689" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H689" s="9"/>
-      <c r="I689" s="9"/>
-      <c r="J689" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K689" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="690" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B690" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C690" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D690" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E690" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F690" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G690" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H690" s="14"/>
-      <c r="I690" s="14"/>
-      <c r="J690" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="K690" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="691" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B691" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C691" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D691" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E691" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F691" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G691" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H691" s="9"/>
-      <c r="I691" s="9"/>
-      <c r="J691" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K691" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="692" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B692" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C692" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D692" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E692" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F692" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G692" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H692" s="14"/>
-      <c r="I692" s="14"/>
-      <c r="J692" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="K692" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="693" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C693" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D693" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E693" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F693" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G693" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H693" s="14"/>
-      <c r="I693" s="14"/>
-      <c r="J693" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K693" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="694" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A694" s="1"/>
-      <c r="B694" s="1"/>
-      <c r="C694" s="1"/>
-      <c r="D694" s="1"/>
-      <c r="E694" s="2"/>
-      <c r="F694" s="2"/>
-      <c r="G694" s="2"/>
-      <c r="H694" s="2"/>
-      <c r="I694" s="2"/>
-      <c r="J694" s="1"/>
-      <c r="K694" s="1"/>
-      <c r="L694" s="1"/>
-      <c r="M694" s="1"/>
-      <c r="N694" s="1"/>
-      <c r="O694" s="1"/>
-    </row>
-    <row r="695" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A695" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B695" s="1"/>
-      <c r="C695" s="1"/>
-      <c r="D695" s="1"/>
-      <c r="E695" s="2"/>
-      <c r="F695" s="2"/>
-      <c r="G695" s="2"/>
-      <c r="H695" s="2"/>
-      <c r="I695" s="2"/>
-      <c r="J695" s="1"/>
-      <c r="K695" s="1"/>
-      <c r="L695" s="1"/>
-      <c r="M695" s="1"/>
-      <c r="N695" s="1"/>
-      <c r="O695" s="1"/>
-    </row>
-    <row r="696" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B696" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C696" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D696" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E696" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F696" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G696" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H696" s="14"/>
-      <c r="I696" s="14"/>
-      <c r="J696" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="K696" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="697" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A697" s="1"/>
-      <c r="B697" s="1"/>
-      <c r="C697" s="1"/>
-      <c r="D697" s="1"/>
-      <c r="E697" s="2"/>
-      <c r="F697" s="2"/>
-      <c r="G697" s="2"/>
-      <c r="H697" s="2"/>
-      <c r="I697" s="2"/>
-      <c r="J697" s="1"/>
-      <c r="K697" s="1"/>
-      <c r="L697" s="1"/>
-      <c r="M697" s="1"/>
-      <c r="N697" s="1"/>
-      <c r="O697" s="1"/>
     </row>
     <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="10"/>
@@ -16023,36 +15976,36 @@
       <c r="N698" s="10"/>
       <c r="O698" s="10"/>
     </row>
-    <row r="699" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="7" t="s">
+    <row r="699" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B699" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C699" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D699" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E699" s="9" t="s">
+      <c r="B699" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C699" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D699" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E699" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F699" s="9" t="s">
+      <c r="F699" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G699" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H699" s="9" t="s">
+      <c r="G699" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H699" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="I699" s="9"/>
-      <c r="J699" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K699" s="7" t="s">
+      <c r="I699" s="14"/>
+      <c r="J699" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K699" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -16166,114 +16119,161 @@
       <c r="N705" s="1"/>
       <c r="O705" s="1"/>
     </row>
-    <row r="706" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A706" s="1"/>
-      <c r="B706" s="1"/>
-      <c r="C706" s="1"/>
-      <c r="D706" s="1"/>
-      <c r="E706" s="2"/>
-      <c r="F706" s="2"/>
-      <c r="G706" s="2"/>
-      <c r="H706" s="2"/>
-      <c r="I706" s="2"/>
-      <c r="J706" s="1" t="s">
+    <row r="706" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B706" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C706" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D706" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E706" s="9" t="n">
+        <v>45692</v>
+      </c>
+      <c r="F706" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G706" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H706" s="9"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="K706" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="707" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B707" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C707" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D707" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E707" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F707" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G707" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H707" s="9"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K707" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="708" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B708" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C708" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D708" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E708" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F708" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G708" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H708" s="9"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K708" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="709" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B709" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C709" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D709" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E709" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F709" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G709" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H709" s="9"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="K709" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="710" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B710" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C710" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D710" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E710" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F710" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G710" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H710" s="9"/>
+      <c r="I710" s="9"/>
+      <c r="J710" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="K706" s="1"/>
-      <c r="L706" s="1"/>
-      <c r="M706" s="1"/>
-      <c r="N706" s="1"/>
-      <c r="O706" s="1"/>
-    </row>
-    <row r="707" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A707" s="1"/>
-      <c r="B707" s="1"/>
-      <c r="C707" s="1"/>
-      <c r="D707" s="1"/>
-      <c r="E707" s="2"/>
-      <c r="F707" s="2"/>
-      <c r="G707" s="2"/>
-      <c r="H707" s="2"/>
-      <c r="I707" s="2"/>
-      <c r="J707" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="K707" s="1"/>
-      <c r="L707" s="1"/>
-      <c r="M707" s="1"/>
-      <c r="N707" s="1"/>
-      <c r="O707" s="1"/>
-    </row>
-    <row r="708" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A708" s="1"/>
-      <c r="B708" s="1"/>
-      <c r="C708" s="1"/>
-      <c r="D708" s="1"/>
-      <c r="E708" s="2"/>
-      <c r="F708" s="2"/>
-      <c r="G708" s="2"/>
-      <c r="H708" s="2"/>
-      <c r="I708" s="2"/>
-      <c r="J708" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="K708" s="1"/>
-      <c r="L708" s="1"/>
-      <c r="M708" s="1"/>
-      <c r="N708" s="1"/>
-      <c r="O708" s="1"/>
-    </row>
-    <row r="709" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A709" s="1"/>
-      <c r="B709" s="1"/>
-      <c r="C709" s="1"/>
-      <c r="D709" s="1"/>
-      <c r="E709" s="2"/>
-      <c r="F709" s="2"/>
-      <c r="G709" s="2"/>
-      <c r="H709" s="2"/>
-      <c r="I709" s="2"/>
-      <c r="J709" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="K709" s="1"/>
-      <c r="L709" s="1"/>
-      <c r="M709" s="1"/>
-      <c r="N709" s="1"/>
-      <c r="O709" s="1"/>
-    </row>
-    <row r="710" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-      <c r="C710" s="1"/>
-      <c r="D710" s="1"/>
-      <c r="E710" s="2"/>
-      <c r="F710" s="2"/>
-      <c r="G710" s="2"/>
-      <c r="H710" s="2"/>
-      <c r="I710" s="2"/>
-      <c r="J710" s="1"/>
-      <c r="K710" s="1"/>
-      <c r="L710" s="1"/>
-      <c r="M710" s="1"/>
-      <c r="N710" s="1"/>
-      <c r="O710" s="1"/>
+      <c r="K710" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="711" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B711" s="7" t="s">
-        <v>576</v>
+        <v>183</v>
       </c>
       <c r="C711" s="7" t="s">
-        <v>577</v>
+        <v>184</v>
       </c>
       <c r="D711" s="7" t="s">
-        <v>578</v>
+        <v>185</v>
       </c>
       <c r="E711" s="9" t="s">
-        <v>579</v>
+        <v>97</v>
       </c>
       <c r="F711" s="9" t="s">
-        <v>256</v>
+        <v>41</v>
       </c>
       <c r="G711" s="9" t="s">
         <v>10</v>
@@ -16281,7 +16281,7 @@
       <c r="H711" s="9"/>
       <c r="I711" s="9"/>
       <c r="J711" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="K711" s="7" t="s">
         <v>43</v>
@@ -16289,19 +16289,19 @@
     </row>
     <row r="712" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B712" s="7" t="s">
-        <v>114</v>
+        <v>277</v>
       </c>
       <c r="C712" s="7" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="D712" s="7" t="s">
-        <v>116</v>
+        <v>279</v>
       </c>
       <c r="E712" s="9" t="s">
-        <v>97</v>
+        <v>280</v>
       </c>
       <c r="F712" s="9" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G712" s="9" t="s">
         <v>10</v>
@@ -16309,27 +16309,27 @@
       <c r="H712" s="9"/>
       <c r="I712" s="9"/>
       <c r="J712" s="7" t="s">
-        <v>117</v>
+        <v>281</v>
       </c>
       <c r="K712" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="713" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B713" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C713" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D713" s="17" t="s">
-        <v>375</v>
+        <v>174</v>
+      </c>
+      <c r="D713" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="E713" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F713" s="9" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="G713" s="9" t="s">
         <v>10</v>
@@ -16337,10 +16337,10 @@
       <c r="H713" s="9"/>
       <c r="I713" s="9"/>
       <c r="J713" s="7" t="s">
-        <v>181</v>
+        <v>554</v>
       </c>
       <c r="K713" s="7" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
     </row>
     <row r="714" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16360,34 +16360,34 @@
       <c r="N714" s="1"/>
       <c r="O714" s="1"/>
     </row>
-    <row r="715" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A715" s="7" t="s">
+    <row r="715" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B715" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C715" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="D715" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E715" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F715" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G715" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H715" s="9"/>
-      <c r="I715" s="9"/>
-      <c r="J715" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K715" s="7" t="s">
+      <c r="B715" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="C715" s="13" t="s">
+        <v>577</v>
+      </c>
+      <c r="D715" s="13" t="s">
+        <v>578</v>
+      </c>
+      <c r="E715" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="F715" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G715" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H715" s="14"/>
+      <c r="I715" s="14"/>
+      <c r="J715" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="K715" s="13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -21282,16 +21282,16 @@
         <v>5</v>
       </c>
       <c r="B984" s="13" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="C984" s="13" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D984" s="13" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="E984" s="14" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F984" s="14" t="s">
         <v>41</v>
@@ -21304,7 +21304,7 @@
       </c>
       <c r="I984" s="14"/>
       <c r="J984" s="13" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="K984" s="13" t="s">
         <v>43</v>
@@ -22529,16 +22529,16 @@
     </row>
     <row r="1041" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1041" s="13" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="C1041" s="13" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D1041" s="13" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="E1041" s="14" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F1041" s="14" t="s">
         <v>41</v>
@@ -22549,7 +22549,7 @@
       <c r="H1041" s="14"/>
       <c r="I1041" s="14"/>
       <c r="J1041" s="13" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="K1041" s="13" t="s">
         <v>43</v>
@@ -22605,7 +22605,7 @@
       <c r="H1043" s="14"/>
       <c r="I1043" s="14"/>
       <c r="J1043" s="13" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K1043" s="13" t="s">
         <v>43</v>
@@ -41181,16 +41181,16 @@
     </row>
     <row r="1148" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1148" s="13" t="s">
-        <v>559</v>
+        <v>576</v>
       </c>
       <c r="C1148" s="13" t="s">
-        <v>560</v>
+        <v>577</v>
       </c>
       <c r="D1148" s="13" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="E1148" s="14" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="F1148" s="14" t="s">
         <v>41</v>
@@ -41201,7 +41201,7 @@
       <c r="H1148" s="14"/>
       <c r="I1148" s="14"/>
       <c r="J1148" s="13" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="K1148" s="13" t="s">
         <v>43</v>
@@ -41369,7 +41369,7 @@
       <c r="H1154" s="14"/>
       <c r="I1154" s="14"/>
       <c r="J1154" s="13" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="K1154" s="13" t="s">
         <v>43</v>
@@ -41682,16 +41682,16 @@
     </row>
     <row r="1166" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1166" s="7" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C1166" s="7" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D1166" s="7" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="E1166" s="9" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F1166" s="9" t="s">
         <v>256</v>
@@ -41736,6 +41736,7 @@
         <v>43</v>
       </c>
     </row>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/25.1.Epoxy/dependencies.xlsx
+++ b/25.1.Epoxy/dependencies.xlsx
@@ -1687,9 +1687,66 @@
     <t xml:space="preserve">debtcollector&gt;=3.0.0</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja2&gt;=2.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BSD License (3 clause)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.context&gt;=2.19.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebOb&gt;=1.8.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># NOTE(harlowja): Because oslo.serialization is used by the client libraries,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># adding a new feature to oslo.serialization means adding a new dependency,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b30.13.25.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Msgpack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/Jun/13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msgpack&gt;=0.5.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">pbr&gt;=3.1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">oslo.i18n&gt;=3.20.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.utils&gt;=3.36.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.serialization&gt;=2.25.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i4.2.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025/Jul/25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oslo.cache&gt;=1.26.0</t>
+  </si>
+  <si>
     <t xml:space="preserve"># General</t>
   </si>
   <si>
@@ -1706,63 +1763,6 @@
   </si>
   <si>
     <t xml:space="preserve">prometheus-client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja2&gt;=2.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BSD License (3 clause)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.context&gt;=2.19.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebOb&gt;=1.8.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># NOTE(harlowja): Because oslo.serialization is used by the client libraries,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># adding a new feature to oslo.serialization means adding a new dependency,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b30.13.25.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Msgpack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/Jun/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msgpack&gt;=0.5.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.i18n&gt;=3.20.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.utils&gt;=3.36.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.serialization&gt;=2.25.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i4.2.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.cache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025/Jul/25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oslo.cache&gt;=1.26.0</t>
   </si>
   <si>
     <t xml:space="preserve">i4.1.42</t>
@@ -2558,8 +2558,8 @@
   </sheetPr>
   <dimension ref="A1:XFD1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A691" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A716" activeCellId="0" sqref="A716"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A628" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A638" activeCellId="0" sqref="A638"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14616,13 +14616,13 @@
         <v>5</v>
       </c>
       <c r="B639" s="13" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C639" s="13" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D639" s="13" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E639" s="14" t="s">
         <v>97</v>
@@ -14638,7 +14638,7 @@
       </c>
       <c r="I639" s="14"/>
       <c r="J639" s="13" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="K639" s="13" t="s">
         <v>43</v>
@@ -14754,8 +14754,7 @@
       <c r="N645" s="1"/>
       <c r="O645" s="1"/>
     </row>
-    <row r="646" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="1"/>
+    <row r="646" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B646" s="7" t="s">
         <v>462</v>
       </c>
@@ -14774,127 +14773,136 @@
       <c r="G646" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H646" s="2"/>
-      <c r="I646" s="2"/>
-      <c r="J646" s="1" t="s">
+      <c r="H646" s="9"/>
+      <c r="I646" s="9"/>
+      <c r="J646" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K646" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="647" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B647" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D647" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E647" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F647" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G647" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H647" s="9"/>
+      <c r="I647" s="9"/>
+      <c r="J647" s="7" t="s">
         <v>555</v>
       </c>
-      <c r="K646" s="1" t="s">
+      <c r="K647" s="7" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="648" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B648" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C648" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D648" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E648" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F648" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G648" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H648" s="9"/>
+      <c r="I648" s="9"/>
+      <c r="J648" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K648" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L646" s="1"/>
-      <c r="M646" s="1"/>
-      <c r="N646" s="1"/>
-      <c r="O646" s="1"/>
-    </row>
-    <row r="647" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="1"/>
-      <c r="B647" s="1"/>
-      <c r="C647" s="1"/>
-      <c r="D647" s="1"/>
-      <c r="E647" s="2"/>
-      <c r="F647" s="2"/>
-      <c r="G647" s="2"/>
-      <c r="H647" s="2"/>
-      <c r="I647" s="2"/>
-      <c r="J647" s="1"/>
-      <c r="K647" s="1"/>
-      <c r="L647" s="1"/>
-      <c r="M647" s="1"/>
-      <c r="N647" s="1"/>
-      <c r="O647" s="1"/>
-    </row>
-    <row r="648" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="1"/>
-      <c r="B648" s="1"/>
-      <c r="C648" s="1"/>
-      <c r="D648" s="1"/>
-      <c r="E648" s="2"/>
-      <c r="F648" s="2"/>
-      <c r="G648" s="2"/>
-      <c r="H648" s="2"/>
-      <c r="I648" s="2"/>
-      <c r="J648" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="K648" s="1"/>
-      <c r="L648" s="1"/>
-      <c r="M648" s="1"/>
-      <c r="N648" s="1"/>
-      <c r="O648" s="1"/>
-    </row>
-    <row r="649" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="1"/>
-      <c r="B649" s="7" t="s">
+    </row>
+    <row r="649" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B649" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C649" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="D649" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="E649" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F649" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G649" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H649" s="14"/>
+      <c r="I649" s="14"/>
+      <c r="J649" s="13" t="s">
+        <v>557</v>
+      </c>
+      <c r="K649" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="650" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B650" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C650" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D650" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E650" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F650" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G650" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H650" s="9"/>
+      <c r="I650" s="9"/>
+      <c r="J650" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="K650" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="651" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B651" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C649" s="7" t="s">
+      <c r="C651" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D649" s="7" t="s">
+      <c r="D651" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="E649" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F649" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G649" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H649" s="2"/>
-      <c r="I649" s="2"/>
-      <c r="J649" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="K649" s="1"/>
-      <c r="L649" s="1"/>
-      <c r="M649" s="1"/>
-      <c r="N649" s="1"/>
-      <c r="O649" s="1"/>
-    </row>
-    <row r="650" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="1"/>
-      <c r="B650" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C650" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D650" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E650" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F650" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G650" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H650" s="2"/>
-      <c r="I650" s="2"/>
-      <c r="J650" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="K650" s="1"/>
-      <c r="L650" s="1"/>
-      <c r="M650" s="1"/>
-      <c r="N650" s="1"/>
-      <c r="O650" s="1"/>
-    </row>
-    <row r="651" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="1"/>
-      <c r="B651" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C651" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D651" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="E651" s="9" t="s">
         <v>97</v>
@@ -14905,197 +14913,221 @@
       <c r="G651" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H651" s="2"/>
-      <c r="I651" s="2"/>
-      <c r="J651" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="K651" s="1"/>
-      <c r="L651" s="1"/>
-      <c r="M651" s="1"/>
-      <c r="N651" s="1"/>
-      <c r="O651" s="1"/>
-    </row>
-    <row r="652" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="1"/>
-      <c r="B652" s="1"/>
-      <c r="C652" s="1"/>
-      <c r="D652" s="1"/>
-      <c r="E652" s="2"/>
-      <c r="F652" s="2"/>
-      <c r="G652" s="2"/>
-      <c r="H652" s="2"/>
-      <c r="I652" s="2"/>
-      <c r="J652" s="1"/>
-      <c r="K652" s="1"/>
-      <c r="L652" s="1"/>
-      <c r="M652" s="1"/>
-      <c r="N652" s="1"/>
-      <c r="O652" s="1"/>
-    </row>
-    <row r="653" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="1"/>
-      <c r="B653" s="1"/>
-      <c r="C653" s="1"/>
-      <c r="D653" s="1"/>
-      <c r="E653" s="2"/>
-      <c r="F653" s="2"/>
-      <c r="G653" s="2"/>
-      <c r="H653" s="2"/>
-      <c r="I653" s="2"/>
-      <c r="J653" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="K653" s="1"/>
-      <c r="L653" s="1"/>
-      <c r="M653" s="1"/>
-      <c r="N653" s="1"/>
-      <c r="O653" s="1"/>
-    </row>
-    <row r="654" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B654" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C654" s="13" t="s">
-        <v>561</v>
-      </c>
-      <c r="D654" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="E654" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="F654" s="14" t="s">
+      <c r="H651" s="9"/>
+      <c r="I651" s="9"/>
+      <c r="J651" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K651" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="652" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B652" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C652" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="D652" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="E652" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F652" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G652" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H652" s="9"/>
+      <c r="I652" s="9"/>
+      <c r="J652" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="K652" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="653" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B653" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C653" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D653" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E653" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F653" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G654" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H654" s="14"/>
-      <c r="I654" s="14"/>
-      <c r="J654" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="655" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="1"/>
-      <c r="B655" s="1"/>
-      <c r="C655" s="1"/>
-      <c r="D655" s="1"/>
-      <c r="E655" s="2"/>
-      <c r="F655" s="2"/>
-      <c r="G655" s="2"/>
-      <c r="H655" s="2"/>
-      <c r="I655" s="2"/>
-      <c r="J655" s="1"/>
-      <c r="K655" s="1"/>
-      <c r="L655" s="1"/>
-      <c r="M655" s="1"/>
-      <c r="N655" s="1"/>
-      <c r="O655" s="1"/>
-    </row>
-    <row r="656" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A656" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="G653" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H653" s="14"/>
+      <c r="I653" s="14"/>
+      <c r="J653" s="13" t="s">
+        <v>558</v>
+      </c>
+      <c r="K653" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="654" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B654" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D654" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E654" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F654" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G654" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H654" s="9"/>
+      <c r="I654" s="9"/>
+      <c r="J654" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="K654" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="655" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B655" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C655" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D655" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="E655" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="F655" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G655" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H655" s="14"/>
+      <c r="I655" s="14"/>
+      <c r="J655" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="K655" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="656" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B656" s="13" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="C656" s="13" t="s">
-        <v>355</v>
+        <v>294</v>
       </c>
       <c r="D656" s="13" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="E656" s="14" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="F656" s="14" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="G656" s="14" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H656" s="14"/>
       <c r="I656" s="14"/>
       <c r="J656" s="13" t="s">
-        <v>357</v>
+        <v>297</v>
       </c>
       <c r="K656" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="10"/>
-      <c r="B657" s="10"/>
-      <c r="C657" s="10"/>
-      <c r="D657" s="10"/>
-      <c r="E657" s="11"/>
-      <c r="F657" s="11"/>
-      <c r="G657" s="11"/>
-      <c r="H657" s="11"/>
-      <c r="I657" s="11"/>
-      <c r="J657" s="10"/>
-      <c r="K657" s="10"/>
-      <c r="L657" s="10"/>
-      <c r="M657" s="10"/>
-      <c r="N657" s="10"/>
-      <c r="O657" s="10"/>
-    </row>
-    <row r="658" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B658" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="C658" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="D658" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="E658" s="14" t="s">
+    <row r="657" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="1"/>
+      <c r="B657" s="1"/>
+      <c r="C657" s="1"/>
+      <c r="D657" s="1"/>
+      <c r="E657" s="2"/>
+      <c r="F657" s="2"/>
+      <c r="G657" s="2"/>
+      <c r="H657" s="2"/>
+      <c r="I657" s="2"/>
+      <c r="J657" s="1"/>
+      <c r="K657" s="1"/>
+      <c r="L657" s="1"/>
+      <c r="M657" s="1"/>
+      <c r="N657" s="1"/>
+      <c r="O657" s="1"/>
+    </row>
+    <row r="658" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B658" s="1"/>
+      <c r="C658" s="1"/>
+      <c r="D658" s="1"/>
+      <c r="E658" s="2"/>
+      <c r="F658" s="2"/>
+      <c r="G658" s="2"/>
+      <c r="H658" s="2"/>
+      <c r="I658" s="2"/>
+      <c r="J658" s="1"/>
+      <c r="K658" s="1"/>
+      <c r="L658" s="1"/>
+      <c r="M658" s="1"/>
+      <c r="N658" s="1"/>
+      <c r="O658" s="1"/>
+    </row>
+    <row r="659" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B659" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="C659" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="D659" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E659" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F658" s="14" t="s">
+      <c r="F659" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G658" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H658" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I658" s="14"/>
-      <c r="J658" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="K658" s="13" t="s">
+      <c r="G659" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H659" s="14"/>
+      <c r="I659" s="14"/>
+      <c r="J659" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="K659" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="659" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="1"/>
-      <c r="B659" s="1"/>
-      <c r="C659" s="1"/>
-      <c r="D659" s="1"/>
-      <c r="E659" s="2"/>
-      <c r="F659" s="2"/>
-      <c r="G659" s="2"/>
-      <c r="H659" s="2"/>
-      <c r="I659" s="2"/>
-      <c r="J659" s="1"/>
-      <c r="K659" s="1"/>
-      <c r="L659" s="1"/>
-      <c r="M659" s="1"/>
-      <c r="N659" s="1"/>
-      <c r="O659" s="1"/>
-    </row>
     <row r="660" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A660" s="1"/>
       <c r="B660" s="1"/>
       <c r="C660" s="1"/>
       <c r="D660" s="1"/>
@@ -15111,43 +15143,55 @@
       <c r="N660" s="1"/>
       <c r="O660" s="1"/>
     </row>
-    <row r="661" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="1"/>
-      <c r="B661" s="1"/>
-      <c r="C661" s="1"/>
-      <c r="D661" s="1"/>
-      <c r="E661" s="2"/>
-      <c r="F661" s="2"/>
-      <c r="G661" s="2"/>
-      <c r="H661" s="2"/>
-      <c r="I661" s="2"/>
-      <c r="J661" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="K661" s="1"/>
-      <c r="L661" s="1"/>
-      <c r="M661" s="1"/>
-      <c r="N661" s="1"/>
-      <c r="O661" s="1"/>
-    </row>
-    <row r="662" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="1"/>
-      <c r="B662" s="1"/>
-      <c r="C662" s="1"/>
-      <c r="D662" s="1"/>
-      <c r="E662" s="2"/>
-      <c r="F662" s="2"/>
-      <c r="G662" s="2"/>
-      <c r="H662" s="2"/>
-      <c r="I662" s="2"/>
-      <c r="J662" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="K662" s="1"/>
-      <c r="L662" s="1"/>
-      <c r="M662" s="1"/>
-      <c r="N662" s="1"/>
-      <c r="O662" s="1"/>
+    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="10"/>
+      <c r="B661" s="10"/>
+      <c r="C661" s="10"/>
+      <c r="D661" s="10"/>
+      <c r="E661" s="11"/>
+      <c r="F661" s="11"/>
+      <c r="G661" s="11"/>
+      <c r="H661" s="11"/>
+      <c r="I661" s="11"/>
+      <c r="J661" s="10"/>
+      <c r="K661" s="10"/>
+      <c r="L661" s="10"/>
+      <c r="M661" s="10"/>
+      <c r="N661" s="10"/>
+      <c r="O661" s="10"/>
+    </row>
+    <row r="662" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B662" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D662" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E662" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F662" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G662" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H662" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I662" s="9"/>
+      <c r="J662" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K662" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="663" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1"/>
@@ -15159,9 +15203,7 @@
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
       <c r="I663" s="2"/>
-      <c r="J663" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="J663" s="1"/>
       <c r="K663" s="1"/>
       <c r="L663" s="1"/>
       <c r="M663" s="1"/>
@@ -15169,7 +15211,9 @@
       <c r="O663" s="1"/>
     </row>
     <row r="664" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="1"/>
+      <c r="A664" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B664" s="1"/>
       <c r="C664" s="1"/>
       <c r="D664" s="1"/>
@@ -15185,335 +15229,259 @@
       <c r="N664" s="1"/>
       <c r="O664" s="1"/>
     </row>
-    <row r="665" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B665" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C665" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D665" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E665" s="9" t="n">
-        <v>45692</v>
-      </c>
-      <c r="F665" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G665" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H665" s="9"/>
-      <c r="I665" s="9"/>
-      <c r="J665" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="K665" s="7" t="s">
+    <row r="665" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="1"/>
+      <c r="B665" s="1"/>
+      <c r="C665" s="1"/>
+      <c r="D665" s="1"/>
+      <c r="E665" s="2"/>
+      <c r="F665" s="2"/>
+      <c r="G665" s="2"/>
+      <c r="H665" s="2"/>
+      <c r="I665" s="2"/>
+      <c r="J665" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="K665" s="1"/>
+      <c r="L665" s="1"/>
+      <c r="M665" s="1"/>
+      <c r="N665" s="1"/>
+      <c r="O665" s="1"/>
+    </row>
+    <row r="666" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="1"/>
+      <c r="B666" s="1"/>
+      <c r="C666" s="1"/>
+      <c r="D666" s="1"/>
+      <c r="E666" s="2"/>
+      <c r="F666" s="2"/>
+      <c r="G666" s="2"/>
+      <c r="H666" s="2"/>
+      <c r="I666" s="2"/>
+      <c r="J666" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="K666" s="1"/>
+      <c r="L666" s="1"/>
+      <c r="M666" s="1"/>
+      <c r="N666" s="1"/>
+      <c r="O666" s="1"/>
+    </row>
+    <row r="667" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="1"/>
+      <c r="B667" s="1"/>
+      <c r="C667" s="1"/>
+      <c r="D667" s="1"/>
+      <c r="E667" s="2"/>
+      <c r="F667" s="2"/>
+      <c r="G667" s="2"/>
+      <c r="H667" s="2"/>
+      <c r="I667" s="2"/>
+      <c r="J667" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="K667" s="1"/>
+      <c r="L667" s="1"/>
+      <c r="M667" s="1"/>
+      <c r="N667" s="1"/>
+      <c r="O667" s="1"/>
+    </row>
+    <row r="668" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="1"/>
+      <c r="B668" s="1"/>
+      <c r="C668" s="1"/>
+      <c r="D668" s="1"/>
+      <c r="E668" s="2"/>
+      <c r="F668" s="2"/>
+      <c r="G668" s="2"/>
+      <c r="H668" s="2"/>
+      <c r="I668" s="2"/>
+      <c r="J668" s="1"/>
+      <c r="K668" s="1"/>
+      <c r="L668" s="1"/>
+      <c r="M668" s="1"/>
+      <c r="N668" s="1"/>
+      <c r="O668" s="1"/>
+    </row>
+    <row r="669" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="1"/>
+      <c r="B669" s="1"/>
+      <c r="C669" s="1"/>
+      <c r="D669" s="1"/>
+      <c r="E669" s="2"/>
+      <c r="F669" s="2"/>
+      <c r="G669" s="2"/>
+      <c r="H669" s="2"/>
+      <c r="I669" s="2"/>
+      <c r="J669" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="K669" s="1"/>
+      <c r="L669" s="1"/>
+      <c r="M669" s="1"/>
+      <c r="N669" s="1"/>
+      <c r="O669" s="1"/>
+    </row>
+    <row r="670" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="1"/>
+      <c r="B670" s="1"/>
+      <c r="C670" s="1"/>
+      <c r="D670" s="1"/>
+      <c r="E670" s="2"/>
+      <c r="F670" s="2"/>
+      <c r="G670" s="2"/>
+      <c r="H670" s="2"/>
+      <c r="I670" s="2"/>
+      <c r="J670" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="K670" s="1"/>
+      <c r="L670" s="1"/>
+      <c r="M670" s="1"/>
+      <c r="N670" s="1"/>
+      <c r="O670" s="1"/>
+    </row>
+    <row r="671" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="1"/>
+      <c r="B671" s="1"/>
+      <c r="C671" s="1"/>
+      <c r="D671" s="1"/>
+      <c r="E671" s="2"/>
+      <c r="F671" s="2"/>
+      <c r="G671" s="2"/>
+      <c r="H671" s="2"/>
+      <c r="I671" s="2"/>
+      <c r="J671" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="K671" s="1"/>
+      <c r="L671" s="1"/>
+      <c r="M671" s="1"/>
+      <c r="N671" s="1"/>
+      <c r="O671" s="1"/>
+    </row>
+    <row r="672" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+      <c r="C672" s="1"/>
+      <c r="D672" s="1"/>
+      <c r="E672" s="2"/>
+      <c r="F672" s="2"/>
+      <c r="G672" s="2"/>
+      <c r="H672" s="2"/>
+      <c r="I672" s="2"/>
+      <c r="J672" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="K672" s="1"/>
+      <c r="L672" s="1"/>
+      <c r="M672" s="1"/>
+      <c r="N672" s="1"/>
+      <c r="O672" s="1"/>
+    </row>
+    <row r="673" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="1"/>
+      <c r="B673" s="1"/>
+      <c r="C673" s="1"/>
+      <c r="D673" s="1"/>
+      <c r="E673" s="2"/>
+      <c r="F673" s="2"/>
+      <c r="G673" s="2"/>
+      <c r="H673" s="2"/>
+      <c r="I673" s="2"/>
+      <c r="J673" s="1"/>
+      <c r="K673" s="1"/>
+      <c r="L673" s="1"/>
+      <c r="M673" s="1"/>
+      <c r="N673" s="1"/>
+      <c r="O673" s="1"/>
+    </row>
+    <row r="674" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B674" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C674" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D674" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E674" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="F674" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="G674" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H674" s="9"/>
+      <c r="I674" s="9"/>
+      <c r="J674" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K674" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="666" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B666" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C666" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="D666" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="E666" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F666" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="G666" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H666" s="9"/>
-      <c r="I666" s="9"/>
-      <c r="J666" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="K666" s="7" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="667" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B667" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C667" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D667" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E667" s="9" t="s">
+    <row r="675" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B675" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D675" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E675" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F667" s="9" t="s">
+      <c r="F675" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G667" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H667" s="9"/>
-      <c r="I667" s="9"/>
-      <c r="J667" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K667" s="7" t="s">
+      <c r="G675" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H675" s="9"/>
+      <c r="I675" s="9"/>
+      <c r="J675" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K675" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="668" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B668" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C668" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="D668" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="E668" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F668" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G668" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H668" s="14"/>
-      <c r="I668" s="14"/>
-      <c r="J668" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="K668" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="669" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B669" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C669" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D669" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E669" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F669" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G669" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H669" s="9"/>
-      <c r="I669" s="9"/>
-      <c r="J669" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="K669" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="670" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B670" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C670" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D670" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E670" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F670" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G670" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H670" s="9"/>
-      <c r="I670" s="9"/>
-      <c r="J670" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K670" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="671" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B671" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="C671" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D671" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="E671" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="F671" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G671" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H671" s="9"/>
-      <c r="I671" s="9"/>
-      <c r="J671" s="7" t="s">
-        <v>523</v>
-      </c>
-      <c r="K671" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="672" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B672" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C672" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D672" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E672" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F672" s="14" t="s">
+    <row r="676" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B676" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C676" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D676" s="17" t="s">
+        <v>375</v>
+      </c>
+      <c r="E676" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F676" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G672" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H672" s="14"/>
-      <c r="I672" s="14"/>
-      <c r="J672" s="13" t="s">
-        <v>565</v>
-      </c>
-      <c r="K672" s="13" t="s">
+      <c r="G676" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H676" s="9"/>
+      <c r="I676" s="9"/>
+      <c r="J676" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K676" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="673" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B673" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C673" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D673" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E673" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F673" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G673" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H673" s="9"/>
-      <c r="I673" s="9"/>
-      <c r="J673" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="K673" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="674" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B674" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="C674" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="D674" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E674" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="F674" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G674" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H674" s="14"/>
-      <c r="I674" s="14"/>
-      <c r="J674" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="K674" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="675" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B675" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="C675" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="D675" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="E675" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="F675" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G675" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="H675" s="14"/>
-      <c r="I675" s="14"/>
-      <c r="J675" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="K675" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="676" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="1"/>
-      <c r="B676" s="1"/>
-      <c r="C676" s="1"/>
-      <c r="D676" s="1"/>
-      <c r="E676" s="2"/>
-      <c r="F676" s="2"/>
-      <c r="G676" s="2"/>
-      <c r="H676" s="2"/>
-      <c r="I676" s="2"/>
-      <c r="J676" s="1"/>
-      <c r="K676" s="1"/>
-      <c r="L676" s="1"/>
-      <c r="M676" s="1"/>
-      <c r="N676" s="1"/>
-      <c r="O676" s="1"/>
-    </row>
     <row r="677" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A677" s="1"/>
       <c r="B677" s="1"/>
       <c r="C677" s="1"/>
       <c r="D677" s="1"/>
@@ -15529,103 +15497,108 @@
       <c r="N677" s="1"/>
       <c r="O677" s="1"/>
     </row>
-    <row r="678" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B678" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="C678" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="D678" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="E678" s="14" t="s">
+    <row r="678" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A678" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B678" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="C678" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="D678" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="E678" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F678" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G678" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H678" s="9"/>
+      <c r="I678" s="9"/>
+      <c r="J678" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K678" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="10"/>
+      <c r="B679" s="10"/>
+      <c r="C679" s="10"/>
+      <c r="D679" s="10"/>
+      <c r="E679" s="11"/>
+      <c r="F679" s="11"/>
+      <c r="G679" s="11"/>
+      <c r="H679" s="11"/>
+      <c r="I679" s="11"/>
+      <c r="J679" s="10"/>
+      <c r="K679" s="10"/>
+      <c r="L679" s="10"/>
+      <c r="M679" s="10"/>
+      <c r="N679" s="10"/>
+      <c r="O679" s="10"/>
+    </row>
+    <row r="680" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B680" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C680" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D680" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E680" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F678" s="14" t="s">
+      <c r="F680" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G678" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H678" s="14"/>
-      <c r="I678" s="14"/>
-      <c r="J678" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="K678" s="13" t="s">
+      <c r="G680" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H680" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="I680" s="14"/>
+      <c r="J680" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K680" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="679" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="1"/>
-      <c r="B679" s="1"/>
-      <c r="C679" s="1"/>
-      <c r="D679" s="1"/>
-      <c r="E679" s="2"/>
-      <c r="F679" s="2"/>
-      <c r="G679" s="2"/>
-      <c r="H679" s="2"/>
-      <c r="I679" s="2"/>
-      <c r="J679" s="1"/>
-      <c r="K679" s="1"/>
-      <c r="L679" s="1"/>
-      <c r="M679" s="1"/>
-      <c r="N679" s="1"/>
-      <c r="O679" s="1"/>
-    </row>
-    <row r="680" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="10"/>
-      <c r="B680" s="10"/>
-      <c r="C680" s="10"/>
-      <c r="D680" s="10"/>
-      <c r="E680" s="11"/>
-      <c r="F680" s="11"/>
-      <c r="G680" s="11"/>
-      <c r="H680" s="11"/>
-      <c r="I680" s="11"/>
-      <c r="J680" s="10"/>
-      <c r="K680" s="10"/>
-      <c r="L680" s="10"/>
-      <c r="M680" s="10"/>
-      <c r="N680" s="10"/>
-      <c r="O680" s="10"/>
-    </row>
-    <row r="681" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B681" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C681" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D681" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E681" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F681" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G681" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H681" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="I681" s="9"/>
-      <c r="J681" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="K681" s="7" t="s">
-        <v>43</v>
-      </c>
+    <row r="681" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="1"/>
+      <c r="B681" s="1"/>
+      <c r="C681" s="1"/>
+      <c r="D681" s="1"/>
+      <c r="E681" s="2"/>
+      <c r="F681" s="2"/>
+      <c r="G681" s="2"/>
+      <c r="H681" s="2"/>
+      <c r="I681" s="2"/>
+      <c r="J681" s="1"/>
+      <c r="K681" s="1"/>
+      <c r="L681" s="1"/>
+      <c r="M681" s="1"/>
+      <c r="N681" s="1"/>
+      <c r="O681" s="1"/>
     </row>
     <row r="682" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="1"/>
+      <c r="A682" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B682" s="1"/>
       <c r="C682" s="1"/>
       <c r="D682" s="1"/>
@@ -15642,9 +15615,7 @@
       <c r="O682" s="1"/>
     </row>
     <row r="683" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A683" s="1"/>
       <c r="B683" s="1"/>
       <c r="C683" s="1"/>
       <c r="D683" s="1"/>
@@ -15653,7 +15624,9 @@
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
       <c r="I683" s="2"/>
-      <c r="J683" s="1"/>
+      <c r="J683" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="K683" s="1"/>
       <c r="L683" s="1"/>
       <c r="M683" s="1"/>
@@ -15671,7 +15644,7 @@
       <c r="H684" s="2"/>
       <c r="I684" s="2"/>
       <c r="J684" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K684" s="1"/>
       <c r="L684" s="1"/>
@@ -15690,7 +15663,7 @@
       <c r="H685" s="2"/>
       <c r="I685" s="2"/>
       <c r="J685" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K685" s="1"/>
       <c r="L685" s="1"/>
@@ -15708,140 +15681,196 @@
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
       <c r="I686" s="2"/>
-      <c r="J686" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="J686" s="1"/>
       <c r="K686" s="1"/>
       <c r="L686" s="1"/>
       <c r="M686" s="1"/>
       <c r="N686" s="1"/>
       <c r="O686" s="1"/>
     </row>
-    <row r="687" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="1"/>
-      <c r="B687" s="1"/>
-      <c r="C687" s="1"/>
-      <c r="D687" s="1"/>
-      <c r="E687" s="2"/>
-      <c r="F687" s="2"/>
-      <c r="G687" s="2"/>
-      <c r="H687" s="2"/>
-      <c r="I687" s="2"/>
-      <c r="J687" s="1"/>
-      <c r="K687" s="1"/>
-      <c r="L687" s="1"/>
-      <c r="M687" s="1"/>
-      <c r="N687" s="1"/>
-      <c r="O687" s="1"/>
-    </row>
-    <row r="688" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="1"/>
-      <c r="B688" s="1"/>
-      <c r="C688" s="1"/>
-      <c r="D688" s="1"/>
-      <c r="E688" s="2"/>
-      <c r="F688" s="2"/>
-      <c r="G688" s="2"/>
-      <c r="H688" s="2"/>
-      <c r="I688" s="2"/>
-      <c r="J688" s="1" t="s">
+    <row r="687" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B687" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D687" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E687" s="9" t="n">
+        <v>45692</v>
+      </c>
+      <c r="F687" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G687" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H687" s="9"/>
+      <c r="I687" s="9"/>
+      <c r="J687" s="7" t="s">
         <v>566</v>
       </c>
-      <c r="K688" s="1"/>
-      <c r="L688" s="1"/>
-      <c r="M688" s="1"/>
-      <c r="N688" s="1"/>
-      <c r="O688" s="1"/>
-    </row>
-    <row r="689" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="1"/>
-      <c r="B689" s="1"/>
-      <c r="C689" s="1"/>
-      <c r="D689" s="1"/>
-      <c r="E689" s="2"/>
-      <c r="F689" s="2"/>
-      <c r="G689" s="2"/>
-      <c r="H689" s="2"/>
-      <c r="I689" s="2"/>
-      <c r="J689" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="K689" s="1"/>
-      <c r="L689" s="1"/>
-      <c r="M689" s="1"/>
-      <c r="N689" s="1"/>
-      <c r="O689" s="1"/>
-    </row>
-    <row r="690" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="1"/>
-      <c r="B690" s="1"/>
-      <c r="C690" s="1"/>
-      <c r="D690" s="1"/>
-      <c r="E690" s="2"/>
-      <c r="F690" s="2"/>
-      <c r="G690" s="2"/>
-      <c r="H690" s="2"/>
-      <c r="I690" s="2"/>
-      <c r="J690" s="1" t="s">
+      <c r="K687" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="688" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B688" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C688" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D688" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E688" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F688" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G688" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H688" s="9"/>
+      <c r="I688" s="9"/>
+      <c r="J688" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K688" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="689" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B689" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="D689" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="E689" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F689" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G689" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H689" s="9"/>
+      <c r="I689" s="9"/>
+      <c r="J689" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="K689" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="690" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B690" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="C690" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="D690" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="E690" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F690" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G690" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H690" s="9"/>
+      <c r="I690" s="9"/>
+      <c r="J690" s="7" t="s">
         <v>567</v>
       </c>
-      <c r="K690" s="1"/>
-      <c r="L690" s="1"/>
-      <c r="M690" s="1"/>
-      <c r="N690" s="1"/>
-      <c r="O690" s="1"/>
-    </row>
-    <row r="691" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="1"/>
-      <c r="B691" s="1"/>
-      <c r="C691" s="1"/>
-      <c r="D691" s="1"/>
-      <c r="E691" s="2"/>
-      <c r="F691" s="2"/>
-      <c r="G691" s="2"/>
-      <c r="H691" s="2"/>
-      <c r="I691" s="2"/>
-      <c r="J691" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="K691" s="1"/>
-      <c r="L691" s="1"/>
-      <c r="M691" s="1"/>
-      <c r="N691" s="1"/>
-      <c r="O691" s="1"/>
-    </row>
-    <row r="692" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="1"/>
-      <c r="B692" s="1"/>
-      <c r="C692" s="1"/>
-      <c r="D692" s="1"/>
-      <c r="E692" s="2"/>
-      <c r="F692" s="2"/>
-      <c r="G692" s="2"/>
-      <c r="H692" s="2"/>
-      <c r="I692" s="2"/>
-      <c r="J692" s="1"/>
-      <c r="K692" s="1"/>
-      <c r="L692" s="1"/>
-      <c r="M692" s="1"/>
-      <c r="N692" s="1"/>
-      <c r="O692" s="1"/>
+      <c r="K690" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="691" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B691" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C691" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D691" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E691" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F691" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G691" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H691" s="9"/>
+      <c r="I691" s="9"/>
+      <c r="J691" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="K691" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="692" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B692" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C692" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D692" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E692" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F692" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G692" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H692" s="9"/>
+      <c r="I692" s="9"/>
+      <c r="J692" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="K692" s="7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="693" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B693" s="7" t="s">
-        <v>568</v>
+        <v>277</v>
       </c>
       <c r="C693" s="7" t="s">
-        <v>569</v>
+        <v>278</v>
       </c>
       <c r="D693" s="7" t="s">
-        <v>570</v>
+        <v>279</v>
       </c>
       <c r="E693" s="9" t="s">
-        <v>571</v>
+        <v>280</v>
       </c>
       <c r="F693" s="9" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="G693" s="9" t="s">
         <v>10</v>
@@ -15849,27 +15878,27 @@
       <c r="H693" s="9"/>
       <c r="I693" s="9"/>
       <c r="J693" s="7" t="s">
-        <v>572</v>
+        <v>281</v>
       </c>
       <c r="K693" s="7" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="694" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B694" s="7" t="s">
-        <v>114</v>
+        <v>173</v>
       </c>
       <c r="C694" s="7" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="D694" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="E694" s="9" t="s">
-        <v>97</v>
+        <v>175</v>
       </c>
       <c r="F694" s="9" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="G694" s="9" t="s">
         <v>10</v>
@@ -15877,140 +15906,131 @@
       <c r="H694" s="9"/>
       <c r="I694" s="9"/>
       <c r="J694" s="7" t="s">
-        <v>117</v>
+        <v>554</v>
       </c>
       <c r="K694" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="695" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C695" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D695" s="17" t="s">
-        <v>375</v>
-      </c>
-      <c r="E695" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="F695" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G695" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H695" s="9"/>
-      <c r="I695" s="9"/>
-      <c r="J695" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="K695" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="696" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A696" s="1"/>
-      <c r="B696" s="1"/>
-      <c r="C696" s="1"/>
-      <c r="D696" s="1"/>
-      <c r="E696" s="2"/>
-      <c r="F696" s="2"/>
-      <c r="G696" s="2"/>
-      <c r="H696" s="2"/>
-      <c r="I696" s="2"/>
-      <c r="J696" s="1"/>
-      <c r="K696" s="1"/>
-      <c r="L696" s="1"/>
-      <c r="M696" s="1"/>
-      <c r="N696" s="1"/>
-      <c r="O696" s="1"/>
-    </row>
-    <row r="697" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A697" s="7" t="s">
+    <row r="695" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1"/>
+      <c r="B695" s="1"/>
+      <c r="C695" s="1"/>
+      <c r="D695" s="1"/>
+      <c r="E695" s="2"/>
+      <c r="F695" s="2"/>
+      <c r="G695" s="2"/>
+      <c r="H695" s="2"/>
+      <c r="I695" s="2"/>
+      <c r="J695" s="1"/>
+      <c r="K695" s="1"/>
+      <c r="L695" s="1"/>
+      <c r="M695" s="1"/>
+      <c r="N695" s="1"/>
+      <c r="O695" s="1"/>
+    </row>
+    <row r="696" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B697" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="C697" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="D697" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="E697" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F697" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G697" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H697" s="9"/>
-      <c r="I697" s="9"/>
-      <c r="J697" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="K697" s="7" t="s">
+      <c r="B696" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="C696" s="13" t="s">
+        <v>571</v>
+      </c>
+      <c r="D696" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="E696" s="14" t="s">
+        <v>573</v>
+      </c>
+      <c r="F696" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G696" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H696" s="14"/>
+      <c r="I696" s="14"/>
+      <c r="J696" s="13" t="s">
+        <v>574</v>
+      </c>
+      <c r="K696" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A698" s="10"/>
-      <c r="B698" s="10"/>
-      <c r="C698" s="10"/>
-      <c r="D698" s="10"/>
-      <c r="E698" s="11"/>
-      <c r="F698" s="11"/>
-      <c r="G698" s="11"/>
-      <c r="H698" s="11"/>
-      <c r="I698" s="11"/>
-      <c r="J698" s="10"/>
-      <c r="K698" s="10"/>
-      <c r="L698" s="10"/>
-      <c r="M698" s="10"/>
-      <c r="N698" s="10"/>
-      <c r="O698" s="10"/>
-    </row>
-    <row r="699" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A699" s="13" t="s">
+    <row r="697" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="10"/>
+      <c r="B697" s="10"/>
+      <c r="C697" s="10"/>
+      <c r="D697" s="10"/>
+      <c r="E697" s="11"/>
+      <c r="F697" s="11"/>
+      <c r="G697" s="11"/>
+      <c r="H697" s="11"/>
+      <c r="I697" s="11"/>
+      <c r="J697" s="10"/>
+      <c r="K697" s="10"/>
+      <c r="L697" s="10"/>
+      <c r="M697" s="10"/>
+      <c r="N697" s="10"/>
+      <c r="O697" s="10"/>
+    </row>
+    <row r="698" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B699" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C699" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="D699" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="E699" s="14" t="s">
+      <c r="B698" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C698" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="D698" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="E698" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F699" s="14" t="s">
+      <c r="F698" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G699" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H699" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I699" s="14"/>
-      <c r="J699" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="K699" s="13" t="s">
+      <c r="G698" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H698" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I698" s="14"/>
+      <c r="J698" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="K698" s="13" t="s">
         <v>43</v>
       </c>
     </row>
+    <row r="699" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1"/>
+      <c r="B699" s="1"/>
+      <c r="C699" s="1"/>
+      <c r="D699" s="1"/>
+      <c r="E699" s="2"/>
+      <c r="F699" s="2"/>
+      <c r="G699" s="2"/>
+      <c r="H699" s="2"/>
+      <c r="I699" s="2"/>
+      <c r="J699" s="1"/>
+      <c r="K699" s="1"/>
+      <c r="L699" s="1"/>
+      <c r="M699" s="1"/>
+      <c r="N699" s="1"/>
+      <c r="O699" s="1"/>
+    </row>
     <row r="700" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A700" s="1"/>
+      <c r="A700" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B700" s="1"/>
       <c r="C700" s="1"/>
       <c r="D700" s="1"/>
@@ -16027,9 +16047,7 @@
       <c r="O700" s="1"/>
     </row>
     <row r="701" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A701" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A701" s="1"/>
       <c r="B701" s="1"/>
       <c r="C701" s="1"/>
       <c r="D701" s="1"/>
@@ -16038,7 +16056,9 @@
       <c r="G701" s="2"/>
       <c r="H701" s="2"/>
       <c r="I701" s="2"/>
-      <c r="J701" s="1"/>
+      <c r="J701" s="1" t="s">
+        <v>504</v>
+      </c>
       <c r="K701" s="1"/>
       <c r="L701" s="1"/>
       <c r="M701" s="1"/>
@@ -16056,7 +16076,7 @@
       <c r="H702" s="2"/>
       <c r="I702" s="2"/>
       <c r="J702" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K702" s="1"/>
       <c r="L702" s="1"/>
@@ -16075,7 +16095,7 @@
       <c r="H703" s="2"/>
       <c r="I703" s="2"/>
       <c r="J703" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K703" s="1"/>
       <c r="L703" s="1"/>
@@ -16093,9 +16113,7 @@
       <c r="G704" s="2"/>
       <c r="H704" s="2"/>
       <c r="I704" s="2"/>
-      <c r="J704" s="1" t="s">
-        <v>506</v>
-      </c>
+      <c r="J704" s="1"/>
       <c r="K704" s="1"/>
       <c r="L704" s="1"/>
       <c r="M704" s="1"/>
@@ -16104,86 +16122,83 @@
     </row>
     <row r="705" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1"/>
-      <c r="B705" s="1"/>
-      <c r="C705" s="1"/>
-      <c r="D705" s="1"/>
-      <c r="E705" s="2"/>
-      <c r="F705" s="2"/>
-      <c r="G705" s="2"/>
+      <c r="B705" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C705" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="D705" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="E705" s="9" t="n">
+        <v>45692</v>
+      </c>
+      <c r="F705" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G705" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="H705" s="2"/>
       <c r="I705" s="2"/>
-      <c r="J705" s="1"/>
-      <c r="K705" s="1"/>
+      <c r="J705" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="K705" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="L705" s="1"/>
       <c r="M705" s="1"/>
       <c r="N705" s="1"/>
       <c r="O705" s="1"/>
     </row>
-    <row r="706" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B706" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="C706" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="D706" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="E706" s="9" t="n">
-        <v>45692</v>
-      </c>
-      <c r="F706" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G706" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H706" s="9"/>
-      <c r="I706" s="9"/>
-      <c r="J706" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="K706" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="707" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B707" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C707" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D707" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E707" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F707" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G707" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H707" s="9"/>
-      <c r="I707" s="9"/>
-      <c r="J707" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="K707" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="708" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1"/>
+      <c r="B706" s="1"/>
+      <c r="C706" s="1"/>
+      <c r="D706" s="1"/>
+      <c r="E706" s="2"/>
+      <c r="F706" s="2"/>
+      <c r="G706" s="2"/>
+      <c r="H706" s="2"/>
+      <c r="I706" s="2"/>
+      <c r="J706" s="1"/>
+      <c r="K706" s="1"/>
+      <c r="L706" s="1"/>
+      <c r="M706" s="1"/>
+      <c r="N706" s="1"/>
+      <c r="O706" s="1"/>
+    </row>
+    <row r="707" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="1"/>
+      <c r="B707" s="1"/>
+      <c r="C707" s="1"/>
+      <c r="D707" s="1"/>
+      <c r="E707" s="2"/>
+      <c r="F707" s="2"/>
+      <c r="G707" s="2"/>
+      <c r="H707" s="2"/>
+      <c r="I707" s="2"/>
+      <c r="J707" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="K707" s="1"/>
+      <c r="L707" s="1"/>
+      <c r="M707" s="1"/>
+      <c r="N707" s="1"/>
+      <c r="O707" s="1"/>
+    </row>
+    <row r="708" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="1"/>
       <c r="B708" s="7" t="s">
-        <v>529</v>
+        <v>114</v>
       </c>
       <c r="C708" s="7" t="s">
-        <v>530</v>
+        <v>115</v>
       </c>
       <c r="D708" s="7" t="s">
-        <v>531</v>
+        <v>116</v>
       </c>
       <c r="E708" s="9" t="s">
         <v>97</v>
@@ -16194,52 +16209,58 @@
       <c r="G708" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H708" s="9"/>
-      <c r="I708" s="9"/>
-      <c r="J708" s="7" t="s">
-        <v>532</v>
-      </c>
-      <c r="K708" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="709" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B709" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="C709" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="D709" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="E709" s="9" t="s">
+      <c r="H708" s="2"/>
+      <c r="I708" s="2"/>
+      <c r="J708" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="K708" s="1"/>
+      <c r="L708" s="1"/>
+      <c r="M708" s="1"/>
+      <c r="N708" s="1"/>
+      <c r="O708" s="1"/>
+    </row>
+    <row r="709" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="1"/>
+      <c r="B709" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="C709" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D709" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="E709" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F709" s="9" t="s">
+      <c r="F709" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G709" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H709" s="9"/>
-      <c r="I709" s="9"/>
-      <c r="J709" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="K709" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="710" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G709" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H709" s="2"/>
+      <c r="I709" s="2"/>
+      <c r="J709" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="K709" s="1"/>
+      <c r="L709" s="1"/>
+      <c r="M709" s="1"/>
+      <c r="N709" s="1"/>
+      <c r="O709" s="1"/>
+    </row>
+    <row r="710" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="1"/>
       <c r="B710" s="7" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="C710" s="7" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="D710" s="7" t="s">
-        <v>116</v>
+        <v>166</v>
       </c>
       <c r="E710" s="9" t="s">
         <v>97</v>
@@ -16250,97 +16271,76 @@
       <c r="G710" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H710" s="9"/>
-      <c r="I710" s="9"/>
-      <c r="J710" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="K710" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="711" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B711" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C711" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="D711" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="E711" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F711" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G711" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H711" s="9"/>
-      <c r="I711" s="9"/>
-      <c r="J711" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="K711" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="712" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B712" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="C712" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="D712" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E712" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="F712" s="9" t="s">
+      <c r="H710" s="2"/>
+      <c r="I710" s="2"/>
+      <c r="J710" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="K710" s="1"/>
+      <c r="L710" s="1"/>
+      <c r="M710" s="1"/>
+      <c r="N710" s="1"/>
+      <c r="O710" s="1"/>
+    </row>
+    <row r="711" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="1"/>
+      <c r="B711" s="1"/>
+      <c r="C711" s="1"/>
+      <c r="D711" s="1"/>
+      <c r="E711" s="2"/>
+      <c r="F711" s="2"/>
+      <c r="G711" s="2"/>
+      <c r="H711" s="2"/>
+      <c r="I711" s="2"/>
+      <c r="J711" s="1"/>
+      <c r="K711" s="1"/>
+      <c r="L711" s="1"/>
+      <c r="M711" s="1"/>
+      <c r="N711" s="1"/>
+      <c r="O711" s="1"/>
+    </row>
+    <row r="712" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="1"/>
+      <c r="B712" s="1"/>
+      <c r="C712" s="1"/>
+      <c r="D712" s="1"/>
+      <c r="E712" s="2"/>
+      <c r="F712" s="2"/>
+      <c r="G712" s="2"/>
+      <c r="H712" s="2"/>
+      <c r="I712" s="2"/>
+      <c r="J712" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K712" s="1"/>
+      <c r="L712" s="1"/>
+      <c r="M712" s="1"/>
+      <c r="N712" s="1"/>
+      <c r="O712" s="1"/>
+    </row>
+    <row r="713" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B713" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C713" s="13" t="s">
+        <v>580</v>
+      </c>
+      <c r="D713" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="E713" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F713" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G712" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H712" s="9"/>
-      <c r="I712" s="9"/>
-      <c r="J712" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="K712" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="713" s="7" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B713" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C713" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D713" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E713" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F713" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="G713" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H713" s="9"/>
-      <c r="I713" s="9"/>
-      <c r="J713" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="K713" s="7" t="s">
-        <v>43</v>
+      <c r="G713" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H713" s="14"/>
+      <c r="I713" s="14"/>
+      <c r="J713" s="13" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="714" s="15" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16360,21 +16360,21 @@
       <c r="N714" s="1"/>
       <c r="O714" s="1"/>
     </row>
-    <row r="715" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B715" s="13" t="s">
-        <v>576</v>
+        <v>354</v>
       </c>
       <c r="C715" s="13" t="s">
-        <v>577</v>
+        <v>355</v>
       </c>
       <c r="D715" s="13" t="s">
-        <v>578</v>
+        <v>356</v>
       </c>
       <c r="E715" s="14" t="s">
-        <v>579</v>
+        <v>97</v>
       </c>
       <c r="F715" s="14" t="s">
         <v>41</v>
@@ -16385,7 +16385,7 @@
       <c r="H715" s="14"/>
       <c r="I715" s="14"/>
       <c r="J715" s="13" t="s">
-        <v>580</v>
+        <v>357</v>
       </c>
       <c r="K715" s="13" t="s">
         <v>43</v>
@@ -21282,16 +21282,16 @@
         <v>5</v>
       </c>
       <c r="B984" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C984" s="13" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D984" s="13" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E984" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F984" s="14" t="s">
         <v>41</v>
@@ -21304,7 +21304,7 @@
       </c>
       <c r="I984" s="14"/>
       <c r="J984" s="13" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K984" s="13" t="s">
         <v>43</v>
@@ -22529,16 +22529,16 @@
     </row>
     <row r="1041" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1041" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1041" s="13" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D1041" s="13" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E1041" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F1041" s="14" t="s">
         <v>41</v>
@@ -22549,7 +22549,7 @@
       <c r="H1041" s="14"/>
       <c r="I1041" s="14"/>
       <c r="J1041" s="13" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K1041" s="13" t="s">
         <v>43</v>
@@ -22605,7 +22605,7 @@
       <c r="H1043" s="14"/>
       <c r="I1043" s="14"/>
       <c r="J1043" s="13" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K1043" s="13" t="s">
         <v>43</v>
@@ -41181,16 +41181,16 @@
     </row>
     <row r="1148" s="13" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1148" s="13" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C1148" s="13" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D1148" s="13" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="E1148" s="14" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F1148" s="14" t="s">
         <v>41</v>
@@ -41201,7 +41201,7 @@
       <c r="H1148" s="14"/>
       <c r="I1148" s="14"/>
       <c r="J1148" s="13" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="K1148" s="13" t="s">
         <v>43</v>
@@ -41369,7 +41369,7 @@
       <c r="H1154" s="14"/>
       <c r="I1154" s="14"/>
       <c r="J1154" s="13" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="K1154" s="13" t="s">
         <v>43</v>
@@ -41682,16 +41682,16 @@
     </row>
     <row r="1166" s="7" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B1166" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="C1166" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D1166" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E1166" s="9" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="F1166" s="9" t="s">
         <v>256</v>
